--- a/DataBase.xlsx
+++ b/DataBase.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="527">
   <si>
     <t>Favorite Count</t>
   </si>
@@ -49,7 +49,16 @@
     <t>Twitter Web App</t>
   </si>
   <si>
+    <t>TweetDeck</t>
+  </si>
+  <si>
     <t>Curious Cat</t>
+  </si>
+  <si>
+    <t>Tumblr</t>
+  </si>
+  <si>
+    <t>Twitter for iPad</t>
   </si>
   <si>
     <t>Facebook</t>
@@ -65,147 +74,274 @@
     <t>quem tem fé também adoece, fica triste, fica ansioso, tem depressão e sofre. a fé não livra ninguém de passar por problemas, mas ela ajuda a pessoa a não ficar encostada na escuridão por muito tempo. 🍃</t>
   </si>
   <si>
-    <t>para de romantizar o suicídio, porra. ansiedade é doença, e depressão  não é arte.</t>
-  </si>
-  <si>
-    <t>a depressao ta batendo tanto em mim de uns dias pra ca.. medo de isso atrapalhar minha viage https://t.co/hl8k3z1y92</t>
-  </si>
-  <si>
-    <t>depressao é a pior doença do mundo</t>
-  </si>
-  <si>
-    <t>hoje fui no médico e uma coisa que sentia a muito tempo atrás volto, eu já sabia só não queria acreditar, depressão e algo tão sério mexe muito com a gente e quando não acaba com a nossa vida ne, mais e só uma fase ruim passar</t>
-  </si>
-  <si>
-    <t>@maaxfury @jornaloglobo vc acha q não existe, ele flodar um fórum numa determinada época é uma coisa, mas 1 segundo na deep pra adolescentes é fatal. ele ainda manda o povo ser forte pq vão ver atrocidades, essa gente ensina pessoas a se matarem, imagina um adolescente com depressão? gado!</t>
-  </si>
-  <si>
-    <t>meu melhor amigo ta virando amigo da garota que foi razão de eu entrar em depressão e ter crises de ansiedade, falsidade né mores?????</t>
-  </si>
-  <si>
-    <t>madruga da depressão</t>
-  </si>
-  <si>
-    <t>definitivamente o que mais me deixa puta nessa vida é canal religioso que faz horas de propaganda falando da depressão colocando a doença como "falta de deus" e que ir pra igreja vai curar tudo, o ódio que eu sinto n tá escrito</t>
-  </si>
-  <si>
-    <t>nossa comunidade do vale dos homossexuais precisa urgentemente de um exorcismo do encosto "diva depressão " que se apossa da galera do nada 
-rachar pessoas aleatoriamente não é uma personalidade, é falta de noção mesmo</t>
-  </si>
-  <si>
-    <t>@bolsonarosp @jairbolsonaro horrível de veja foi olho dos rumores é muito mal-caracter e ruim. deus já tem condenação de catástrofes com veja vá a depressão.</t>
-  </si>
-  <si>
-    <t>@samaraayasmim mas logo farei um sobre a depressão em si, com os sintomas e tudo maisss</t>
-  </si>
-  <si>
-    <t>acho importante dizer:
-#setembroamarelo mais q uma importante campanha contra o suicídio é também um mês de conscientização, é entender q todos os dias de todos os meses tem alguém lutando contra a depressão
-estejam sempre atentos,alguém ao seu lado pode estar precisando de ajuda</t>
-  </si>
-  <si>
-    <t>depressão é um bagulho estranho demais</t>
-  </si>
-  <si>
-    <t>ter ansiedade e depressão é tão ruim que
-tem dias que vc fica quase cansada de lutar contra seus demônios dentro de si e isso dói</t>
-  </si>
-  <si>
-    <t>meu deus gente uma criança de 10 anos 
-dez anooooosss
-a depressão tem que acabar https://t.co/snso7zw0zw</t>
-  </si>
-  <si>
-    <t>sério, conversa com quem você confia, por favor, só não desista. eu tive um início de depressão e as vezes eu ten… — me chama na dm, não to lembrando quem é, vamos conversar melhor. https://t.co/tdiqro7gho</t>
-  </si>
-  <si>
-    <t>obrigado, insônia ansiedade depressão pânico enxaqueca e labirintite, por me deixar acordado sem fazer porra nenhum https://t.co/llwrj5ykgx</t>
-  </si>
-  <si>
-    <t>#tercadetremurasdv só prestando condolências a setembro amarelo. gostaria de dizer que nos estamos juntos as pessoas com depressão e triste, lutaremos juntos com vocês mas, não nos deixe lutar sozinhos!!</t>
-  </si>
-  <si>
-    <t>ansiedade acaba mais cmg do que a depressão!!!! meu coração parece que vai pular pra fora da caixa.</t>
-  </si>
-  <si>
-    <t>eu não aguento mais isso, mnha vntd era desistir de tdo, porém não posso, cnsdo dessa depressão 😪</t>
-  </si>
-  <si>
-    <t>contei pra um amigo meu que eu tenho depressão e ele disse "nossa, nem parece", quando falam isso me dói de uma tal maneira que não consigo nem expressar, eu sou uma pessoa muito alegre, dou risada de tudo porém ninguém sabe o que acontece dentro de mim, e muitos julgam...</t>
-  </si>
-  <si>
-    <t>mas que tem alguém ali pra estar com vc caso precise em uma emergência. uma pessoa com depressao, ou algum outro transtorno tá frágil e isso faz mta diferença
-a vida é assim, não é mesmo? todos precisamos de apoio, do outro... sem essa de ser auto suficiente o tempo todo.</t>
-  </si>
-  <si>
-    <t>fiz um texto sobre depressão que me surpreendeu</t>
-  </si>
-  <si>
-    <t>meu deus, a depressão tem que acabar!!😩😭 https://t.co/82cht7vdas</t>
-  </si>
-  <si>
-    <t>@mmotinnha e sim eu precisei ir p nutri devido a varios fatores, não adianta eu estar bem magra com minhas taxas e afins lá em baixo então precisei 
-fora a depressão, minha dieta foi baseada p amenizar os efeitos da depressão! e ajudar nas taxas. emagrecer é consequência</t>
-  </si>
-  <si>
-    <t>depressão</t>
-  </si>
-  <si>
-    <t>@nekonomochi você começou a tomar remédios diferentes recente? pode ser efeito colateral de algum, essa depressão forte e tals</t>
-  </si>
-  <si>
-    <t>fui num rodízio de pizza há mais de 24h e meu sistema digestivo ainda está reclamando da decisão. quatro anos de depressão dignosticada nesse setembro e aparentemente meu corpo não aguenta mais (a cabeça a gente finge)</t>
-  </si>
-  <si>
-    <t>@pokehooker filme ótimo e mais ainda pra assistir nesse mês de campanha de tratamento para a depressão</t>
-  </si>
-  <si>
-    <t>não tenho paciência pra gente com "depressão", chora pra outro. próxima 👍🏽</t>
-  </si>
-  <si>
-    <t>incrível como os tweets de madrugada vira em "quero morrer" e o mais incrível ainda é as pessoas ignorando esses tweets, talvez essas pessoas estão realmente pensando em suicídio e ninguém faz nada, mandem dm véi, ajudem as pessoas com depressão, isso é real.</t>
-  </si>
-  <si>
-    <t>suicidas sempre carregam um belo sorriso no rosto,para n ser julgados,pq mts dizem q a depressão é frescura mais mal sabem que na realidade é uma coisa dolorosa que vai acabando com você aos poucos😔🥺...</t>
-  </si>
-  <si>
-    <t>@lauris_rf é que seu personagem ta com depressão</t>
-  </si>
-  <si>
-    <t>isso eh horrível ): como se já bastasse não minha depressão deixando minha vida totalmente parada https://t.co/kaepcrqmux</t>
-  </si>
-  <si>
-    <t>tô entrando em depressão e o culpado é o houellebecq</t>
-  </si>
-  <si>
-    <t>ler é oq eu mais amo fazer na vida. quando comecei a faculdade, pensei que abrindo mão disso, minhas notas seriam ótimas e eu viveria bem.
-kkkkkkkkkkkkkkkkk
-a depressão veio forte amores</t>
-  </si>
-  <si>
-    <t>@jonaathaf tentando botar depressao em palavras sendo q na minha cabeça eh aaaaaaa kkk</t>
-  </si>
-  <si>
-    <t>@flownegueba o importante é as pessoas se expressarem, não importa a forma que fizerem isso. se a pessoa tiver alguns problemas como depressão, ansiedade acho super válido, mas claro terapia é boa de todas as formas assim como a liberdade de expressão.</t>
-  </si>
-  <si>
-    <t>como dizia kelly key: mais uma noite chega e com ela a depressao</t>
-  </si>
-  <si>
-    <t>depressão não tem cara , nem cor , nem sexo , pode vir a qualquer momento da vida e é uma coisa muito séria !</t>
-  </si>
-  <si>
-    <t>velho vocês tem noção que eu venci a depressão 
-foram 4 anos de luta e eu consegui</t>
-  </si>
-  <si>
-    <t>@mandybc em relação a depressão? siiiim. nisso acredito muito. não é fácil mas é possível demais</t>
-  </si>
-  <si>
-    <t>não sei flertar bixo...uma hora tô jogando as teses e no minuto seguinte tô incentivando a menina a procurar ajuda profissional pra tratar da depressão</t>
-  </si>
-  <si>
-    <t>depressão é uma doença maldita! https://t.co/ltczd5vgqx</t>
+    <t>já dizia freud “antes de diagnosticar a si mesmo com depressão ou baixa autoestima, primeiro tenha certeza de que você não está, de fato, cercado por idiotas.”</t>
+  </si>
+  <si>
+    <t>gente uma criança de 10 anos cometeu suicídio e ainda tem gente que acha qhe depressão é frescura e brincadeira ? 😔😔😢😢😭😭💔💔 https://t.co/qwkoqxj4ew</t>
+  </si>
+  <si>
+    <t>"vou fingir que tenho depressão, assim todos se solidarizam". pera... isso já flopou
+"vou fingir que estou sendo ameaçado".  #forçafelipe</t>
+  </si>
+  <si>
+    <t>spunkytristinho pq nariz não funciona pqp que depressão</t>
+  </si>
+  <si>
+    <t>praça e uma senhora tava comentando que a filha da vizinha tentou suicídio e a ouvinte retrucou falando que a jovenzinha não foi bem educada e que agora quer entrar na moda dos jovens de terem depressão. só que ++++</t>
+  </si>
+  <si>
+    <t>amei a piadinha com doença psicológica alheia, se fosse depressão geral: cancela essa menina https://t.co/kvhx12x1s3</t>
+  </si>
+  <si>
+    <t>n cnsg dormir vsfd odeio a depressão
+#setembroamarelo</t>
+  </si>
+  <si>
+    <t>ansiedade = não conseguir dormir de noite.
+depressão= não conseguir acordar de manhã.
+😭😭😭</t>
+  </si>
+  <si>
+    <t>mas é isso gente 
+bebam água 
+cuidem da saúde mental 
+e se estiverem num processo de tratamento contra depressao ou qualquer tipo de transtorno psicológico
+não abandonem o tratamento!!!! 
+façam carinho em pets de rua tambem</t>
+  </si>
+  <si>
+    <t>até por conta de ansiedade, depressão e tudo mais, então minha cabeça n funciona como deveria as vezes</t>
+  </si>
+  <si>
+    <t>nunca fui a favor de medicamentos que auxiliassem no processo contra a depressao e crises de ansiedade, só que agora eu vejo o quão ignorante eu fui por largar meu tratamento</t>
+  </si>
+  <si>
+    <t>essa é a cara da depressão !! https://t.co/ywflkron4g</t>
+  </si>
+  <si>
+    <t>@kgmortais @re_anorexic eu mesma, mesmo com depressão nunca cheguei ao estágio de não tomar banho, até esses dias que eu fiquei uns 2 dias, o negócio é louco pq  antes eu pensava “como assim não consegue é só um banho” até eu perceber que não era o banho e sim a força pra ficar em pé e se movimentar</t>
+  </si>
+  <si>
+    <t>"fui dar uma rapidinha com a depressão, mas que merda ela se apaixonou"</t>
+  </si>
+  <si>
+    <t>é por isso que eu sempre digo, saúde mental é coisa séria sim, depressao é sério pra caralho! quando fui diagnosticada eu simplesmente caguei pra tudo e praticamente ri na cara do psiquiatra</t>
+  </si>
+  <si>
+    <t>meus ataques de pânico, crise de ansiedade e depressão não precisam de frases "não se mate, vc é especial 🤩🤩" eles precisam de tratamento acessível, tratamento gratuito, remédios sem o preço de um rim, gente que se importa de verdade não só uma vez no ano pra ganhar likes</t>
+  </si>
+  <si>
+    <t>@lilia_facanha kkkkkkkkkkkkkkkk eu aqui numa depressão e tu com essa pqp</t>
+  </si>
+  <si>
+    <t>a depressão acabou de bater na minha porta e eu deixei ela entrar</t>
+  </si>
+  <si>
+    <t>minha ansiedade, insônia e depressão sabendo que tao me destruindo aos poucos https://t.co/rpt2gjaq6s</t>
+  </si>
+  <si>
+    <t>quem diria que sexta e sabado depois de uma crise fodida de depressao eu estava no auge da felicidade porque ia tomar um café com o gabriel, pra no mesmo dia eu simplesmente c a i r</t>
+  </si>
+  <si>
+    <t>depressão é uma merda</t>
+  </si>
+  <si>
+    <t>ouvindo de madrugada então... eu tenho quase uma depressão quando escuto a música e vejo o clipe</t>
+  </si>
+  <si>
+    <t>@bernardohrique não é floquinho não cara, universidade federal é uma fábrica de depressão, principalmente engenharia.</t>
+  </si>
+  <si>
+    <t>@whindersson olá sei que você nunca ira responder mais vou perguntar msm assim
+como vc conseguiu e consegui lutar contra a depressão?
+eu sei que tem alguma coisa errada comigo,tem dias que não quero conversa e não consigo me olhar no espelho sem te raiva de mim</t>
+  </si>
+  <si>
+    <t>eu realmente gostaria de poder ter uma vida normal, mas graças a essas fobias, depressão, ansiedade, problemas físicos e a todas as outras dificuldades e problemas, eu nunca consegui ter uma vida de vdd. parece que as coisas nunca dão certo da maneira correta.</t>
+  </si>
+  <si>
+    <t>@flipfelop acordei e to comendo gelatina
+n gosto de acordar
+haaa meme de depressao morte suicidio eu sou mt engraçado no twiter pqpppppppppppppppppppppppp vai tomar no cu caralhooooooooooo</t>
+  </si>
+  <si>
+    <t>a preocupação deveria levar-nos à ação e não à depressão.😢</t>
+  </si>
+  <si>
+    <t>meu maior medo é perder as pessoas q eu amo por causa de depressão, mas eu não sei como agir e oq fazer só sei chorar</t>
+  </si>
+  <si>
+    <t>eu posso tudo que eu quiser
+se eu quiser
+e você mulher
+não vai me impedir
+de conquistar tudo o que eu sonhei pra mim
+se eu não perdi pra depressão
+não vou perder pra ti</t>
+  </si>
+  <si>
+    <t>to vendo reportagem de depressão do globo reporte e te falar só que tem depressão sabe o quanto é ruim ..</t>
+  </si>
+  <si>
+    <t>nego acha que depressão é brincadeira , vai achando que é msm ! minha amg se matou ontem e eu quase que fui hj ! bglh doido só quem passa , sabe !!! 😥</t>
+  </si>
+  <si>
+    <t>depressão é uma bosta, qualquer coisa mexe com nosso psicologico que deus me livre...</t>
+  </si>
+  <si>
+    <t>@saraolioti 1° é sempre bom ter algum profissional pra falar (amigos não são pra isso)
+2° vc tem q ver isso ai,pode acabar te causando um trauma ou gatilho para depressão</t>
+  </si>
+  <si>
+    <t>o auge da depressão é quando vc faz todo mundo sofrer junto c vc</t>
+  </si>
+  <si>
+    <t>distrações materiais e químicas q inibem minha depressão: acabam
+eu: https://t.co/r2ieo7pgtw</t>
+  </si>
+  <si>
+    <t>me apropriar da minha estética de "guitarrista de estrada" tem me trazido muito mais conhecimento, técnica e oportunidades do que todos os anos de paranóia e depressão em busca de ser um músico acadêmico perfeito.
+estou feliz com o que faço e eu acho isso muito inusitado.</t>
+  </si>
+  <si>
+    <t>mds .. 10aninhos😔 depressão é foda pra crl🤦🏾‍♀️😔 https://t.co/r8jtpgdsqj</t>
+  </si>
+  <si>
+    <t>nossa 🤔🤔🤔🤔 como assim vc tem depressao 🤔🤔😔😭😭😖😖😖☹️☹️☹️ se você dá risada???????? 🤔🤔🤔👍🏼👍🏼 desculpa amigo, sou o fiscal de doença e o seu psicólogo mentiu  🤥🤥 p vc 😉😉😆 vc er falso huehue🤣🤣🤷🏽 😃🤥🤥🤥🤷🏽🤷🏽 pfv se retirar do vale dos depressivos indies obgd 😊😉👍🏼</t>
+  </si>
+  <si>
+    <t>@arqtsfer os protagonistas passaram por situações bem traumáticas
+tem pais abusivos, morte, um protagonista com bipolaridade, depressão, tentativa de suicídio e por aí vai, é um livro profundo e é bom, mas é pesado
+tentei n dar mto spoiler kkkkk</t>
+  </si>
+  <si>
+    <t>nunca pensei que ia ter problemas com peso, mas a depressão ta me deixando muito instável com isso</t>
+  </si>
+  <si>
+    <t>se ate o thor que é um deus teve depressao</t>
+  </si>
+  <si>
+    <t>o q pensa sobre depressão? — um assunto bem delicado de se falar, mas é real nao é falta de deus nem frescura https://t.co/ek95v2qyro</t>
+  </si>
+  <si>
+    <t>hj foi um dos piores dias da minha vida
+e eu não estou com vontade de morrer
+depressão pq choras?</t>
+  </si>
+  <si>
+    <t>mais uma noite chega e com ela a depressão</t>
+  </si>
+  <si>
+    <t>meu humor ta oscilando mt por causa da depressão e eu constantemente tenho q ficar pedindo desculpas por ficar mudando “do nada”</t>
+  </si>
+  <si>
+    <t>mais uma noite
+      chega e com ela 
+               a  depressão</t>
+  </si>
+  <si>
+    <t>13rw é a série mais imbecil e irresponsável de todas, literalmente, mas o que eu vi de pessoa doente fazendo aquele discurso "ain mas a hannah não tinha nada não, ela era mimada mesmo, tinha de tudo e reclamava piriri pororo" como se isso impedisse uma pessoa de ter depressão</t>
+  </si>
+  <si>
+    <t>domingo foi o terceiro pior dia da minha vida, ter que ouvir minha irmã falando que minha depressão e tentativa de suicídio é graça, que quem quer se matar coloca a corda no pescoço e morre de uma vez, e minha mãe ouvia aquilo e ficava quieta. mano, só quero sair daqui logo</t>
+  </si>
+  <si>
+    <t>com certeza deve ser o mesmo povo hipócrita que finge se importar com depressão só pq estamos no setembro amarelo</t>
+  </si>
+  <si>
+    <t>depressão é uma doença maldita</t>
+  </si>
+  <si>
+    <t>crush-depressao: https://t.co/qpbtk4ltdd</t>
+  </si>
+  <si>
+    <t>@naruyan5 antes de eu saber que remedio tomar eu ficava 3 horas todo dia rolando na cama chorando e me batendo pra coçar sem ficar com cicatriz, era insuportavel, a depressão batia forte de perder todo dia 3 horas do dia com coceira por causa de calor d:
+antialergico me salvou s2</t>
+  </si>
+  <si>
+    <t>@bts_br @bts_twt fico tão triste de ver que tem pessoas tão obcecadas no fandom... isso é inaceitável, as pessoas estão privando os meninos de viver as suas próprias vidas, depois não reclamem de alguns idols terem depressão parte disso é a pressão que eles sofrem pelos "fãs"</t>
+  </si>
+  <si>
+    <t>meu sonho é tirar uma foto segurando uma plaquinha escrita "eu venci a depressão" só de pensar nisso os olhos já enchem de lágrimas</t>
+  </si>
+  <si>
+    <t>3 da manhã e minha mãe ficou até agora perguntando pra mim o que aconteceu comigo, pq não converso mais com meus pais, o por que eu não saio mais do quarto, que eu troco o dia pela noite, e disse que daqui uns dias vou ficar com depressão.</t>
+  </si>
+  <si>
+    <t>@damadeferroofic quem não tem depressão, que é meu caso, muitas vezes tem dificuldade de reconhecer o que está acontecendo com a pessoa depressiva ao seu lado. isso piora o quadro.
+solidarizo-me muito c/ quem tem depressão. parabéns por ter encontrado um caminho. lute sempre!  é possível superar!</t>
+  </si>
+  <si>
+    <t>vou falar uma coisa para vocês, joão era meu filho do coração, e vitória virou minha filha do coração também, ninguém queria que o joão morresse jamais, mas a vida é assim, não pode é ficar em depressão e tentar se matar, só eu sei o que  a minha princesa passa, e nesse https://t.co/ruxhtn5rfp</t>
+  </si>
+  <si>
+    <t>a depressão me pegou
+tentei escapar não consegui
+nas grades da minha aflição
+mais um cartão eu fali</t>
+  </si>
+  <si>
+    <t>@abrilseuculo @senpa11 eu vou com minha depressão</t>
+  </si>
+  <si>
+    <t>todos tentamos passar impressão de que estamos bem e nada está acontecendo, pelo contrário. existem coisas acontecendo sim, e tá tudo bem se estão acontecendo, somos feitos de altos e baixos. depressão é uma parada séria, então rapaziada, se algum amigo ou conhecido estiver +</t>
+  </si>
+  <si>
+    <t>@laiismoliveira @alpha_depressao @malucalil kkkkkkkkkkk draminha</t>
+  </si>
+  <si>
+    <t>tão feliz de ver os meninos do diva depressão conquistando tantas coisas. tô morrendo com o vlog deles catando coisas do lixo em nova york.</t>
+  </si>
+  <si>
+    <t>mais uma noite chega e com ela a depressão (e os jobs acumulados</t>
+  </si>
+  <si>
+    <t>talvez eu esteja com depressão, mas não queira aceitar que eu tenha isso</t>
+  </si>
+  <si>
+    <t>entrei no site do walmart dos eua e canadá e agora estou em depressão.</t>
+  </si>
+  <si>
+    <t>a gente pode enterrar as coisas mas uma hora elas acabam saindo na forma de ansiedade, depressão ou vício 🤐</t>
+  </si>
+  <si>
+    <t>crises de ansiedade e depressão são algo suerral, vc esta bem e do nada fica mal...</t>
+  </si>
+  <si>
+    <t>eu morro de preocupação com o samuel as vezes,  essa depressão ta deixando ele cada vez pior</t>
+  </si>
+  <si>
+    <t>não sei como ajudar uma pessoa que tem depressão, parou de tomar os remédios e não quer voltar e não quer fazer terapia de jeito nenhum. amigos podem ajudar um pouco, conversar pode ajudar um pouco, mas isso é uma doença, que não some simplesmente assim..</t>
+  </si>
+  <si>
+    <t>@mayaodayaka eu roia por causa da ansiedade/depressão  aew falei para mim mesmo que ia parar de roer e supera o resto, ent n sei como uma pessoa normal pararia kkk</t>
+  </si>
+  <si>
+    <t>na verdade posso,meu deus é maior que qualquer coisa,eu entrei em uma depressão de 2 anos,e sai dela a quase 2 meses pq eu decidi q não aceitava mais isso na minha vida e fui a procura da cura,deus me curou e eu não sai 'do ambiente' pq o minha missão lá ainda n acabou. https://t.co/osjck2vuac</t>
+  </si>
+  <si>
+    <t>depressão acaba com a gente, e fica muito pior quando tem alguém te afundando mais</t>
+  </si>
+  <si>
+    <t>tpm, imunidade baixa voltou com tudo, insônia a um mês sem dormir durante a noite, crises de ansiedade, depressão a flor da pele, portando tudo de pior nesse mundo e ainda de pé só não sei até quando</t>
+  </si>
+  <si>
+    <t>acho que cheguei a conclusao de que eu nunca vou me curar da depressao, nao importa quantos remedios eu tome</t>
+  </si>
+  <si>
+    <t>eu quero acreditar que vai chegar tal dia e vou ter desistido do suicídio, quero dizer "eu venci a depressão" mas eu só penso em me matar, eu não tenho forças, não consigo malema pensar em coisas boas, minha autoestima caiu em um grau q eu nem sabia que poderia cair tanto</t>
+  </si>
+  <si>
+    <t>mas sabe eu sei lá se tenho sentimento ainda dentro de mim, mas tenho a nítida certeza que amo ela. tá mt difícil esses dias, ela tem me dado forças, tem confiado que vou aguentar mais essa vez. só que a depressão veio tão forte que tá me consumindo muito</t>
+  </si>
+  <si>
+    <t>depressão pós derrota</t>
+  </si>
+  <si>
+    <t>a depressão pôs um final de semana muito incrível ela vem</t>
+  </si>
+  <si>
+    <t>tristeza solidão carência depressão trevas angústia</t>
   </si>
   <si>
     <t>esse inferno de depressão nunca vai acabar?</t>
@@ -235,6 +371,49 @@
   </si>
   <si>
     <t>eu digo pra mim mesma que não estou entrando em depressão</t>
+  </si>
+  <si>
+    <t>dê 4 anos pra cá tive crises de ansiedade, depressão e crise de pânico! engordei mais de 25 kg e isso não foi atoa...</t>
+  </si>
+  <si>
+    <t>aprendi sobre depressão sim, da pior forma, e às vezes tem sentimentos que nem o wikipédia do google te informa</t>
+  </si>
+  <si>
+    <t>cada vez a depressão afeta mais os jovens https://t.co/bhj0feth3x</t>
+  </si>
+  <si>
+    <t>a depressão irá dominar o mundo por falta de amor</t>
+  </si>
+  <si>
+    <t>é horrível como nem o remédio segura essa depressão pré menstruação..</t>
+  </si>
+  <si>
+    <t>essa depressão vai passar você vai ver🎶😭
+#regisdanese</t>
+  </si>
+  <si>
+    <t>preciso dormir..... mas vou assistir vídeos do diva depressão *—*</t>
+  </si>
+  <si>
+    <t>depressão é uma merda né!? quando vc acha que passou, que venceu ela, do nada ela vem e bate na porta pra lembrar que tá sempre ali 😥</t>
+  </si>
+  <si>
+    <t>@0oliveira_pedro e em seguida vem textos e mensagens de solidariedade e como é importante tratar depressão como uma doença, semanas depois tudo volta ao normal assim como o bullyng alheio</t>
+  </si>
+  <si>
+    <t>depressão matar! 🥺😔</t>
+  </si>
+  <si>
+    <t>atitudes que evitam a depressão:
+1 – não esperar nada das pessoas
+2 – não ficar se cobrando e se exigindo uma vida ideal, sem erros.
+3 – expressar mais seus sentimentos sem medo, não bloquear... https://t.co/eb3dvvhtaj</t>
+  </si>
+  <si>
+    <t>@dc_da_depressao nunca nada tá bom pra esse povo kkkkk dczete merece se foder mesmo kkkk inclusive tá melhor que aquela tosqueira de uniforme do ezra miller</t>
+  </si>
+  <si>
+    <t>a depressão não vem de um momento, ela vem de uma vida! ♾️</t>
   </si>
   <si>
     <t>e juro, não quero entrar em depressão</t>
@@ -376,36 +555,509 @@
     <t>não basta ter depressão e síndrome do pânico tem que morar no inferno que virou o brasil mas tenho fé em dias melhores pra mim e pro país</t>
   </si>
   <si>
+    <t>@maisumandrea não só de depressão individual, mas da sociedade como um todo. já se fala e conversa sobre saúde mental bem mais que antes, oms segue investindo muito em pesquisa. a vantagem de ser um mal global é que atinge também os  ricos e eles têm dinheiro pra investir kkk</t>
+  </si>
+  <si>
+    <t>@monica_florr ced 2 na depressão...</t>
+  </si>
+  <si>
+    <t>não sei flertar bixo...uma hora tô jogando as teses e no minuto seguinte tô incentivando a menina a procurar ajuda profissional pra tratar da depressão</t>
+  </si>
+  <si>
+    <t>depressão é uma doença maldita! https://t.co/ltczd5vgqx</t>
+  </si>
+  <si>
+    <t>velho vocês tem noção que eu venci a depressão 
+foram 4 anos de luta e eu consegui</t>
+  </si>
+  <si>
+    <t>@mandybc em relação a depressão? siiiim. nisso acredito muito. não é fácil mas é possível demais</t>
+  </si>
+  <si>
+    <t>incrível como os tweets de madrugada vira em "quero morrer" e o mais incrível ainda é as pessoas ignorando esses tweets, talvez essas pessoas estão realmente pensando em suicídio e ninguém faz nada, mandem dm véi, ajudem as pessoas com depressão, isso é real.</t>
+  </si>
+  <si>
+    <t>suicidas sempre carregam um belo sorriso no rosto,para n ser julgados,pq mts dizem q a depressão é frescura mais mal sabem que na realidade é uma coisa dolorosa que vai acabando com você aos poucos😔🥺...</t>
+  </si>
+  <si>
+    <t>@lauris_rf é que seu personagem ta com depressão</t>
+  </si>
+  <si>
+    <t>isso eh horrível ): como se já bastasse não minha depressão deixando minha vida totalmente parada https://t.co/kaepcrqmux</t>
+  </si>
+  <si>
+    <t>tô entrando em depressão e o culpado é o houellebecq</t>
+  </si>
+  <si>
+    <t>ler é oq eu mais amo fazer na vida. quando comecei a faculdade, pensei que abrindo mão disso, minhas notas seriam ótimas e eu viveria bem.
+kkkkkkkkkkkkkkkkk
+a depressão veio forte amores</t>
+  </si>
+  <si>
+    <t>@jonaathaf tentando botar depressao em palavras sendo q na minha cabeça eh aaaaaaa kkk</t>
+  </si>
+  <si>
+    <t>@flownegueba o importante é as pessoas se expressarem, não importa a forma que fizerem isso. se a pessoa tiver alguns problemas como depressão, ansiedade acho super válido, mas claro terapia é boa de todas as formas assim como a liberdade de expressão.</t>
+  </si>
+  <si>
+    <t>depressão não tem cara , nem cor , nem sexo , pode vir a qualquer momento da vida e é uma coisa muito séria !</t>
+  </si>
+  <si>
+    <t>@alinecoelha @belpetit mas assim, eu tenho depressão e sou borderline e não senti diferença</t>
+  </si>
+  <si>
+    <t>o suicídio por depressão é real, se estiver se sentindo triste é quiser conversar estou sempre disponível.
+eu quero você vivo.</t>
+  </si>
+  <si>
+    <t>e galera depressão não se cura com drogas , problemas n  se curam com drogas , as drogas só adiam os problemas e uma hora vcs tem que lidar com eles</t>
+  </si>
+  <si>
+    <t>a personagem tem uma série de outros problemas, idade diferente e tals, mas na questão depressão não difere em quase nada, independente dos fatores de cada doente.  o limbo existencial é o mesmo e a dificuldade de se sair dele só quem tem sabe :/.</t>
+  </si>
+  <si>
+    <t>@lipe_rood é pq sua serotonina e num sei o que fica totalmente em.alta quando feito o uso e quem já tem depressao ou ansiedade aí é que tem mesmo uma queda dessas químicas</t>
+  </si>
+  <si>
+    <t>foda que na hora da depressão você não tem amigos , você não tem ninguém você tem no máximo a psicologa você e um quarto vazio !</t>
+  </si>
+  <si>
+    <t>depressao é a pior doença do mundo</t>
+  </si>
+  <si>
+    <t>hoje fui no médico e uma coisa que sentia a muito tempo atrás volto, eu já sabia só não queria acreditar, depressão e algo tão sério mexe muito com a gente e quando não acaba com a nossa vida ne, mais e só uma fase ruim passar</t>
+  </si>
+  <si>
+    <t>@maaxfury @jornaloglobo vc acha q não existe, ele flodar um fórum numa determinada época é uma coisa, mas 1 segundo na deep pra adolescentes é fatal. ele ainda manda o povo ser forte pq vão ver atrocidades, essa gente ensina pessoas a se matarem, imagina um adolescente com depressão? gado!</t>
+  </si>
+  <si>
+    <t>meu melhor amigo ta virando amigo da garota que foi razão de eu entrar em depressão e ter crises de ansiedade, falsidade né mores?????</t>
+  </si>
+  <si>
+    <t>madruga da depressão</t>
+  </si>
+  <si>
+    <t>definitivamente o que mais me deixa puta nessa vida é canal religioso que faz horas de propaganda falando da depressão colocando a doença como "falta de deus" e que ir pra igreja vai curar tudo, o ódio que eu sinto n tá escrito</t>
+  </si>
+  <si>
+    <t>nossa comunidade do vale dos homossexuais precisa urgentemente de um exorcismo do encosto "diva depressão " que se apossa da galera do nada 
+rachar pessoas aleatoriamente não é uma personalidade, é falta de noção mesmo</t>
+  </si>
+  <si>
+    <t>@samaraayasmim mas logo farei um sobre a depressão em si, com os sintomas e tudo maisss</t>
+  </si>
+  <si>
+    <t>acho importante dizer:
+#setembroamarelo mais q uma importante campanha contra o suicídio é também um mês de conscientização, é entender q todos os dias de todos os meses tem alguém lutando contra a depressão
+estejam sempre atentos,alguém ao seu lado pode estar precisando de ajuda</t>
+  </si>
+  <si>
+    <t>depressão é um bagulho estranho demais</t>
+  </si>
+  <si>
+    <t>a depressao ta batendo tanto em mim de uns dias pra ca.. medo de isso atrapalhar minha viage https://t.co/hl8k3z1y92</t>
+  </si>
+  <si>
+    <t>ter ansiedade e depressão é tão ruim que
+tem dias que vc fica quase cansada de lutar contra seus demônios dentro de si e isso dói</t>
+  </si>
+  <si>
+    <t>sério, conversa com quem você confia, por favor, só não desista. eu tive um início de depressão e as vezes eu ten… — me chama na dm, não to lembrando quem é, vamos conversar melhor. https://t.co/tdiqro7gho</t>
+  </si>
+  <si>
+    <t>obrigado, insônia ansiedade depressão pânico enxaqueca e labirintite, por me deixar acordado sem fazer porra nenhum https://t.co/llwrj5ykgx</t>
+  </si>
+  <si>
+    <t>#tercadetremurasdv só prestando condolências a setembro amarelo. gostaria de dizer que nos estamos juntos as pessoas com depressão e triste, lutaremos juntos com vocês mas, não nos deixe lutar sozinhos!!</t>
+  </si>
+  <si>
+    <t>ansiedade acaba mais cmg do que a depressão!!!! meu coração parece que vai pular pra fora da caixa.</t>
+  </si>
+  <si>
+    <t>para de romantizar o suicídio, porra. ansiedade é doença, e depressão  não é arte.</t>
+  </si>
+  <si>
+    <t>eu não aguento mais isso, mnha vntd era desistir de tdo, porém não posso, cnsdo dessa depressão 😪</t>
+  </si>
+  <si>
+    <t>contei pra um amigo meu que eu tenho depressão e ele disse "nossa, nem parece", quando falam isso me dói de uma tal maneira que não consigo nem expressar, eu sou uma pessoa muito alegre, dou risada de tudo porém ninguém sabe o que acontece dentro de mim, e muitos julgam...</t>
+  </si>
+  <si>
+    <t>mas que tem alguém ali pra estar com vc caso precise em uma emergência. uma pessoa com depressao, ou algum outro transtorno tá frágil e isso faz mta diferença
+a vida é assim, não é mesmo? todos precisamos de apoio, do outro... sem essa de ser auto suficiente o tempo todo.</t>
+  </si>
+  <si>
+    <t>fiz um texto sobre depressão que me surpreendeu</t>
+  </si>
+  <si>
+    <t>meu deus, a depressão tem que acabar!!😩😭 https://t.co/82cht7vdas</t>
+  </si>
+  <si>
+    <t>@mmotinnha e sim eu precisei ir p nutri devido a varios fatores, não adianta eu estar bem magra com minhas taxas e afins lá em baixo então precisei 
+fora a depressão, minha dieta foi baseada p amenizar os efeitos da depressão! e ajudar nas taxas. emagrecer é consequência</t>
+  </si>
+  <si>
+    <t>depressão</t>
+  </si>
+  <si>
+    <t>@nekonomochi você começou a tomar remédios diferentes recente? pode ser efeito colateral de algum, essa depressão forte e tals</t>
+  </si>
+  <si>
+    <t>fui num rodízio de pizza há mais de 24h e meu sistema digestivo ainda está reclamando da decisão. quatro anos de depressão dignosticada nesse setembro e aparentemente meu corpo não aguenta mais (a cabeça a gente finge)</t>
+  </si>
+  <si>
+    <t>@pokehooker filme ótimo e mais ainda pra assistir nesse mês de campanha de tratamento para a depressão</t>
+  </si>
+  <si>
+    <t>não tenho paciência pra gente com "depressão", chora pra outro. próxima 👍🏽</t>
+  </si>
+  <si>
+    <t>to casada porque ele encheu meu saco pra fica cmg através de uma amiga nossa, ai eu fiquei  , dps  eu fui mora cm ele cm 4 meses ficando , pq fiquei cm depressão após perde minha mae e meu irmão, temos 1 filho de 3 anos , se separamos por 2 anos , e hj estamos juntos de novo 💘👪 https://t.co/14gdeajlo3 https://t.co/fgyc7dpgoe</t>
+  </si>
+  <si>
+    <t>depressao me mate logo nao aguento mais sofrer</t>
+  </si>
+  <si>
+    <t>vontade de tranca o curso pra me entrega pra depressao e morre antes de dezembro kkk! tudoh</t>
+  </si>
+  <si>
+    <t>mano uma criança de apenas 10 anos sofrendo de depressão e se suicidou é chocante/triste.. depressão não tem cara, nem idade e a gente não escolhe ter isso, que doença maldita! 😭😭😭😭
+e vcs ainda falam que é frescura/bobeira, ok. https://t.co/ft7bnb5t71</t>
+  </si>
+  <si>
+    <t>você não tem depressão quando não tem pessoas em sua volta, você tem depressão quando você tem muita pessoas ao seu redor</t>
+  </si>
+  <si>
+    <t>cara depressão tem que acabar 😪 https://t.co/dblpr9nozh</t>
+  </si>
+  <si>
+    <t>conheci 2 meninas q passa pelo msm que eu passo depressão e solidão msm estando com vários ao lado</t>
+  </si>
+  <si>
     <t>Santo André-SP</t>
   </si>
   <si>
     <t>São Paulo, Brasil</t>
   </si>
   <si>
+    <t>📍psicologia é arte</t>
+  </si>
+  <si>
+    <t>agorist/individualista radical</t>
+  </si>
+  <si>
+    <t>Summoner's rift</t>
+  </si>
+  <si>
+    <t>Joinville, Brasil</t>
+  </si>
+  <si>
+    <t>Rio de Janeiro</t>
+  </si>
+  <si>
+    <t>Perdido no olhar dela</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Submundo </t>
+  </si>
+  <si>
+    <t>Brasil</t>
+  </si>
+  <si>
+    <t>Manaus</t>
+  </si>
+  <si>
+    <t>Rio Branco, Acre.</t>
+  </si>
+  <si>
+    <t>Florianópolis, Brasil</t>
+  </si>
+  <si>
+    <t>Rio de Janeiro, Brasil</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Planaltina, Brasil</t>
+  </si>
+  <si>
+    <t>Cascavel, Brasil</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>Maricá, Brasil</t>
+  </si>
+  <si>
+    <t>Campo Belo, São Paulo</t>
+  </si>
+  <si>
+    <t>São Paulo Capital</t>
+  </si>
+  <si>
+    <t>Sergipe, Brasil</t>
+  </si>
+  <si>
+    <t>Vacaria, Brasil</t>
+  </si>
+  <si>
+    <t>Alvorada, Brasil</t>
+  </si>
+  <si>
+    <t>itaquaquecetuba - sp</t>
+  </si>
+  <si>
+    <t>Institute of New York</t>
+  </si>
+  <si>
+    <t>São Caetano do Sul, Brasil</t>
+  </si>
+  <si>
+    <t>Brasília, Brasil</t>
+  </si>
+  <si>
+    <t>Wakanda</t>
+  </si>
+  <si>
+    <t>Rj,zn</t>
+  </si>
+  <si>
+    <t>❥ j | rad | ifsj-t.</t>
+  </si>
+  <si>
+    <t>rj</t>
+  </si>
+  <si>
+    <t>Niterói, Brasil</t>
+  </si>
+  <si>
+    <t>Centralia - PA</t>
+  </si>
+  <si>
+    <t>Guarulhos, Brasil</t>
+  </si>
+  <si>
+    <t>acre</t>
+  </si>
+  <si>
+    <t>No seu coração bb</t>
+  </si>
+  <si>
+    <t>São Bernardo do Campo, SP</t>
+  </si>
+  <si>
+    <t>Flamengo, Rio de Janeiro</t>
+  </si>
+  <si>
+    <t>SP - Brasil</t>
+  </si>
+  <si>
+    <t>Surfers Paradise, Gold Coast</t>
+  </si>
+  <si>
+    <t>Caxias do Sul</t>
+  </si>
+  <si>
+    <t>Recife, Brasil</t>
+  </si>
+  <si>
+    <t>Belo Horizonte, Brasil</t>
+  </si>
+  <si>
+    <t>Porto Alegre, Brasil</t>
+  </si>
+  <si>
+    <t>Itaúna, São Gonçalo</t>
+  </si>
+  <si>
+    <t>um anjo chamado Rafael💙</t>
+  </si>
+  <si>
+    <t>Guará, Brasília</t>
+  </si>
+  <si>
+    <t>V.N</t>
+  </si>
+  <si>
+    <t>Na sua</t>
+  </si>
+  <si>
+    <t>shinee is five</t>
+  </si>
+  <si>
+    <t>Cabo Frio, Brasil</t>
+  </si>
+  <si>
+    <t>Porto Alegre</t>
+  </si>
+  <si>
+    <t>𝕠𝕟𝕖 𝕡𝕚𝕖𝕔𝕖 » 𝕜𝕘𝕒</t>
+  </si>
+  <si>
+    <t>045</t>
+  </si>
+  <si>
+    <t>Busan, Republic of Korea</t>
+  </si>
+  <si>
+    <t>Recife, Brazil</t>
+  </si>
+  <si>
+    <t>Salvador, Brazil</t>
+  </si>
+  <si>
+    <t>Na sua cama bb 😴😈</t>
+  </si>
+  <si>
+    <t>Manaus, Amazonas</t>
+  </si>
+  <si>
+    <t>Hogwarts</t>
+  </si>
+  <si>
+    <t>Almada, Portugal</t>
+  </si>
+  <si>
+    <t>022</t>
+  </si>
+  <si>
+    <t>Ленинградский район, Россия</t>
+  </si>
+  <si>
+    <t>Paciência, Rio de Janeiro</t>
+  </si>
+  <si>
+    <t>𝟣𝟤𝟣𝟨♡𝗆𝗒 𝓈𝗎𝗇 ) 𝒌𝗒, 𝒇𝗆𝖻&amp;𝒕𝖽𝗀 ; 𝟤𝗇𝖺!</t>
+  </si>
+  <si>
+    <t>Lucas do Rio Verde, Brasil</t>
+  </si>
+  <si>
+    <t>Beaga, brasil</t>
+  </si>
+  <si>
+    <t>Belém, Brasil</t>
+  </si>
+  <si>
+    <t>São Pedro do Sul, Brasil</t>
+  </si>
+  <si>
+    <t>Feitoria, São Leopoldo</t>
+  </si>
+  <si>
+    <t>Pirassununga</t>
+  </si>
+  <si>
+    <t>22.06/filha de um Deus vivo!🙌</t>
+  </si>
+  <si>
+    <t>Depende do remédio</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 🇧🇷</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rj </t>
+  </si>
+  <si>
+    <t>Manaus, Brazil</t>
+  </si>
+  <si>
+    <t>São Paulo</t>
+  </si>
+  <si>
+    <t>aquarius ; 19 | RJ, Brazil</t>
+  </si>
+  <si>
+    <t>bangu</t>
+  </si>
+  <si>
+    <t>Lages, Brasil</t>
+  </si>
+  <si>
+    <t>.depression of my mind</t>
+  </si>
+  <si>
+    <t>Tocantins, Brasil</t>
+  </si>
+  <si>
+    <t>Guaratiba, Rio de Janeiro</t>
+  </si>
+  <si>
+    <t>ナツ ⋆ 花</t>
+  </si>
+  <si>
+    <t>Natal, Brasil</t>
+  </si>
+  <si>
+    <t>localiza aí</t>
+  </si>
+  <si>
+    <t>Manaus/Brasil</t>
+  </si>
+  <si>
+    <t>Aracaju, Brasil</t>
+  </si>
+  <si>
+    <t>021</t>
+  </si>
+  <si>
+    <t>na casa do caralho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magia Vive 🌷👼 Cococa Vive </t>
+  </si>
+  <si>
+    <t>Manaus/Amazonas</t>
+  </si>
+  <si>
+    <t>campinas, sp</t>
+  </si>
+  <si>
+    <t>中本かつお ── 이제노, 钱锟</t>
+  </si>
+  <si>
+    <t>Livro dos contos de fadas</t>
+  </si>
+  <si>
+    <t>Porto Velho, RO</t>
+  </si>
+  <si>
+    <t>Volta Redonda, Rio de Janeiro</t>
+  </si>
+  <si>
+    <t>João Pessoa, Brazil</t>
+  </si>
+  <si>
+    <t>Castanhal - PA</t>
+  </si>
+  <si>
+    <t>pro recovery always</t>
+  </si>
+  <si>
+    <t>Rio de Janeiro, RJ</t>
+  </si>
+  <si>
+    <t>belem// recife</t>
+  </si>
+  <si>
+    <t>Brasil // Abc SP</t>
+  </si>
+  <si>
+    <t>brasil</t>
+  </si>
+  <si>
+    <t>|-/</t>
+  </si>
+  <si>
+    <t>ZL, SP</t>
+  </si>
+  <si>
     <t>sp</t>
   </si>
   <si>
-    <t>Brasil // Abc SP</t>
-  </si>
-  <si>
-    <t>brasil</t>
-  </si>
-  <si>
-    <t>Brasília, Brasil</t>
-  </si>
-  <si>
-    <t>|-/</t>
-  </si>
-  <si>
-    <t>ZL, SP</t>
-  </si>
-  <si>
-    <t>Brasil</t>
-  </si>
-  <si>
-    <t>Belo Horizonte, Brasil</t>
-  </si>
-  <si>
     <t>Minas Gerais, Brasil</t>
   </si>
   <si>
@@ -430,9 +1082,6 @@
     <t>Natal</t>
   </si>
   <si>
-    <t>Joinville, Brasil</t>
-  </si>
-  <si>
     <t>Indaiatuba, Brasil</t>
   </si>
   <si>
@@ -445,136 +1094,10 @@
     <t>I Love Pedreiresópolis</t>
   </si>
   <si>
-    <t>pro recovery always</t>
-  </si>
-  <si>
-    <t>Rio de Janeiro, RJ</t>
-  </si>
-  <si>
-    <t>belem// recife</t>
-  </si>
-  <si>
-    <t>Rio de Janeiro, Brasil</t>
-  </si>
-  <si>
-    <t>Paraná</t>
-  </si>
-  <si>
-    <t>Brazil</t>
-  </si>
-  <si>
-    <t>Castanhal - PA</t>
-  </si>
-  <si>
-    <t>021</t>
-  </si>
-  <si>
-    <t>045</t>
-  </si>
-  <si>
-    <t>Busan, Republic of Korea</t>
-  </si>
-  <si>
-    <t>Recife, Brazil</t>
-  </si>
-  <si>
-    <t>Salvador, Brazil</t>
-  </si>
-  <si>
-    <t>Na sua cama bb 😴😈</t>
-  </si>
-  <si>
-    <t>Manaus, Amazonas</t>
-  </si>
-  <si>
-    <t>Rio de Janeiro</t>
-  </si>
-  <si>
-    <t>Feitoria, São Leopoldo</t>
-  </si>
-  <si>
-    <t>Pirassununga</t>
-  </si>
-  <si>
-    <t>22.06/filha de um Deus vivo!🙌</t>
-  </si>
-  <si>
-    <t>Depende do remédio</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 🇧🇷</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rj </t>
-  </si>
-  <si>
-    <t>Manaus, Brazil</t>
-  </si>
-  <si>
-    <t>São Paulo</t>
-  </si>
-  <si>
-    <t>aquarius ; 19 | RJ, Brazil</t>
-  </si>
-  <si>
-    <t>bangu</t>
-  </si>
-  <si>
-    <t>Lages, Brasil</t>
-  </si>
-  <si>
-    <t>.depression of my mind</t>
-  </si>
-  <si>
-    <t>Tocantins, Brasil</t>
-  </si>
-  <si>
-    <t>Guaratiba, Rio de Janeiro</t>
-  </si>
-  <si>
-    <t>ナツ ⋆ 花</t>
-  </si>
-  <si>
-    <t>Recife, Brasil</t>
-  </si>
-  <si>
-    <t>Natal, Brasil</t>
-  </si>
-  <si>
-    <t>localiza aí</t>
-  </si>
-  <si>
-    <t>Manaus/Brasil</t>
-  </si>
-  <si>
-    <t>Aracaju, Brasil</t>
-  </si>
-  <si>
-    <t>Porto Alegre, Brasil</t>
-  </si>
-  <si>
-    <t>na casa do caralho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Magia Vive 🌷👼 Cococa Vive </t>
-  </si>
-  <si>
-    <t>Manaus/Amazonas</t>
-  </si>
-  <si>
-    <t>campinas, sp</t>
-  </si>
-  <si>
-    <t>中本かつお ── 이제노, 钱锟</t>
-  </si>
-  <si>
-    <t>Livro dos contos de fadas</t>
-  </si>
-  <si>
-    <t>Porto Velho, RO</t>
-  </si>
-  <si>
-    <t>Volta Redonda, Rio de Janeiro</t>
+    <t>CASADA 💞💏</t>
+  </si>
+  <si>
+    <t>Bangu, Santo André 48</t>
   </si>
   <si>
     <t>NIDI🇧🇷💚💛🥛Bolsonaro</t>
@@ -583,63 +1106,519 @@
     <t>Mara</t>
   </si>
   <si>
+    <t>ᴋaroliny 💛</t>
+  </si>
+  <si>
+    <t>Ju 🐼</t>
+  </si>
+  <si>
+    <t>Yuri Soares Ueda</t>
+  </si>
+  <si>
+    <t>the thud</t>
+  </si>
+  <si>
+    <t>Waleri</t>
+  </si>
+  <si>
+    <t>Shitposter gostoso</t>
+  </si>
+  <si>
+    <t>Nady a pópria 🤪</t>
+  </si>
+  <si>
+    <t>donnie</t>
+  </si>
+  <si>
+    <t>Vand</t>
+  </si>
+  <si>
+    <t>HADES👑🔥</t>
+  </si>
+  <si>
+    <t>ANY ESTA FAZENDO CETOGENICA🦋</t>
+  </si>
+  <si>
+    <t>dourada</t>
+  </si>
+  <si>
+    <t>Dani✠</t>
+  </si>
+  <si>
+    <t>nat</t>
+  </si>
+  <si>
+    <t>beatriste</t>
+  </si>
+  <si>
+    <t>Lusquinha💙</t>
+  </si>
+  <si>
+    <t>🙄</t>
+  </si>
+  <si>
+    <t>schefferisaac;✍️</t>
+  </si>
+  <si>
+    <t>Vitão</t>
+  </si>
+  <si>
+    <t>Francisco</t>
+  </si>
+  <si>
+    <t>maely guedes</t>
+  </si>
+  <si>
+    <t>Danny 🍉</t>
+  </si>
+  <si>
+    <t>vitor</t>
+  </si>
+  <si>
+    <t>22/09🎉🎊</t>
+  </si>
+  <si>
+    <t>suzy 🔥🖤</t>
+  </si>
+  <si>
+    <t>leo</t>
+  </si>
+  <si>
+    <t>#Luto 🥀🖤</t>
+  </si>
+  <si>
+    <t>Mc Vick 🌸</t>
+  </si>
+  <si>
+    <t>rodrigo</t>
+  </si>
+  <si>
+    <t>Eroッ</t>
+  </si>
+  <si>
+    <t>ʟᴀᴅʏɴᴇᴡᴛᴏɴ</t>
+  </si>
+  <si>
+    <t>Lu Isa</t>
+  </si>
+  <si>
+    <t>Notes from the Wolf</t>
+  </si>
+  <si>
+    <t>Jenifer 🌼</t>
+  </si>
+  <si>
+    <t>ɐuuɐʌoᴉƃ</t>
+  </si>
+  <si>
+    <t>Bruh ∞</t>
+  </si>
+  <si>
+    <t>helô</t>
+  </si>
+  <si>
+    <t>me da um estágio remunerado?</t>
+  </si>
+  <si>
+    <t>Hugo Sousaᶜʳᶠ</t>
+  </si>
+  <si>
+    <t>zói pelado</t>
+  </si>
+  <si>
+    <t>miau</t>
+  </si>
+  <si>
+    <t>SAT</t>
+  </si>
+  <si>
+    <t>bi</t>
+  </si>
+  <si>
+    <t>vance refrigeration</t>
+  </si>
+  <si>
+    <t>Bernardo 🌈</t>
+  </si>
+  <si>
+    <t>bujãozinho</t>
+  </si>
+  <si>
+    <t>lorena</t>
+  </si>
+  <si>
+    <t>Porra sapatão! ✨</t>
+  </si>
+  <si>
+    <t>404</t>
+  </si>
+  <si>
+    <t>Debora</t>
+  </si>
+  <si>
+    <t>livre</t>
+  </si>
+  <si>
+    <t>eu mesma</t>
+  </si>
+  <si>
+    <t>Marcos Pereira</t>
+  </si>
+  <si>
+    <t>Bia Bastos</t>
+  </si>
+  <si>
+    <t>Bearded Prince$$</t>
+  </si>
+  <si>
+    <t>Não varro.</t>
+  </si>
+  <si>
+    <t>PsO</t>
+  </si>
+  <si>
+    <t>carolzinha</t>
+  </si>
+  <si>
+    <t>crocodila de binóculos</t>
+  </si>
+  <si>
+    <t>ATOMIC</t>
+  </si>
+  <si>
+    <t>ØDARA</t>
+  </si>
+  <si>
+    <t>Aninha Lopes</t>
+  </si>
+  <si>
+    <t>sdds eternas meu pretinho 😭😭❤🏴</t>
+  </si>
+  <si>
+    <t>M💖</t>
+  </si>
+  <si>
+    <t>Fada negra 🧚🏽‍♀️</t>
+  </si>
+  <si>
+    <t>carai biri jin</t>
+  </si>
+  <si>
+    <t>Draiam</t>
+  </si>
+  <si>
+    <t>Mocinha 😇</t>
+  </si>
+  <si>
+    <t>gameoverdose</t>
+  </si>
+  <si>
+    <t>Angela</t>
+  </si>
+  <si>
+    <t>maru hiatus</t>
+  </si>
+  <si>
+    <t>lixo humano</t>
+  </si>
+  <si>
+    <t>pinheiro</t>
+  </si>
+  <si>
+    <t>Seska</t>
+  </si>
+  <si>
+    <t>𝐬𝐚𝐢𝐥𝐨𝐫</t>
+  </si>
+  <si>
+    <t>Lil Bhru</t>
+  </si>
+  <si>
+    <t>Paloma</t>
+  </si>
+  <si>
+    <t>T H A</t>
+  </si>
+  <si>
+    <t>greey. 🌻</t>
+  </si>
+  <si>
+    <t>hellen</t>
+  </si>
+  <si>
+    <t>TROUXA DO ANO 😪🤦‍♂️</t>
+  </si>
+  <si>
+    <t>Adriana S. Muniz</t>
+  </si>
+  <si>
+    <t>Kamila 🌻</t>
+  </si>
+  <si>
+    <t>Vic ♡</t>
+  </si>
+  <si>
+    <t>Gothboyclique</t>
+  </si>
+  <si>
+    <t>Raquel ❤️🌺</t>
+  </si>
+  <si>
+    <t>angell😇</t>
+  </si>
+  <si>
+    <t>maricruz</t>
+  </si>
+  <si>
+    <t>🎗️</t>
+  </si>
+  <si>
+    <t>𝒍𝒖𝒏𝒂 연♡ ·</t>
+  </si>
+  <si>
+    <t>Ana🤦🏻‍♀️</t>
+  </si>
+  <si>
+    <t>th</t>
+  </si>
+  <si>
+    <t>🌴</t>
+  </si>
+  <si>
+    <t>Digão Ferreira</t>
+  </si>
+  <si>
+    <t>Neiva do céu!</t>
+  </si>
+  <si>
+    <t>Eduardo Goulart</t>
+  </si>
+  <si>
+    <t>Ju ✨</t>
+  </si>
+  <si>
+    <t>Natinhaa</t>
+  </si>
+  <si>
+    <t>Fiuza #BaileDoPatrão</t>
+  </si>
+  <si>
+    <t>Xuliana</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>felipe está ficando deboas de novo</t>
+  </si>
+  <si>
+    <t>gabriela</t>
+  </si>
+  <si>
+    <t>Lara</t>
+  </si>
+  <si>
+    <t>Dayanne😊</t>
+  </si>
+  <si>
+    <t>Vterano</t>
+  </si>
+  <si>
+    <t>loka dos gatos</t>
+  </si>
+  <si>
+    <t>Cristiane Costa</t>
+  </si>
+  <si>
+    <t>giovanna🖤</t>
+  </si>
+  <si>
+    <t>andré 🥋</t>
+  </si>
+  <si>
+    <t>katylene</t>
+  </si>
+  <si>
+    <t>.𝐠𝐫𝐞𝐲 𝐠𝐢𝐫𝐥 🍇</t>
+  </si>
+  <si>
+    <t>Layza Alvina</t>
+  </si>
+  <si>
+    <t>Priin rs💫💞</t>
+  </si>
+  <si>
+    <t>ؘ</t>
+  </si>
+  <si>
+    <t>macabea</t>
+  </si>
+  <si>
+    <t>Ma 💜 방탄</t>
+  </si>
+  <si>
+    <t>Fabris</t>
+  </si>
+  <si>
+    <t>Crushes007</t>
+  </si>
+  <si>
+    <t>F 🦋</t>
+  </si>
+  <si>
+    <t>Japa ♍</t>
+  </si>
+  <si>
+    <t>Taynara Costa</t>
+  </si>
+  <si>
+    <t>Isadora Matos</t>
+  </si>
+  <si>
+    <t>Eterna Rapunzel 😭💔</t>
+  </si>
+  <si>
+    <t>LIL WAAAAAAAAAA</t>
+  </si>
+  <si>
+    <t>laus brownie</t>
+  </si>
+  <si>
+    <t>Marluce Machado</t>
+  </si>
+  <si>
+    <t>Ellen 😜</t>
+  </si>
+  <si>
+    <t>Daniel Sabino</t>
+  </si>
+  <si>
+    <t>DanielPozzetti ∞</t>
+  </si>
+  <si>
+    <t>tabelinha da opressão</t>
+  </si>
+  <si>
+    <t>dong.</t>
+  </si>
+  <si>
+    <t>menina veneno</t>
+  </si>
+  <si>
+    <t>aninha 🎗</t>
+  </si>
+  <si>
+    <t>Nath 🐺</t>
+  </si>
+  <si>
+    <t>bruna</t>
+  </si>
+  <si>
+    <t>Amanda Cavalcanti</t>
+  </si>
+  <si>
+    <t>Bacaxi</t>
+  </si>
+  <si>
+    <t>Binho Sousa</t>
+  </si>
+  <si>
+    <t>iisa</t>
+  </si>
+  <si>
+    <t>Pietro Vincent ✌</t>
+  </si>
+  <si>
+    <t>Andréa Lima</t>
+  </si>
+  <si>
+    <t>Matheus o sem noção</t>
+  </si>
+  <si>
+    <t>dvao</t>
+  </si>
+  <si>
+    <t>ritual de invocacao de foco</t>
+  </si>
+  <si>
+    <t>por que tão sério?</t>
+  </si>
+  <si>
+    <t>Cássia</t>
+  </si>
+  <si>
+    <t>hello kitty no lixão</t>
+  </si>
+  <si>
+    <t>Hosana Paonessa</t>
+  </si>
+  <si>
+    <t>Ramon</t>
+  </si>
+  <si>
+    <t>gato marreco</t>
+  </si>
+  <si>
+    <t>H A B I B I S✨</t>
+  </si>
+  <si>
+    <t>Marcelle Nóbrega</t>
+  </si>
+  <si>
+    <t>colírio de cafeína</t>
+  </si>
+  <si>
+    <t>Otávio</t>
+  </si>
+  <si>
+    <t>Delano lançou mais uma 🎶</t>
+  </si>
+  <si>
+    <t>Camila Rangel</t>
+  </si>
+  <si>
+    <t>lady marcela 🐝</t>
+  </si>
+  <si>
+    <t>vitor alves</t>
+  </si>
+  <si>
+    <t>cam</t>
+  </si>
+  <si>
+    <t>Tigresa de Bengala</t>
+  </si>
+  <si>
+    <t>𝕃𝕒𝕦𝕣𝕚𝕟𝕙𝕒</t>
+  </si>
+  <si>
+    <t>Aline Dantasᶜʳᶠ 🔴⚫</t>
+  </si>
+  <si>
+    <t>𝕲𝕰𝕬𝕲𝕬 ⛹🏻‍♂️</t>
+  </si>
+  <si>
+    <t>bruno</t>
+  </si>
+  <si>
+    <t>Lice🎗</t>
+  </si>
+  <si>
+    <t>Wendy †</t>
+  </si>
+  <si>
+    <t>AcidCat</t>
+  </si>
+  <si>
+    <t>A u x í l i o  C a r ê n c i a ♋ 🐬</t>
+  </si>
+  <si>
+    <t>Vitor Costa</t>
+  </si>
+  <si>
     <t>Kamilly itals</t>
   </si>
   <si>
-    <t>bruno</t>
-  </si>
-  <si>
-    <t>Otávio</t>
-  </si>
-  <si>
-    <t>Delano lançou mais uma 🎶</t>
-  </si>
-  <si>
-    <t>Camila Rangel</t>
-  </si>
-  <si>
-    <t>lady marcela 🐝</t>
-  </si>
-  <si>
-    <t>vitor alves</t>
-  </si>
-  <si>
-    <t>cam</t>
-  </si>
-  <si>
-    <t>Tigresa de Bengala</t>
-  </si>
-  <si>
-    <t>Lanne 🇺🇸</t>
-  </si>
-  <si>
-    <t>𝕃𝕒𝕦𝕣𝕚𝕟𝕙𝕒</t>
-  </si>
-  <si>
-    <t>Aline Dantasᶜʳᶠ 🔴⚫</t>
-  </si>
-  <si>
-    <t>𝕲𝕰𝕬𝕲𝕬 ⛹🏻‍♂️</t>
-  </si>
-  <si>
-    <t>Lice🎗</t>
-  </si>
-  <si>
-    <t>Lolo</t>
-  </si>
-  <si>
-    <t>Wendy †</t>
-  </si>
-  <si>
-    <t>AcidCat</t>
-  </si>
-  <si>
-    <t>A u x í l i o  C a r ê n c i a ♋ 🐬</t>
-  </si>
-  <si>
-    <t>Vitor Costa</t>
-  </si>
-  <si>
     <t>Xuxuzinho❤</t>
   </si>
   <si>
@@ -670,187 +1649,22 @@
     <t>Neguitaive ♠</t>
   </si>
   <si>
-    <t>ؘ</t>
-  </si>
-  <si>
-    <t>Matheus o sem noção</t>
-  </si>
-  <si>
-    <t>dvao</t>
-  </si>
-  <si>
-    <t>ritual de invocacao de foco</t>
-  </si>
-  <si>
-    <t>por que tão sério?</t>
-  </si>
-  <si>
-    <t>Cássia</t>
-  </si>
-  <si>
-    <t>hello kitty no lixão</t>
-  </si>
-  <si>
-    <t>Hosana Paonessa</t>
-  </si>
-  <si>
-    <t>𝚋𝚊𝚋𝚒</t>
-  </si>
-  <si>
-    <t>Ramon</t>
-  </si>
-  <si>
-    <t>Pietro Vincent ✌</t>
-  </si>
-  <si>
-    <t>Andréa Lima</t>
-  </si>
-  <si>
-    <t>Binho Sousa</t>
-  </si>
-  <si>
-    <t>iisa</t>
-  </si>
-  <si>
-    <t>Lil Bhru</t>
-  </si>
-  <si>
-    <t>Paloma</t>
-  </si>
-  <si>
-    <t>T H A</t>
-  </si>
-  <si>
-    <t>greey. 🌻</t>
-  </si>
-  <si>
-    <t>hellen</t>
-  </si>
-  <si>
-    <t>TROUXA DO ANO 😪🤦‍♂️</t>
-  </si>
-  <si>
-    <t>Adriana S. Muniz</t>
-  </si>
-  <si>
-    <t>Kamila 🌻</t>
-  </si>
-  <si>
-    <t>Ju ✨</t>
-  </si>
-  <si>
-    <t>Natinhaa</t>
-  </si>
-  <si>
-    <t>Fiuza #BaileDoPatrão</t>
-  </si>
-  <si>
-    <t>Xuliana</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>felipe está ficando deboas de novo</t>
-  </si>
-  <si>
-    <t>gabriela</t>
-  </si>
-  <si>
-    <t>Lara</t>
-  </si>
-  <si>
-    <t>Dayanne😊</t>
-  </si>
-  <si>
-    <t>Vterano</t>
-  </si>
-  <si>
-    <t>loka dos gatos</t>
-  </si>
-  <si>
-    <t>Cristiane Costa</t>
-  </si>
-  <si>
-    <t>giovanna🖤</t>
-  </si>
-  <si>
-    <t>andré 🥋</t>
-  </si>
-  <si>
-    <t>katylene</t>
-  </si>
-  <si>
-    <t>.𝐠𝐫𝐞𝐲 𝐠𝐢𝐫𝐥 🍇</t>
-  </si>
-  <si>
-    <t>Layza Alvina</t>
-  </si>
-  <si>
-    <t>Priin rs💫💞</t>
-  </si>
-  <si>
-    <t>macabea</t>
-  </si>
-  <si>
-    <t>Ma 💜 방탄</t>
-  </si>
-  <si>
-    <t>Fabris</t>
-  </si>
-  <si>
-    <t>Crushes007</t>
-  </si>
-  <si>
-    <t>F 🦋</t>
-  </si>
-  <si>
-    <t>Japa ♍</t>
-  </si>
-  <si>
-    <t>Taynara Costa</t>
-  </si>
-  <si>
-    <t>Isadora Matos</t>
-  </si>
-  <si>
-    <t>Eterna Rapunzel 😭💔</t>
-  </si>
-  <si>
-    <t>LIL WAAAAAAAAAA</t>
-  </si>
-  <si>
-    <t>laus brownie</t>
-  </si>
-  <si>
-    <t>Marluce Machado</t>
-  </si>
-  <si>
-    <t>Ellen 😜</t>
-  </si>
-  <si>
-    <t>Daniel Sabino</t>
-  </si>
-  <si>
-    <t>DanielPozzetti ∞</t>
-  </si>
-  <si>
-    <t>tabelinha da opressão</t>
-  </si>
-  <si>
-    <t>dong.</t>
-  </si>
-  <si>
-    <t>menina veneno</t>
-  </si>
-  <si>
-    <t>aninha 🎗</t>
-  </si>
-  <si>
-    <t>Nath 🐺</t>
-  </si>
-  <si>
-    <t>bruna</t>
+    <t>Tu és a vida, Jesus.❤️</t>
+  </si>
+  <si>
+    <t>queria estar morta</t>
+  </si>
+  <si>
+    <t>Diaba🎗</t>
+  </si>
+  <si>
+    <t>Danilo Castro</t>
+  </si>
+  <si>
+    <t>Nathália</t>
+  </si>
+  <si>
+    <t>vishdaan ¤</t>
   </si>
 </sst>
 </file>
@@ -1212,7 +2026,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H117"/>
+  <dimension ref="A1:H201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1258,13 +2072,13 @@
         <v>43725.18234953703</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>109</v>
+        <v>216</v>
       </c>
       <c r="H2" t="s">
-        <v>176</v>
+        <v>338</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1281,13 +2095,13 @@
         <v>43725.18203703704</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>110</v>
+        <v>217</v>
       </c>
       <c r="H3" t="s">
-        <v>177</v>
+        <v>339</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1295,19 +2109,22 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" s="2">
-        <v>43725.18431712963</v>
+        <v>43725.25366898148</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>218</v>
       </c>
       <c r="H4" t="s">
-        <v>178</v>
+        <v>340</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1321,39 +2138,33 @@
         <v>0</v>
       </c>
       <c r="E5" s="2">
-        <v>43725.18758101852</v>
+        <v>43725.25326388889</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>179</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6" s="2">
-        <v>43725.1905787037</v>
+        <v>43725.25252314815</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="H6" t="s">
-        <v>180</v>
+        <v>342</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1367,16 +2178,16 @@
         <v>0</v>
       </c>
       <c r="E7" s="2">
-        <v>43725.1903587963</v>
+        <v>43725.25243055556</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G7" t="s">
-        <v>112</v>
+        <v>219</v>
       </c>
       <c r="H7" t="s">
-        <v>181</v>
+        <v>343</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1384,19 +2195,22 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8" s="2">
-        <v>43725.18993055556</v>
+        <v>43725.25076388889</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>218</v>
       </c>
       <c r="H8" t="s">
-        <v>182</v>
+        <v>340</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1410,62 +2224,59 @@
         <v>0</v>
       </c>
       <c r="E9" s="2">
-        <v>43725.18988425926</v>
+        <v>43725.25539351852</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" t="s">
-        <v>113</v>
+        <v>23</v>
       </c>
       <c r="H9" t="s">
-        <v>183</v>
+        <v>344</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10" s="2">
-        <v>43725.18958333333</v>
+        <v>43725.25436342593</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G10" t="s">
-        <v>114</v>
+        <v>220</v>
       </c>
       <c r="H10" t="s">
-        <v>184</v>
+        <v>345</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11" s="2">
-        <v>43725.18953703704</v>
+        <v>43725.25574074074</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G11" t="s">
-        <v>115</v>
+        <v>221</v>
       </c>
       <c r="H11" t="s">
-        <v>185</v>
+        <v>346</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1473,22 +2284,22 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12" s="2">
-        <v>43725.18943287037</v>
+        <v>43725.25706018518</v>
       </c>
       <c r="F12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G12" t="s">
-        <v>116</v>
+        <v>222</v>
       </c>
       <c r="H12" t="s">
-        <v>186</v>
+        <v>347</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1502,56 +2313,62 @@
         <v>0</v>
       </c>
       <c r="E13" s="2">
-        <v>43725.18879629629</v>
+        <v>43725.25671296296</v>
       </c>
       <c r="F13" t="s">
-        <v>24</v>
+        <v>27</v>
+      </c>
+      <c r="G13" t="s">
+        <v>223</v>
       </c>
       <c r="H13" t="s">
-        <v>187</v>
+        <v>348</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E14" s="2">
-        <v>43725.18877314815</v>
+        <v>43725.24888888889</v>
       </c>
       <c r="F14" t="s">
-        <v>25</v>
+        <v>28</v>
+      </c>
+      <c r="G14" t="s">
+        <v>222</v>
       </c>
       <c r="H14" t="s">
-        <v>188</v>
+        <v>347</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15" s="2">
-        <v>43725.18828703704</v>
+        <v>43725.24873842593</v>
       </c>
       <c r="F15" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G15" t="s">
-        <v>117</v>
+        <v>224</v>
       </c>
       <c r="H15" t="s">
-        <v>189</v>
+        <v>349</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1565,62 +2382,59 @@
         <v>0</v>
       </c>
       <c r="E16" s="2">
-        <v>43725.18819444445</v>
+        <v>43725.24846064814</v>
       </c>
       <c r="F16" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" t="s">
-        <v>118</v>
+        <v>30</v>
       </c>
       <c r="H16" t="s">
-        <v>190</v>
+        <v>350</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17" s="2">
-        <v>43725.18758101852</v>
+        <v>43725.24784722222</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s">
-        <v>111</v>
+        <v>225</v>
       </c>
       <c r="H17" t="s">
-        <v>179</v>
+        <v>351</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="2">
-        <v>43725.18755787037</v>
+        <v>43725.24782407407</v>
       </c>
       <c r="F18" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G18" t="s">
-        <v>119</v>
+        <v>222</v>
       </c>
       <c r="H18" t="s">
-        <v>191</v>
+        <v>347</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1631,16 +2445,19 @@
         <v>8</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" s="2">
-        <v>43725.18657407408</v>
+        <v>43725.24755787037</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
+        <v>33</v>
+      </c>
+      <c r="G19" t="s">
+        <v>226</v>
       </c>
       <c r="H19" t="s">
-        <v>192</v>
+        <v>352</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1648,19 +2465,22 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20" s="2">
-        <v>43725.18618055555</v>
+        <v>43725.24744212963</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>34</v>
+      </c>
+      <c r="G20" t="s">
+        <v>227</v>
       </c>
       <c r="H20" t="s">
-        <v>193</v>
+        <v>353</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1674,21 +2494,18 @@
         <v>0</v>
       </c>
       <c r="E21" s="2">
-        <v>43725.18600694444</v>
+        <v>43725.24517361111</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G21" t="s">
-        <v>120</v>
+        <v>35</v>
       </c>
       <c r="H21" t="s">
-        <v>194</v>
+        <v>354</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
@@ -1697,16 +2514,13 @@
         <v>0</v>
       </c>
       <c r="E22" s="2">
-        <v>43725.18571759259</v>
+        <v>43725.24490740741</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
-      </c>
-      <c r="G22" t="s">
-        <v>121</v>
+        <v>36</v>
       </c>
       <c r="H22" t="s">
-        <v>195</v>
+        <v>355</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1714,42 +2528,42 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23" s="2">
-        <v>43725.18532407407</v>
+        <v>43725.24144675926</v>
       </c>
       <c r="F23" t="s">
-        <v>33</v>
-      </c>
-      <c r="G23" t="s">
-        <v>122</v>
+        <v>37</v>
       </c>
       <c r="H23" t="s">
-        <v>196</v>
+        <v>356</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24" s="2">
-        <v>43725.18431712963</v>
+        <v>43725.24108796296</v>
       </c>
       <c r="F24" t="s">
-        <v>15</v>
+        <v>38</v>
+      </c>
+      <c r="G24" t="s">
+        <v>228</v>
       </c>
       <c r="H24" t="s">
-        <v>178</v>
+        <v>357</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1763,16 +2577,16 @@
         <v>0</v>
       </c>
       <c r="E25" s="2">
-        <v>43725.18429398148</v>
+        <v>43725.24056712963</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G25" t="s">
-        <v>123</v>
+        <v>229</v>
       </c>
       <c r="H25" t="s">
-        <v>197</v>
+        <v>358</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1780,22 +2594,22 @@
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26" s="2">
-        <v>43725.18427083334</v>
+        <v>43725.24049768518</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G26" t="s">
-        <v>124</v>
+        <v>230</v>
       </c>
       <c r="H26" t="s">
-        <v>198</v>
+        <v>359</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1803,19 +2617,19 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27" s="2">
-        <v>43725.1836574074</v>
+        <v>43725.2393287037</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H27" t="s">
-        <v>199</v>
+        <v>360</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1829,13 +2643,16 @@
         <v>0</v>
       </c>
       <c r="E28" s="2">
-        <v>43725.18340277778</v>
+        <v>43725.23854166667</v>
       </c>
       <c r="F28" t="s">
-        <v>37</v>
+        <v>42</v>
+      </c>
+      <c r="G28" t="s">
+        <v>231</v>
       </c>
       <c r="H28" t="s">
-        <v>188</v>
+        <v>361</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1849,16 +2666,16 @@
         <v>0</v>
       </c>
       <c r="E29" s="2">
-        <v>43725.18326388889</v>
+        <v>43725.23665509259</v>
       </c>
       <c r="F29" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G29" t="s">
-        <v>125</v>
+        <v>232</v>
       </c>
       <c r="H29" t="s">
-        <v>200</v>
+        <v>362</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1866,22 +2683,22 @@
         <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30" s="2">
-        <v>43725.18320601852</v>
+        <v>43725.23653935185</v>
       </c>
       <c r="F30" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G30" t="s">
-        <v>126</v>
+        <v>233</v>
       </c>
       <c r="H30" t="s">
-        <v>201</v>
+        <v>363</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1889,27 +2706,27 @@
         <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31" s="2">
-        <v>43725.1827662037</v>
+        <v>43725.23597222222</v>
       </c>
       <c r="F31" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G31" t="s">
-        <v>127</v>
+        <v>229</v>
       </c>
       <c r="H31" t="s">
-        <v>202</v>
+        <v>364</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B32" t="s">
         <v>8</v>
@@ -1918,21 +2735,18 @@
         <v>0</v>
       </c>
       <c r="E32" s="2">
-        <v>43725.18270833333</v>
+        <v>43725.23572916666</v>
       </c>
       <c r="F32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G32" t="s">
-        <v>128</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>203</v>
+        <v>365</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B33" t="s">
         <v>8</v>
@@ -1941,39 +2755,39 @@
         <v>0</v>
       </c>
       <c r="E33" s="2">
-        <v>43725.18234953703</v>
+        <v>43725.23548611111</v>
       </c>
       <c r="F33" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="G33" t="s">
-        <v>109</v>
+        <v>234</v>
       </c>
       <c r="H33" t="s">
-        <v>176</v>
+        <v>366</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34" s="2">
-        <v>43725.18203703704</v>
+        <v>43725.23510416667</v>
       </c>
       <c r="F34" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="G34" t="s">
-        <v>110</v>
+        <v>229</v>
       </c>
       <c r="H34" t="s">
-        <v>177</v>
+        <v>367</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1981,22 +2795,22 @@
         <v>0</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35" s="2">
-        <v>43725.18188657407</v>
+        <v>43725.23508101852</v>
       </c>
       <c r="F35" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G35" t="s">
-        <v>129</v>
+        <v>235</v>
       </c>
       <c r="H35" t="s">
-        <v>204</v>
+        <v>368</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2010,21 +2824,21 @@
         <v>0</v>
       </c>
       <c r="E36" s="2">
-        <v>43725.18185185185</v>
+        <v>43725.23505787037</v>
       </c>
       <c r="F36" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G36" t="s">
-        <v>130</v>
+        <v>236</v>
       </c>
       <c r="H36" t="s">
-        <v>205</v>
+        <v>369</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B37" t="s">
         <v>8</v>
@@ -2033,36 +2847,39 @@
         <v>0</v>
       </c>
       <c r="E37" s="2">
-        <v>43725.18170138889</v>
+        <v>43725.23501157408</v>
       </c>
       <c r="F37" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G37" t="s">
-        <v>131</v>
+        <v>237</v>
       </c>
       <c r="H37" t="s">
-        <v>206</v>
+        <v>370</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B38" t="s">
         <v>8</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38" s="2">
-        <v>43725.19619212963</v>
+        <v>43725.23491898148</v>
       </c>
       <c r="F38" t="s">
-        <v>45</v>
+        <v>52</v>
+      </c>
+      <c r="G38" t="s">
+        <v>238</v>
       </c>
       <c r="H38" t="s">
-        <v>207</v>
+        <v>371</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2076,18 +2893,18 @@
         <v>0</v>
       </c>
       <c r="E39" s="2">
-        <v>43725.19545138889</v>
+        <v>43725.23461805555</v>
       </c>
       <c r="F39" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H39" t="s">
-        <v>208</v>
+        <v>372</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B40" t="s">
         <v>8</v>
@@ -2096,13 +2913,16 @@
         <v>0</v>
       </c>
       <c r="E40" s="2">
-        <v>43725.19519675926</v>
+        <v>43725.2311574074</v>
       </c>
       <c r="F40" t="s">
-        <v>47</v>
+        <v>54</v>
+      </c>
+      <c r="G40" t="s">
+        <v>239</v>
       </c>
       <c r="H40" t="s">
-        <v>209</v>
+        <v>373</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2110,22 +2930,22 @@
         <v>0</v>
       </c>
       <c r="B41" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41" s="2">
-        <v>43725.19498842592</v>
+        <v>43725.23049768519</v>
       </c>
       <c r="F41" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="G41" t="s">
-        <v>132</v>
+        <v>240</v>
       </c>
       <c r="H41" t="s">
-        <v>210</v>
+        <v>374</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2139,13 +2959,16 @@
         <v>0</v>
       </c>
       <c r="E42" s="2">
-        <v>43725.19484953704</v>
+        <v>43725.2300925926</v>
       </c>
       <c r="F42" t="s">
-        <v>49</v>
+        <v>56</v>
+      </c>
+      <c r="G42" t="s">
+        <v>241</v>
       </c>
       <c r="H42" t="s">
-        <v>211</v>
+        <v>375</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2153,22 +2976,22 @@
         <v>0</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43" s="2">
-        <v>43725.19435185185</v>
+        <v>43725.22961805556</v>
       </c>
       <c r="F43" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G43" t="s">
-        <v>133</v>
+        <v>242</v>
       </c>
       <c r="H43" t="s">
-        <v>212</v>
+        <v>376</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2182,16 +3005,16 @@
         <v>0</v>
       </c>
       <c r="E44" s="2">
-        <v>43725.19428240741</v>
+        <v>43725.22863425926</v>
       </c>
       <c r="F44" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G44" t="s">
-        <v>134</v>
+        <v>243</v>
       </c>
       <c r="H44" t="s">
-        <v>213</v>
+        <v>377</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2199,22 +3022,22 @@
         <v>0</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
       <c r="E45" s="2">
-        <v>43725.1940625</v>
+        <v>43725.22813657407</v>
       </c>
       <c r="F45" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="G45" t="s">
-        <v>135</v>
+        <v>244</v>
       </c>
       <c r="H45" t="s">
-        <v>214</v>
+        <v>378</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2228,16 +3051,13 @@
         <v>0</v>
       </c>
       <c r="E46" s="2">
-        <v>43725.19396990741</v>
+        <v>43725.22734953704</v>
       </c>
       <c r="F46" t="s">
-        <v>53</v>
-      </c>
-      <c r="G46" t="s">
-        <v>136</v>
+        <v>60</v>
       </c>
       <c r="H46" t="s">
-        <v>215</v>
+        <v>379</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2245,19 +3065,22 @@
         <v>0</v>
       </c>
       <c r="B47" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47" s="2">
-        <v>43725.19376157408</v>
+        <v>43725.22731481482</v>
       </c>
       <c r="F47" t="s">
-        <v>54</v>
+        <v>61</v>
+      </c>
+      <c r="G47" t="s">
+        <v>245</v>
       </c>
       <c r="H47" t="s">
-        <v>216</v>
+        <v>380</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2265,22 +3088,22 @@
         <v>0</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48" s="2">
-        <v>43725.19746527778</v>
+        <v>43725.22668981482</v>
       </c>
       <c r="F48" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="G48" t="s">
-        <v>137</v>
+        <v>246</v>
       </c>
       <c r="H48" t="s">
-        <v>217</v>
+        <v>381</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2288,39 +3111,39 @@
         <v>0</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49" s="2">
-        <v>43725.19724537037</v>
+        <v>43725.2266087963</v>
       </c>
       <c r="F49" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="H49" t="s">
-        <v>218</v>
+        <v>382</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B50" t="s">
         <v>8</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50" s="2">
-        <v>43725.19619212963</v>
+        <v>43725.22583333333</v>
       </c>
       <c r="F50" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="H50" t="s">
-        <v>207</v>
+        <v>383</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2334,13 +3157,13 @@
         <v>0</v>
       </c>
       <c r="E51" s="2">
-        <v>43725.19545138889</v>
+        <v>43725.22561342592</v>
       </c>
       <c r="F51" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="H51" t="s">
-        <v>208</v>
+        <v>384</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2354,13 +3177,13 @@
         <v>0</v>
       </c>
       <c r="E52" s="2">
-        <v>43725.19519675926</v>
+        <v>43725.2253587963</v>
       </c>
       <c r="F52" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="H52" t="s">
-        <v>209</v>
+        <v>385</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2374,16 +3197,16 @@
         <v>0</v>
       </c>
       <c r="E53" s="2">
-        <v>43725.19498842592</v>
+        <v>43725.22515046296</v>
       </c>
       <c r="F53" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="G53" t="s">
-        <v>132</v>
+        <v>247</v>
       </c>
       <c r="H53" t="s">
-        <v>210</v>
+        <v>386</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2391,42 +3214,45 @@
         <v>0</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54" s="2">
-        <v>43725.19484953704</v>
+        <v>43725.26079861111</v>
       </c>
       <c r="F54" t="s">
-        <v>49</v>
+        <v>68</v>
+      </c>
+      <c r="G54" t="s">
+        <v>248</v>
       </c>
       <c r="H54" t="s">
-        <v>211</v>
+        <v>387</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55" s="2">
-        <v>43725.19435185185</v>
+        <v>43725.25957175926</v>
       </c>
       <c r="F55" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="G55" t="s">
-        <v>133</v>
+        <v>249</v>
       </c>
       <c r="H55" t="s">
-        <v>212</v>
+        <v>388</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2440,16 +3266,16 @@
         <v>0</v>
       </c>
       <c r="E56" s="2">
-        <v>43725.19428240741</v>
+        <v>43725.25954861111</v>
       </c>
       <c r="F56" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="G56" t="s">
-        <v>134</v>
+        <v>250</v>
       </c>
       <c r="H56" t="s">
-        <v>213</v>
+        <v>389</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2463,16 +3289,16 @@
         <v>0</v>
       </c>
       <c r="E57" s="2">
-        <v>43725.1940625</v>
+        <v>43725.25915509259</v>
       </c>
       <c r="F57" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="G57" t="s">
-        <v>135</v>
+        <v>251</v>
       </c>
       <c r="H57" t="s">
-        <v>214</v>
+        <v>390</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2480,22 +3306,22 @@
         <v>0</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58" s="2">
-        <v>43725.19930555556</v>
+        <v>43725.25903935185</v>
       </c>
       <c r="F58" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="G58" t="s">
-        <v>138</v>
+        <v>252</v>
       </c>
       <c r="H58" t="s">
-        <v>219</v>
+        <v>391</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2503,22 +3329,22 @@
         <v>0</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D59">
         <v>0</v>
       </c>
       <c r="E59" s="2">
-        <v>43725.19877314815</v>
+        <v>43725.26378472222</v>
       </c>
       <c r="F59" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="G59" t="s">
-        <v>139</v>
+        <v>253</v>
       </c>
       <c r="H59" t="s">
-        <v>220</v>
+        <v>392</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2526,27 +3352,27 @@
         <v>0</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60">
         <v>0</v>
       </c>
       <c r="E60" s="2">
-        <v>43725.19746527778</v>
+        <v>43725.26263888889</v>
       </c>
       <c r="F60" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="G60" t="s">
-        <v>137</v>
+        <v>254</v>
       </c>
       <c r="H60" t="s">
-        <v>217</v>
+        <v>393</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B61" t="s">
         <v>8</v>
@@ -2555,33 +3381,39 @@
         <v>0</v>
       </c>
       <c r="E61" s="2">
-        <v>43725.19724537037</v>
+        <v>43725.26190972222</v>
       </c>
       <c r="F61" t="s">
-        <v>56</v>
+        <v>75</v>
+      </c>
+      <c r="G61" t="s">
+        <v>255</v>
       </c>
       <c r="H61" t="s">
-        <v>218</v>
+        <v>394</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E62" s="2">
-        <v>43725.19619212963</v>
+        <v>43725.26136574074</v>
       </c>
       <c r="F62" t="s">
-        <v>45</v>
+        <v>76</v>
+      </c>
+      <c r="G62" t="s">
+        <v>256</v>
       </c>
       <c r="H62" t="s">
-        <v>207</v>
+        <v>395</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2595,13 +3427,16 @@
         <v>0</v>
       </c>
       <c r="E63" s="2">
-        <v>43725.19545138889</v>
+        <v>43725.26135416667</v>
       </c>
       <c r="F63" t="s">
-        <v>46</v>
+        <v>77</v>
+      </c>
+      <c r="G63" t="s">
+        <v>229</v>
       </c>
       <c r="H63" t="s">
-        <v>208</v>
+        <v>396</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2609,42 +3444,42 @@
         <v>0</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
       <c r="E64" s="2">
-        <v>43725.19519675926</v>
+        <v>43725.22495370371</v>
       </c>
       <c r="F64" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="H64" t="s">
-        <v>209</v>
+        <v>397</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B65" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D65">
         <v>0</v>
       </c>
       <c r="E65" s="2">
-        <v>43725.19498842592</v>
+        <v>43725.22479166667</v>
       </c>
       <c r="F65" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="G65" t="s">
-        <v>132</v>
+        <v>257</v>
       </c>
       <c r="H65" t="s">
-        <v>210</v>
+        <v>398</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2652,19 +3487,22 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66">
         <v>0</v>
       </c>
       <c r="E66" s="2">
-        <v>43725.19484953704</v>
+        <v>43725.22320601852</v>
       </c>
       <c r="F66" t="s">
-        <v>49</v>
+        <v>80</v>
+      </c>
+      <c r="G66" t="s">
+        <v>258</v>
       </c>
       <c r="H66" t="s">
-        <v>211</v>
+        <v>399</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2672,22 +3510,22 @@
         <v>0</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
       <c r="E67" s="2">
-        <v>43725.19435185185</v>
+        <v>43725.22282407407</v>
       </c>
       <c r="F67" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="G67" t="s">
-        <v>133</v>
+        <v>259</v>
       </c>
       <c r="H67" t="s">
-        <v>212</v>
+        <v>400</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2695,22 +3533,22 @@
         <v>0</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68" s="2">
-        <v>43725.21799768518</v>
+        <v>43725.22270833333</v>
       </c>
       <c r="F68" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="G68" t="s">
-        <v>140</v>
+        <v>260</v>
       </c>
       <c r="H68" t="s">
-        <v>221</v>
+        <v>401</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2724,39 +3562,39 @@
         <v>0</v>
       </c>
       <c r="E69" s="2">
-        <v>43725.21753472222</v>
+        <v>43725.22197916666</v>
       </c>
       <c r="F69" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="G69" t="s">
-        <v>141</v>
+        <v>261</v>
       </c>
       <c r="H69" t="s">
-        <v>222</v>
+        <v>402</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B70" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D70">
         <v>0</v>
       </c>
       <c r="E70" s="2">
-        <v>43725.2175</v>
+        <v>43725.22185185185</v>
       </c>
       <c r="F70" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="G70" t="s">
-        <v>142</v>
+        <v>262</v>
       </c>
       <c r="H70" t="s">
-        <v>223</v>
+        <v>403</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2770,13 +3608,16 @@
         <v>0</v>
       </c>
       <c r="E71" s="2">
-        <v>43725.2171875</v>
+        <v>43725.22163194444</v>
       </c>
       <c r="F71" t="s">
-        <v>62</v>
+        <v>85</v>
+      </c>
+      <c r="G71" t="s">
+        <v>263</v>
       </c>
       <c r="H71" t="s">
-        <v>224</v>
+        <v>404</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2790,16 +3631,13 @@
         <v>0</v>
       </c>
       <c r="E72" s="2">
-        <v>43725.21681712963</v>
+        <v>43725.220625</v>
       </c>
       <c r="F72" t="s">
-        <v>63</v>
-      </c>
-      <c r="G72" t="s">
-        <v>143</v>
+        <v>86</v>
       </c>
       <c r="H72" t="s">
-        <v>225</v>
+        <v>405</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2807,22 +3645,22 @@
         <v>0</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D73">
         <v>0</v>
       </c>
       <c r="E73" s="2">
-        <v>43725.21670138889</v>
+        <v>43725.22039351852</v>
       </c>
       <c r="F73" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="G73" t="s">
-        <v>144</v>
+        <v>225</v>
       </c>
       <c r="H73" t="s">
-        <v>226</v>
+        <v>406</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2830,19 +3668,22 @@
         <v>0</v>
       </c>
       <c r="B74" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D74">
         <v>0</v>
       </c>
       <c r="E74" s="2">
-        <v>43725.21650462963</v>
+        <v>43725.22038194445</v>
       </c>
       <c r="F74" t="s">
-        <v>65</v>
+        <v>88</v>
+      </c>
+      <c r="G74" t="s">
+        <v>264</v>
       </c>
       <c r="H74" t="s">
-        <v>227</v>
+        <v>407</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2850,45 +3691,42 @@
         <v>0</v>
       </c>
       <c r="B75" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D75">
         <v>0</v>
       </c>
       <c r="E75" s="2">
-        <v>43725.21561342593</v>
+        <v>43725.21958333333</v>
       </c>
       <c r="F75" t="s">
-        <v>66</v>
-      </c>
-      <c r="G75" t="s">
-        <v>145</v>
+        <v>89</v>
       </c>
       <c r="H75" t="s">
-        <v>228</v>
+        <v>408</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B76" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D76">
         <v>0</v>
       </c>
       <c r="E76" s="2">
-        <v>43725.21560185185</v>
+        <v>43725.21953703704</v>
       </c>
       <c r="F76" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="G76" t="s">
-        <v>145</v>
+        <v>265</v>
       </c>
       <c r="H76" t="s">
-        <v>228</v>
+        <v>409</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2896,22 +3734,22 @@
         <v>0</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D77">
         <v>0</v>
       </c>
       <c r="E77" s="2">
-        <v>43725.2147337963</v>
+        <v>43725.21950231482</v>
       </c>
       <c r="F77" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="G77" t="s">
-        <v>146</v>
+        <v>266</v>
       </c>
       <c r="H77" t="s">
-        <v>229</v>
+        <v>410</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2919,22 +3757,19 @@
         <v>0</v>
       </c>
       <c r="B78" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D78">
         <v>0</v>
       </c>
       <c r="E78" s="2">
-        <v>43725.21458333333</v>
+        <v>43725.21947916667</v>
       </c>
       <c r="F78" t="s">
-        <v>69</v>
-      </c>
-      <c r="G78" t="s">
-        <v>147</v>
+        <v>92</v>
       </c>
       <c r="H78" t="s">
-        <v>230</v>
+        <v>411</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2942,22 +3777,19 @@
         <v>0</v>
       </c>
       <c r="B79" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D79">
         <v>0</v>
       </c>
       <c r="E79" s="2">
-        <v>43725.21348379629</v>
+        <v>43725.21946759259</v>
       </c>
       <c r="F79" t="s">
-        <v>70</v>
-      </c>
-      <c r="G79" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="H79" t="s">
-        <v>231</v>
+        <v>411</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2965,22 +3797,22 @@
         <v>0</v>
       </c>
       <c r="B80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80">
         <v>0</v>
       </c>
       <c r="E80" s="2">
-        <v>43725.21326388889</v>
+        <v>43725.21931712963</v>
       </c>
       <c r="F80" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="G80" t="s">
-        <v>148</v>
+        <v>267</v>
       </c>
       <c r="H80" t="s">
-        <v>232</v>
+        <v>412</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2988,22 +3820,22 @@
         <v>0</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81">
         <v>0</v>
       </c>
       <c r="E81" s="2">
-        <v>43725.21306712963</v>
+        <v>43725.21865740741</v>
       </c>
       <c r="F81" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="G81" t="s">
-        <v>149</v>
+        <v>268</v>
       </c>
       <c r="H81" t="s">
-        <v>233</v>
+        <v>413</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3011,22 +3843,22 @@
         <v>0</v>
       </c>
       <c r="B82" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E82" s="2">
-        <v>43725.21280092592</v>
+        <v>43725.21827546296</v>
       </c>
       <c r="F82" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="G82" t="s">
-        <v>150</v>
+        <v>269</v>
       </c>
       <c r="H82" t="s">
-        <v>234</v>
+        <v>414</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3034,19 +3866,22 @@
         <v>0</v>
       </c>
       <c r="B83" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D83">
         <v>0</v>
       </c>
       <c r="E83" s="2">
-        <v>43725.21203703704</v>
+        <v>43725.21799768518</v>
       </c>
       <c r="F83" t="s">
-        <v>74</v>
+        <v>97</v>
+      </c>
+      <c r="G83" t="s">
+        <v>270</v>
       </c>
       <c r="H83" t="s">
-        <v>235</v>
+        <v>415</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3054,22 +3889,22 @@
         <v>0</v>
       </c>
       <c r="B84" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D84">
         <v>0</v>
       </c>
       <c r="E84" s="2">
-        <v>43725.21199074074</v>
+        <v>43725.21753472222</v>
       </c>
       <c r="F84" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="G84" t="s">
-        <v>151</v>
+        <v>271</v>
       </c>
       <c r="H84" t="s">
-        <v>236</v>
+        <v>416</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3077,22 +3912,22 @@
         <v>0</v>
       </c>
       <c r="B85" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D85">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E85" s="2">
-        <v>43725.21149305555</v>
+        <v>43725.2175</v>
       </c>
       <c r="F85" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="G85" t="s">
-        <v>152</v>
+        <v>272</v>
       </c>
       <c r="H85" t="s">
-        <v>237</v>
+        <v>417</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3100,19 +3935,19 @@
         <v>1</v>
       </c>
       <c r="B86" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D86">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E86" s="2">
-        <v>43725.21082175926</v>
+        <v>43725.2171875</v>
       </c>
       <c r="F86" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="H86" t="s">
-        <v>238</v>
+        <v>418</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3120,22 +3955,22 @@
         <v>0</v>
       </c>
       <c r="B87" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D87">
         <v>0</v>
       </c>
       <c r="E87" s="2">
-        <v>43725.21037037037</v>
+        <v>43725.21681712963</v>
       </c>
       <c r="F87" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="G87" t="s">
-        <v>153</v>
+        <v>273</v>
       </c>
       <c r="H87" t="s">
-        <v>239</v>
+        <v>419</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3149,16 +3984,16 @@
         <v>0</v>
       </c>
       <c r="E88" s="2">
-        <v>43725.21</v>
+        <v>43725.21670138889</v>
       </c>
       <c r="F88" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="G88" t="s">
-        <v>154</v>
+        <v>274</v>
       </c>
       <c r="H88" t="s">
-        <v>240</v>
+        <v>420</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3166,22 +4001,19 @@
         <v>0</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D89">
         <v>0</v>
       </c>
       <c r="E89" s="2">
-        <v>43725.20994212963</v>
+        <v>43725.21650462963</v>
       </c>
       <c r="F89" t="s">
-        <v>80</v>
-      </c>
-      <c r="G89" t="s">
-        <v>155</v>
+        <v>103</v>
       </c>
       <c r="H89" t="s">
-        <v>241</v>
+        <v>421</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3189,22 +4021,22 @@
         <v>0</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D90">
         <v>0</v>
       </c>
       <c r="E90" s="2">
-        <v>43725.20961805555</v>
+        <v>43725.21561342593</v>
       </c>
       <c r="F90" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="G90" t="s">
-        <v>156</v>
+        <v>275</v>
       </c>
       <c r="H90" t="s">
-        <v>242</v>
+        <v>422</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3212,22 +4044,19 @@
         <v>0</v>
       </c>
       <c r="B91" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D91">
         <v>0</v>
       </c>
       <c r="E91" s="2">
-        <v>43725.20947916667</v>
+        <v>43725.27184027778</v>
       </c>
       <c r="F91" t="s">
-        <v>82</v>
-      </c>
-      <c r="G91" t="s">
-        <v>157</v>
+        <v>105</v>
       </c>
       <c r="H91" t="s">
-        <v>243</v>
+        <v>423</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3241,16 +4070,16 @@
         <v>0</v>
       </c>
       <c r="E92" s="2">
-        <v>43725.20940972222</v>
+        <v>43725.26900462963</v>
       </c>
       <c r="F92" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="G92" t="s">
-        <v>158</v>
+        <v>276</v>
       </c>
       <c r="H92" t="s">
-        <v>244</v>
+        <v>424</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3258,27 +4087,27 @@
         <v>0</v>
       </c>
       <c r="B93" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D93">
         <v>0</v>
       </c>
       <c r="E93" s="2">
-        <v>43725.20920138889</v>
+        <v>43725.2684375</v>
       </c>
       <c r="F93" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="G93" t="s">
-        <v>159</v>
+        <v>277</v>
       </c>
       <c r="H93" t="s">
-        <v>245</v>
+        <v>425</v>
       </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B94" t="s">
         <v>8</v>
@@ -3287,16 +4116,16 @@
         <v>0</v>
       </c>
       <c r="E94" s="2">
-        <v>43725.20894675926</v>
+        <v>43725.26789351852</v>
       </c>
       <c r="F94" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="G94" t="s">
-        <v>160</v>
+        <v>278</v>
       </c>
       <c r="H94" t="s">
-        <v>246</v>
+        <v>426</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3310,16 +4139,16 @@
         <v>0</v>
       </c>
       <c r="E95" s="2">
-        <v>43725.20856481481</v>
+        <v>43725.26665509259</v>
       </c>
       <c r="F95" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="G95" t="s">
-        <v>161</v>
+        <v>279</v>
       </c>
       <c r="H95" t="s">
-        <v>207</v>
+        <v>427</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3333,16 +4162,16 @@
         <v>0</v>
       </c>
       <c r="E96" s="2">
-        <v>43725.2080787037</v>
+        <v>43725.27789351852</v>
       </c>
       <c r="F96" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="G96" t="s">
-        <v>162</v>
+        <v>280</v>
       </c>
       <c r="H96" t="s">
-        <v>247</v>
+        <v>428</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3350,19 +4179,22 @@
         <v>0</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97">
         <v>0</v>
       </c>
       <c r="E97" s="2">
-        <v>43725.20758101852</v>
+        <v>43725.27681712963</v>
       </c>
       <c r="F97" t="s">
-        <v>88</v>
+        <v>111</v>
+      </c>
+      <c r="G97" t="s">
+        <v>281</v>
       </c>
       <c r="H97" t="s">
-        <v>248</v>
+        <v>429</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3370,42 +4202,45 @@
         <v>0</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98">
         <v>0</v>
       </c>
       <c r="E98" s="2">
-        <v>43725.2075462963</v>
+        <v>43725.27645833333</v>
       </c>
       <c r="F98" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="G98" t="s">
-        <v>163</v>
+        <v>282</v>
       </c>
       <c r="H98" t="s">
-        <v>249</v>
+        <v>430</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D99">
         <v>0</v>
       </c>
       <c r="E99" s="2">
-        <v>43725.20751157407</v>
+        <v>43725.27609953703</v>
       </c>
       <c r="F99" t="s">
-        <v>90</v>
+        <v>113</v>
+      </c>
+      <c r="G99" t="s">
+        <v>229</v>
       </c>
       <c r="H99" t="s">
-        <v>250</v>
+        <v>431</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3413,22 +4248,22 @@
         <v>1</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E100" s="2">
-        <v>43725.20689814815</v>
+        <v>43725.27554398148</v>
       </c>
       <c r="F100" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="G100" t="s">
-        <v>135</v>
+        <v>229</v>
       </c>
       <c r="H100" t="s">
-        <v>251</v>
+        <v>432</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3436,22 +4271,22 @@
         <v>0</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D101">
         <v>0</v>
       </c>
       <c r="E101" s="2">
-        <v>43725.20640046296</v>
+        <v>43725.27827546297</v>
       </c>
       <c r="F101" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="G101" t="s">
-        <v>164</v>
+        <v>283</v>
       </c>
       <c r="H101" t="s">
-        <v>252</v>
+        <v>433</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3459,22 +4294,22 @@
         <v>0</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102">
         <v>0</v>
       </c>
       <c r="E102" s="2">
-        <v>43725.20622685185</v>
+        <v>43725.28068287037</v>
       </c>
       <c r="F102" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="G102" t="s">
-        <v>165</v>
+        <v>284</v>
       </c>
       <c r="H102" t="s">
-        <v>253</v>
+        <v>434</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3488,16 +4323,16 @@
         <v>0</v>
       </c>
       <c r="E103" s="2">
-        <v>43725.20587962963</v>
+        <v>43725.28021990741</v>
       </c>
       <c r="F103" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="G103" t="s">
-        <v>166</v>
+        <v>285</v>
       </c>
       <c r="H103" t="s">
-        <v>254</v>
+        <v>435</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3505,65 +4340,68 @@
         <v>0</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D104">
         <v>0</v>
       </c>
       <c r="E104" s="2">
-        <v>43725.20549768519</v>
+        <v>43725.21560185185</v>
       </c>
       <c r="F104" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="G104" t="s">
-        <v>139</v>
+        <v>275</v>
       </c>
       <c r="H104" t="s">
-        <v>255</v>
+        <v>422</v>
       </c>
     </row>
     <row r="105" spans="1:8">
       <c r="A105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B105" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E105" s="2">
-        <v>43725.20516203704</v>
+        <v>43725.2147337963</v>
       </c>
       <c r="F105" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="G105" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="H105" t="s">
-        <v>256</v>
+        <v>436</v>
       </c>
     </row>
     <row r="106" spans="1:8">
       <c r="A106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B106" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D106">
         <v>0</v>
       </c>
       <c r="E106" s="2">
-        <v>43725.20491898148</v>
+        <v>43725.21458333333</v>
       </c>
       <c r="F106" t="s">
-        <v>97</v>
+        <v>120</v>
+      </c>
+      <c r="G106" t="s">
+        <v>286</v>
       </c>
       <c r="H106" t="s">
-        <v>257</v>
+        <v>437</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3571,39 +4409,45 @@
         <v>0</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107">
         <v>0</v>
       </c>
       <c r="E107" s="2">
-        <v>43725.20287037037</v>
+        <v>43725.21348379629</v>
       </c>
       <c r="F107" t="s">
-        <v>98</v>
+        <v>121</v>
+      </c>
+      <c r="G107" t="s">
+        <v>229</v>
       </c>
       <c r="H107" t="s">
-        <v>258</v>
+        <v>438</v>
       </c>
     </row>
     <row r="108" spans="1:8">
       <c r="A108">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E108" s="2">
-        <v>43725.20258101852</v>
+        <v>43725.21326388889</v>
       </c>
       <c r="F108" t="s">
-        <v>99</v>
+        <v>122</v>
+      </c>
+      <c r="G108" t="s">
+        <v>287</v>
       </c>
       <c r="H108" t="s">
-        <v>207</v>
+        <v>439</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3617,39 +4461,39 @@
         <v>0</v>
       </c>
       <c r="E109" s="2">
-        <v>43725.20246527778</v>
+        <v>43725.21306712963</v>
       </c>
       <c r="F109" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="G109" t="s">
-        <v>168</v>
+        <v>288</v>
       </c>
       <c r="H109" t="s">
-        <v>259</v>
+        <v>440</v>
       </c>
     </row>
     <row r="110" spans="1:8">
       <c r="A110">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D110">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E110" s="2">
-        <v>43725.20228009259</v>
+        <v>43725.21280092592</v>
       </c>
       <c r="F110" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="G110" t="s">
-        <v>169</v>
+        <v>289</v>
       </c>
       <c r="H110" t="s">
-        <v>260</v>
+        <v>441</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3663,16 +4507,13 @@
         <v>0</v>
       </c>
       <c r="E111" s="2">
-        <v>43725.20210648148</v>
+        <v>43725.21203703704</v>
       </c>
       <c r="F111" t="s">
-        <v>102</v>
-      </c>
-      <c r="G111" t="s">
-        <v>170</v>
+        <v>125</v>
       </c>
       <c r="H111" t="s">
-        <v>261</v>
+        <v>442</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3686,16 +4527,16 @@
         <v>0</v>
       </c>
       <c r="E112" s="2">
-        <v>43725.20163194444</v>
+        <v>43725.21199074074</v>
       </c>
       <c r="F112" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="G112" t="s">
-        <v>171</v>
+        <v>290</v>
       </c>
       <c r="H112" t="s">
-        <v>262</v>
+        <v>443</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3703,45 +4544,42 @@
         <v>0</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D113">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E113" s="2">
-        <v>43725.20116898148</v>
+        <v>43725.21149305555</v>
       </c>
       <c r="F113" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="G113" t="s">
-        <v>172</v>
+        <v>291</v>
       </c>
       <c r="H113" t="s">
-        <v>263</v>
+        <v>444</v>
       </c>
     </row>
     <row r="114" spans="1:8">
       <c r="A114">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E114" s="2">
-        <v>43725.20090277777</v>
+        <v>43725.21082175926</v>
       </c>
       <c r="F114" t="s">
-        <v>105</v>
-      </c>
-      <c r="G114" t="s">
-        <v>173</v>
+        <v>128</v>
       </c>
       <c r="H114" t="s">
-        <v>264</v>
+        <v>445</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3755,16 +4593,16 @@
         <v>0</v>
       </c>
       <c r="E115" s="2">
-        <v>43725.20078703704</v>
+        <v>43725.21037037037</v>
       </c>
       <c r="F115" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="G115" t="s">
-        <v>174</v>
+        <v>292</v>
       </c>
       <c r="H115" t="s">
-        <v>265</v>
+        <v>446</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3778,16 +4616,16 @@
         <v>0</v>
       </c>
       <c r="E116" s="2">
-        <v>43725.2002662037</v>
+        <v>43725.21</v>
       </c>
       <c r="F116" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="G116" t="s">
-        <v>135</v>
+        <v>293</v>
       </c>
       <c r="H116" t="s">
-        <v>266</v>
+        <v>447</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3801,16 +4639,1870 @@
         <v>0</v>
       </c>
       <c r="E117" s="2">
+        <v>43725.20994212963</v>
+      </c>
+      <c r="F117" t="s">
+        <v>131</v>
+      </c>
+      <c r="G117" t="s">
+        <v>294</v>
+      </c>
+      <c r="H117" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118">
+        <v>0</v>
+      </c>
+      <c r="B118" t="s">
+        <v>8</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118" s="2">
+        <v>43725.20961805555</v>
+      </c>
+      <c r="F118" t="s">
+        <v>132</v>
+      </c>
+      <c r="G118" t="s">
+        <v>295</v>
+      </c>
+      <c r="H118" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119">
+        <v>0</v>
+      </c>
+      <c r="B119" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119" s="2">
+        <v>43725.20947916667</v>
+      </c>
+      <c r="F119" t="s">
+        <v>133</v>
+      </c>
+      <c r="G119" t="s">
+        <v>296</v>
+      </c>
+      <c r="H119" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120">
+        <v>0</v>
+      </c>
+      <c r="B120" t="s">
+        <v>10</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120" s="2">
+        <v>43725.20940972222</v>
+      </c>
+      <c r="F120" t="s">
+        <v>134</v>
+      </c>
+      <c r="G120" t="s">
+        <v>297</v>
+      </c>
+      <c r="H120" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121">
+        <v>0</v>
+      </c>
+      <c r="B121" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121" s="2">
+        <v>43725.20920138889</v>
+      </c>
+      <c r="F121" t="s">
+        <v>135</v>
+      </c>
+      <c r="G121" t="s">
+        <v>298</v>
+      </c>
+      <c r="H121" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122">
+        <v>1</v>
+      </c>
+      <c r="B122" t="s">
+        <v>8</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122" s="2">
+        <v>43725.20894675926</v>
+      </c>
+      <c r="F122" t="s">
+        <v>136</v>
+      </c>
+      <c r="G122" t="s">
+        <v>299</v>
+      </c>
+      <c r="H122" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123">
+        <v>0</v>
+      </c>
+      <c r="B123" t="s">
+        <v>8</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123" s="2">
+        <v>43725.20856481481</v>
+      </c>
+      <c r="F123" t="s">
+        <v>137</v>
+      </c>
+      <c r="G123" t="s">
+        <v>300</v>
+      </c>
+      <c r="H123" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124">
+        <v>0</v>
+      </c>
+      <c r="B124" t="s">
+        <v>8</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124" s="2">
+        <v>43725.2080787037</v>
+      </c>
+      <c r="F124" t="s">
+        <v>138</v>
+      </c>
+      <c r="G124" t="s">
+        <v>258</v>
+      </c>
+      <c r="H124" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125">
+        <v>0</v>
+      </c>
+      <c r="B125" t="s">
+        <v>8</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125" s="2">
+        <v>43725.20758101852</v>
+      </c>
+      <c r="F125" t="s">
+        <v>139</v>
+      </c>
+      <c r="H125" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126">
+        <v>0</v>
+      </c>
+      <c r="B126" t="s">
+        <v>8</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+      <c r="E126" s="2">
+        <v>43725.2075462963</v>
+      </c>
+      <c r="F126" t="s">
+        <v>140</v>
+      </c>
+      <c r="G126" t="s">
+        <v>301</v>
+      </c>
+      <c r="H126" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127">
+        <v>0</v>
+      </c>
+      <c r="B127" t="s">
+        <v>8</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127" s="2">
+        <v>43725.20751157407</v>
+      </c>
+      <c r="F127" t="s">
+        <v>141</v>
+      </c>
+      <c r="H127" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128">
+        <v>1</v>
+      </c>
+      <c r="B128" t="s">
+        <v>8</v>
+      </c>
+      <c r="D128">
+        <v>1</v>
+      </c>
+      <c r="E128" s="2">
+        <v>43725.20689814815</v>
+      </c>
+      <c r="F128" t="s">
+        <v>142</v>
+      </c>
+      <c r="G128" t="s">
+        <v>229</v>
+      </c>
+      <c r="H128" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129">
+        <v>0</v>
+      </c>
+      <c r="B129" t="s">
+        <v>8</v>
+      </c>
+      <c r="D129">
+        <v>0</v>
+      </c>
+      <c r="E129" s="2">
+        <v>43725.20640046296</v>
+      </c>
+      <c r="F129" t="s">
+        <v>143</v>
+      </c>
+      <c r="G129" t="s">
+        <v>302</v>
+      </c>
+      <c r="H129" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130">
+        <v>0</v>
+      </c>
+      <c r="B130" t="s">
+        <v>8</v>
+      </c>
+      <c r="D130">
+        <v>0</v>
+      </c>
+      <c r="E130" s="2">
+        <v>43725.20622685185</v>
+      </c>
+      <c r="F130" t="s">
+        <v>144</v>
+      </c>
+      <c r="G130" t="s">
+        <v>303</v>
+      </c>
+      <c r="H130" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131">
+        <v>0</v>
+      </c>
+      <c r="B131" t="s">
+        <v>8</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131" s="2">
+        <v>43725.20587962963</v>
+      </c>
+      <c r="F131" t="s">
+        <v>145</v>
+      </c>
+      <c r="G131" t="s">
+        <v>304</v>
+      </c>
+      <c r="H131" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132">
+        <v>0</v>
+      </c>
+      <c r="B132" t="s">
+        <v>8</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+      <c r="E132" s="2">
+        <v>43725.20549768519</v>
+      </c>
+      <c r="F132" t="s">
+        <v>146</v>
+      </c>
+      <c r="G132" t="s">
+        <v>305</v>
+      </c>
+      <c r="H132" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133">
+        <v>1</v>
+      </c>
+      <c r="B133" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+      <c r="E133" s="2">
+        <v>43725.20516203704</v>
+      </c>
+      <c r="F133" t="s">
+        <v>147</v>
+      </c>
+      <c r="G133" t="s">
+        <v>260</v>
+      </c>
+      <c r="H133" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134">
+        <v>2</v>
+      </c>
+      <c r="B134" t="s">
+        <v>10</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+      <c r="E134" s="2">
+        <v>43725.20491898148</v>
+      </c>
+      <c r="F134" t="s">
+        <v>148</v>
+      </c>
+      <c r="H134" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135">
+        <v>0</v>
+      </c>
+      <c r="B135" t="s">
+        <v>8</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+      <c r="E135" s="2">
+        <v>43725.20287037037</v>
+      </c>
+      <c r="F135" t="s">
+        <v>149</v>
+      </c>
+      <c r="H135" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136">
+        <v>4</v>
+      </c>
+      <c r="B136" t="s">
+        <v>8</v>
+      </c>
+      <c r="D136">
+        <v>3</v>
+      </c>
+      <c r="E136" s="2">
+        <v>43725.20258101852</v>
+      </c>
+      <c r="F136" t="s">
+        <v>150</v>
+      </c>
+      <c r="H136" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137">
+        <v>0</v>
+      </c>
+      <c r="B137" t="s">
+        <v>8</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
+      </c>
+      <c r="E137" s="2">
+        <v>43725.20246527778</v>
+      </c>
+      <c r="F137" t="s">
+        <v>151</v>
+      </c>
+      <c r="G137" t="s">
+        <v>306</v>
+      </c>
+      <c r="H137" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138">
+        <v>8</v>
+      </c>
+      <c r="B138" t="s">
+        <v>8</v>
+      </c>
+      <c r="D138">
+        <v>12</v>
+      </c>
+      <c r="E138" s="2">
+        <v>43725.20228009259</v>
+      </c>
+      <c r="F138" t="s">
+        <v>152</v>
+      </c>
+      <c r="G138" t="s">
+        <v>307</v>
+      </c>
+      <c r="H138" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139">
+        <v>0</v>
+      </c>
+      <c r="B139" t="s">
+        <v>10</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+      <c r="E139" s="2">
+        <v>43725.20210648148</v>
+      </c>
+      <c r="F139" t="s">
+        <v>153</v>
+      </c>
+      <c r="G139" t="s">
+        <v>308</v>
+      </c>
+      <c r="H139" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140">
+        <v>1</v>
+      </c>
+      <c r="B140" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140">
+        <v>0</v>
+      </c>
+      <c r="E140" s="2">
+        <v>43725.20163194444</v>
+      </c>
+      <c r="F140" t="s">
+        <v>154</v>
+      </c>
+      <c r="G140" t="s">
+        <v>309</v>
+      </c>
+      <c r="H140" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141">
+        <v>0</v>
+      </c>
+      <c r="B141" t="s">
+        <v>8</v>
+      </c>
+      <c r="D141">
+        <v>0</v>
+      </c>
+      <c r="E141" s="2">
+        <v>43725.20116898148</v>
+      </c>
+      <c r="F141" t="s">
+        <v>155</v>
+      </c>
+      <c r="G141" t="s">
+        <v>310</v>
+      </c>
+      <c r="H141" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142">
+        <v>0</v>
+      </c>
+      <c r="B142" t="s">
+        <v>8</v>
+      </c>
+      <c r="D142">
+        <v>0</v>
+      </c>
+      <c r="E142" s="2">
+        <v>43725.20090277777</v>
+      </c>
+      <c r="F142" t="s">
+        <v>156</v>
+      </c>
+      <c r="G142" t="s">
+        <v>311</v>
+      </c>
+      <c r="H142" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="A143">
+        <v>0</v>
+      </c>
+      <c r="B143" t="s">
+        <v>9</v>
+      </c>
+      <c r="D143">
+        <v>0</v>
+      </c>
+      <c r="E143" s="2">
+        <v>43725.20078703704</v>
+      </c>
+      <c r="F143" t="s">
+        <v>157</v>
+      </c>
+      <c r="G143" t="s">
+        <v>312</v>
+      </c>
+      <c r="H143" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="A144">
+        <v>0</v>
+      </c>
+      <c r="B144" t="s">
+        <v>8</v>
+      </c>
+      <c r="D144">
+        <v>0</v>
+      </c>
+      <c r="E144" s="2">
+        <v>43725.2002662037</v>
+      </c>
+      <c r="F144" t="s">
+        <v>158</v>
+      </c>
+      <c r="G144" t="s">
+        <v>229</v>
+      </c>
+      <c r="H144" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="A145">
+        <v>0</v>
+      </c>
+      <c r="B145" t="s">
+        <v>8</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+      <c r="E145" s="2">
         <v>43725.20012731481</v>
       </c>
-      <c r="F117" t="s">
-        <v>108</v>
-      </c>
-      <c r="G117" t="s">
+      <c r="F145" t="s">
+        <v>159</v>
+      </c>
+      <c r="G145" t="s">
+        <v>313</v>
+      </c>
+      <c r="H145" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="A146">
+        <v>0</v>
+      </c>
+      <c r="B146" t="s">
+        <v>10</v>
+      </c>
+      <c r="D146">
+        <v>0</v>
+      </c>
+      <c r="E146" s="2">
+        <v>43725.19957175926</v>
+      </c>
+      <c r="F146" t="s">
+        <v>160</v>
+      </c>
+      <c r="G146" t="s">
+        <v>314</v>
+      </c>
+      <c r="H146" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="A147">
+        <v>0</v>
+      </c>
+      <c r="B147" t="s">
+        <v>8</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
+      </c>
+      <c r="E147" s="2">
+        <v>43725.19949074074</v>
+      </c>
+      <c r="F147" t="s">
+        <v>161</v>
+      </c>
+      <c r="H147" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
+      <c r="A148">
+        <v>0</v>
+      </c>
+      <c r="B148" t="s">
+        <v>8</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+      <c r="E148" s="2">
+        <v>43725.19930555556</v>
+      </c>
+      <c r="F148" t="s">
+        <v>162</v>
+      </c>
+      <c r="G148" t="s">
+        <v>315</v>
+      </c>
+      <c r="H148" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
+      <c r="A149">
+        <v>3</v>
+      </c>
+      <c r="B149" t="s">
+        <v>8</v>
+      </c>
+      <c r="D149">
+        <v>0</v>
+      </c>
+      <c r="E149" s="2">
+        <v>43725.19877314815</v>
+      </c>
+      <c r="F149" t="s">
+        <v>163</v>
+      </c>
+      <c r="G149" t="s">
+        <v>305</v>
+      </c>
+      <c r="H149" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
+      <c r="A150">
+        <v>0</v>
+      </c>
+      <c r="B150" t="s">
+        <v>8</v>
+      </c>
+      <c r="D150">
+        <v>0</v>
+      </c>
+      <c r="E150" s="2">
+        <v>43725.19746527778</v>
+      </c>
+      <c r="F150" t="s">
+        <v>164</v>
+      </c>
+      <c r="G150" t="s">
+        <v>230</v>
+      </c>
+      <c r="H150" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
+      <c r="A151">
+        <v>0</v>
+      </c>
+      <c r="B151" t="s">
+        <v>8</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+      <c r="E151" s="2">
+        <v>43725.19724537037</v>
+      </c>
+      <c r="F151" t="s">
+        <v>165</v>
+      </c>
+      <c r="H151" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
+      <c r="A152">
+        <v>7</v>
+      </c>
+      <c r="B152" t="s">
+        <v>8</v>
+      </c>
+      <c r="D152">
+        <v>1</v>
+      </c>
+      <c r="E152" s="2">
+        <v>43725.19619212963</v>
+      </c>
+      <c r="F152" t="s">
+        <v>166</v>
+      </c>
+      <c r="H152" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
+      <c r="A153">
+        <v>0</v>
+      </c>
+      <c r="B153" t="s">
+        <v>8</v>
+      </c>
+      <c r="D153">
+        <v>0</v>
+      </c>
+      <c r="E153" s="2">
+        <v>43725.19545138889</v>
+      </c>
+      <c r="F153" t="s">
+        <v>167</v>
+      </c>
+      <c r="H153" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="A154">
+        <v>1</v>
+      </c>
+      <c r="B154" t="s">
+        <v>8</v>
+      </c>
+      <c r="D154">
+        <v>0</v>
+      </c>
+      <c r="E154" s="2">
+        <v>43725.19519675926</v>
+      </c>
+      <c r="F154" t="s">
+        <v>168</v>
+      </c>
+      <c r="H154" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
+      <c r="A155">
+        <v>0</v>
+      </c>
+      <c r="B155" t="s">
+        <v>9</v>
+      </c>
+      <c r="D155">
+        <v>0</v>
+      </c>
+      <c r="E155" s="2">
+        <v>43725.19498842592</v>
+      </c>
+      <c r="F155" t="s">
+        <v>169</v>
+      </c>
+      <c r="G155" t="s">
+        <v>316</v>
+      </c>
+      <c r="H155" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
+      <c r="A156">
+        <v>0</v>
+      </c>
+      <c r="B156" t="s">
+        <v>8</v>
+      </c>
+      <c r="D156">
+        <v>0</v>
+      </c>
+      <c r="E156" s="2">
+        <v>43725.19484953704</v>
+      </c>
+      <c r="F156" t="s">
+        <v>170</v>
+      </c>
+      <c r="H156" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
+      <c r="A157">
+        <v>0</v>
+      </c>
+      <c r="B157" t="s">
+        <v>8</v>
+      </c>
+      <c r="D157">
+        <v>0</v>
+      </c>
+      <c r="E157" s="2">
+        <v>43725.19435185185</v>
+      </c>
+      <c r="F157" t="s">
+        <v>171</v>
+      </c>
+      <c r="G157" t="s">
+        <v>317</v>
+      </c>
+      <c r="H157" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
+      <c r="A158">
+        <v>0</v>
+      </c>
+      <c r="B158" t="s">
+        <v>8</v>
+      </c>
+      <c r="D158">
+        <v>0</v>
+      </c>
+      <c r="E158" s="2">
+        <v>43725.19428240741</v>
+      </c>
+      <c r="F158" t="s">
+        <v>172</v>
+      </c>
+      <c r="G158" t="s">
+        <v>318</v>
+      </c>
+      <c r="H158" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
+      <c r="A159">
+        <v>0</v>
+      </c>
+      <c r="B159" t="s">
+        <v>8</v>
+      </c>
+      <c r="D159">
+        <v>0</v>
+      </c>
+      <c r="E159" s="2">
+        <v>43725.1940625</v>
+      </c>
+      <c r="F159" t="s">
+        <v>173</v>
+      </c>
+      <c r="G159" t="s">
+        <v>229</v>
+      </c>
+      <c r="H159" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
+      <c r="A160">
+        <v>0</v>
+      </c>
+      <c r="B160" t="s">
+        <v>10</v>
+      </c>
+      <c r="D160">
+        <v>0</v>
+      </c>
+      <c r="E160" s="2">
+        <v>43725.19376157408</v>
+      </c>
+      <c r="F160" t="s">
+        <v>174</v>
+      </c>
+      <c r="H160" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="A161">
+        <v>1</v>
+      </c>
+      <c r="B161" t="s">
+        <v>8</v>
+      </c>
+      <c r="D161">
+        <v>0</v>
+      </c>
+      <c r="E161" s="2">
+        <v>43725.1922337963</v>
+      </c>
+      <c r="F161" t="s">
         <v>175</v>
       </c>
-      <c r="H117" t="s">
-        <v>267</v>
+      <c r="H161" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="A162">
+        <v>0</v>
+      </c>
+      <c r="B162" t="s">
+        <v>8</v>
+      </c>
+      <c r="D162">
+        <v>0</v>
+      </c>
+      <c r="E162" s="2">
+        <v>43725.19194444444</v>
+      </c>
+      <c r="F162" t="s">
+        <v>176</v>
+      </c>
+      <c r="H162" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
+      <c r="A163">
+        <v>0</v>
+      </c>
+      <c r="B163" t="s">
+        <v>10</v>
+      </c>
+      <c r="D163">
+        <v>0</v>
+      </c>
+      <c r="E163" s="2">
+        <v>43725.19174768519</v>
+      </c>
+      <c r="F163" t="s">
+        <v>177</v>
+      </c>
+      <c r="H163" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
+      <c r="A164">
+        <v>0</v>
+      </c>
+      <c r="B164" t="s">
+        <v>8</v>
+      </c>
+      <c r="D164">
+        <v>0</v>
+      </c>
+      <c r="E164" s="2">
+        <v>43725.19162037037</v>
+      </c>
+      <c r="F164" t="s">
+        <v>178</v>
+      </c>
+      <c r="G164" t="s">
+        <v>222</v>
+      </c>
+      <c r="H164" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="A165">
+        <v>0</v>
+      </c>
+      <c r="B165" t="s">
+        <v>8</v>
+      </c>
+      <c r="D165">
+        <v>0</v>
+      </c>
+      <c r="E165" s="2">
+        <v>43725.19149305556</v>
+      </c>
+      <c r="F165" t="s">
+        <v>179</v>
+      </c>
+      <c r="H165" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="A166">
+        <v>1</v>
+      </c>
+      <c r="B166" t="s">
+        <v>10</v>
+      </c>
+      <c r="D166">
+        <v>0</v>
+      </c>
+      <c r="E166" s="2">
+        <v>43725.19074074074</v>
+      </c>
+      <c r="F166" t="s">
+        <v>180</v>
+      </c>
+      <c r="H166" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="A167">
+        <v>1</v>
+      </c>
+      <c r="B167" t="s">
+        <v>9</v>
+      </c>
+      <c r="D167">
+        <v>0</v>
+      </c>
+      <c r="E167" s="2">
+        <v>43725.1905787037</v>
+      </c>
+      <c r="F167" t="s">
+        <v>181</v>
+      </c>
+      <c r="G167" t="s">
+        <v>217</v>
+      </c>
+      <c r="H167" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
+      <c r="A168">
+        <v>0</v>
+      </c>
+      <c r="B168" t="s">
+        <v>8</v>
+      </c>
+      <c r="D168">
+        <v>0</v>
+      </c>
+      <c r="E168" s="2">
+        <v>43725.1903587963</v>
+      </c>
+      <c r="F168" t="s">
+        <v>182</v>
+      </c>
+      <c r="G168" t="s">
+        <v>319</v>
+      </c>
+      <c r="H168" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
+      <c r="A169">
+        <v>0</v>
+      </c>
+      <c r="B169" t="s">
+        <v>10</v>
+      </c>
+      <c r="D169">
+        <v>0</v>
+      </c>
+      <c r="E169" s="2">
+        <v>43725.18993055556</v>
+      </c>
+      <c r="F169" t="s">
+        <v>183</v>
+      </c>
+      <c r="H169" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
+      <c r="A170">
+        <v>0</v>
+      </c>
+      <c r="B170" t="s">
+        <v>8</v>
+      </c>
+      <c r="D170">
+        <v>0</v>
+      </c>
+      <c r="E170" s="2">
+        <v>43725.18988425926</v>
+      </c>
+      <c r="F170" t="s">
+        <v>184</v>
+      </c>
+      <c r="G170" t="s">
+        <v>320</v>
+      </c>
+      <c r="H170" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
+      <c r="A171">
+        <v>2</v>
+      </c>
+      <c r="B171" t="s">
+        <v>9</v>
+      </c>
+      <c r="D171">
+        <v>0</v>
+      </c>
+      <c r="E171" s="2">
+        <v>43725.18958333333</v>
+      </c>
+      <c r="F171" t="s">
+        <v>185</v>
+      </c>
+      <c r="G171" t="s">
+        <v>243</v>
+      </c>
+      <c r="H171" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
+      <c r="A172">
+        <v>0</v>
+      </c>
+      <c r="B172" t="s">
+        <v>8</v>
+      </c>
+      <c r="D172">
+        <v>0</v>
+      </c>
+      <c r="E172" s="2">
+        <v>43725.18953703704</v>
+      </c>
+      <c r="F172" t="s">
+        <v>186</v>
+      </c>
+      <c r="G172" t="s">
+        <v>321</v>
+      </c>
+      <c r="H172" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
+      <c r="A173">
+        <v>8</v>
+      </c>
+      <c r="B173" t="s">
+        <v>10</v>
+      </c>
+      <c r="D173">
+        <v>1</v>
+      </c>
+      <c r="E173" s="2">
+        <v>43725.18943287037</v>
+      </c>
+      <c r="F173" t="s">
+        <v>187</v>
+      </c>
+      <c r="G173" t="s">
+        <v>322</v>
+      </c>
+      <c r="H173" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
+      <c r="A174">
+        <v>1</v>
+      </c>
+      <c r="B174" t="s">
+        <v>8</v>
+      </c>
+      <c r="D174">
+        <v>0</v>
+      </c>
+      <c r="E174" s="2">
+        <v>43725.18877314815</v>
+      </c>
+      <c r="F174" t="s">
+        <v>188</v>
+      </c>
+      <c r="H174" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
+      <c r="A175">
+        <v>6</v>
+      </c>
+      <c r="B175" t="s">
+        <v>8</v>
+      </c>
+      <c r="D175">
+        <v>0</v>
+      </c>
+      <c r="E175" s="2">
+        <v>43725.18828703704</v>
+      </c>
+      <c r="F175" t="s">
+        <v>189</v>
+      </c>
+      <c r="G175" t="s">
+        <v>225</v>
+      </c>
+      <c r="H175" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
+      <c r="A176">
+        <v>0</v>
+      </c>
+      <c r="B176" t="s">
+        <v>9</v>
+      </c>
+      <c r="D176">
+        <v>0</v>
+      </c>
+      <c r="E176" s="2">
+        <v>43725.18819444445</v>
+      </c>
+      <c r="F176" t="s">
+        <v>190</v>
+      </c>
+      <c r="G176" t="s">
+        <v>259</v>
+      </c>
+      <c r="H176" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
+      <c r="A177">
+        <v>1</v>
+      </c>
+      <c r="B177" t="s">
+        <v>9</v>
+      </c>
+      <c r="D177">
+        <v>0</v>
+      </c>
+      <c r="E177" s="2">
+        <v>43725.18758101852</v>
+      </c>
+      <c r="F177" t="s">
+        <v>191</v>
+      </c>
+      <c r="G177" t="s">
+        <v>323</v>
+      </c>
+      <c r="H177" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
+      <c r="A178">
+        <v>0</v>
+      </c>
+      <c r="B178" t="s">
+        <v>8</v>
+      </c>
+      <c r="D178">
+        <v>0</v>
+      </c>
+      <c r="E178" s="2">
+        <v>43725.18755787037</v>
+      </c>
+      <c r="F178" t="s">
+        <v>192</v>
+      </c>
+      <c r="G178" t="s">
+        <v>324</v>
+      </c>
+      <c r="H178" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
+      <c r="A179">
+        <v>0</v>
+      </c>
+      <c r="B179" t="s">
+        <v>12</v>
+      </c>
+      <c r="D179">
+        <v>0</v>
+      </c>
+      <c r="E179" s="2">
+        <v>43725.18618055555</v>
+      </c>
+      <c r="F179" t="s">
+        <v>193</v>
+      </c>
+      <c r="H179" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
+      <c r="A180">
+        <v>0</v>
+      </c>
+      <c r="B180" t="s">
+        <v>8</v>
+      </c>
+      <c r="D180">
+        <v>0</v>
+      </c>
+      <c r="E180" s="2">
+        <v>43725.18600694444</v>
+      </c>
+      <c r="F180" t="s">
+        <v>194</v>
+      </c>
+      <c r="G180" t="s">
+        <v>325</v>
+      </c>
+      <c r="H180" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
+      <c r="A181">
+        <v>0</v>
+      </c>
+      <c r="B181" t="s">
+        <v>8</v>
+      </c>
+      <c r="D181">
+        <v>0</v>
+      </c>
+      <c r="E181" s="2">
+        <v>43725.18571759259</v>
+      </c>
+      <c r="F181" t="s">
+        <v>195</v>
+      </c>
+      <c r="G181" t="s">
+        <v>326</v>
+      </c>
+      <c r="H181" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
+      <c r="A182">
+        <v>1</v>
+      </c>
+      <c r="B182" t="s">
+        <v>9</v>
+      </c>
+      <c r="D182">
+        <v>0</v>
+      </c>
+      <c r="E182" s="2">
+        <v>43725.18532407407</v>
+      </c>
+      <c r="F182" t="s">
+        <v>196</v>
+      </c>
+      <c r="G182" t="s">
+        <v>327</v>
+      </c>
+      <c r="H182" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
+      <c r="A183">
+        <v>0</v>
+      </c>
+      <c r="B183" t="s">
+        <v>8</v>
+      </c>
+      <c r="D183">
+        <v>0</v>
+      </c>
+      <c r="E183" s="2">
+        <v>43725.18431712963</v>
+      </c>
+      <c r="F183" t="s">
+        <v>197</v>
+      </c>
+      <c r="H183" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
+      <c r="A184">
+        <v>0</v>
+      </c>
+      <c r="B184" t="s">
+        <v>8</v>
+      </c>
+      <c r="D184">
+        <v>0</v>
+      </c>
+      <c r="E184" s="2">
+        <v>43725.18429398148</v>
+      </c>
+      <c r="F184" t="s">
+        <v>198</v>
+      </c>
+      <c r="G184" t="s">
+        <v>328</v>
+      </c>
+      <c r="H184" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
+      <c r="A185">
+        <v>0</v>
+      </c>
+      <c r="B185" t="s">
+        <v>8</v>
+      </c>
+      <c r="D185">
+        <v>0</v>
+      </c>
+      <c r="E185" s="2">
+        <v>43725.18427083334</v>
+      </c>
+      <c r="F185" t="s">
+        <v>199</v>
+      </c>
+      <c r="G185" t="s">
+        <v>329</v>
+      </c>
+      <c r="H185" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
+      <c r="A186">
+        <v>0</v>
+      </c>
+      <c r="B186" t="s">
+        <v>10</v>
+      </c>
+      <c r="D186">
+        <v>0</v>
+      </c>
+      <c r="E186" s="2">
+        <v>43725.1836574074</v>
+      </c>
+      <c r="F186" t="s">
+        <v>200</v>
+      </c>
+      <c r="H186" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
+      <c r="A187">
+        <v>1</v>
+      </c>
+      <c r="B187" t="s">
+        <v>8</v>
+      </c>
+      <c r="D187">
+        <v>0</v>
+      </c>
+      <c r="E187" s="2">
+        <v>43725.18340277778</v>
+      </c>
+      <c r="F187" t="s">
+        <v>201</v>
+      </c>
+      <c r="H187" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
+      <c r="A188">
+        <v>0</v>
+      </c>
+      <c r="B188" t="s">
+        <v>8</v>
+      </c>
+      <c r="D188">
+        <v>0</v>
+      </c>
+      <c r="E188" s="2">
+        <v>43725.18326388889</v>
+      </c>
+      <c r="F188" t="s">
+        <v>202</v>
+      </c>
+      <c r="G188" t="s">
+        <v>330</v>
+      </c>
+      <c r="H188" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
+      <c r="A189">
+        <v>0</v>
+      </c>
+      <c r="B189" t="s">
+        <v>9</v>
+      </c>
+      <c r="D189">
+        <v>0</v>
+      </c>
+      <c r="E189" s="2">
+        <v>43725.18320601852</v>
+      </c>
+      <c r="F189" t="s">
+        <v>203</v>
+      </c>
+      <c r="G189" t="s">
+        <v>331</v>
+      </c>
+      <c r="H189" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
+      <c r="A190">
+        <v>0</v>
+      </c>
+      <c r="B190" t="s">
+        <v>8</v>
+      </c>
+      <c r="D190">
+        <v>0</v>
+      </c>
+      <c r="E190" s="2">
+        <v>43725.1827662037</v>
+      </c>
+      <c r="F190" t="s">
+        <v>204</v>
+      </c>
+      <c r="G190" t="s">
+        <v>221</v>
+      </c>
+      <c r="H190" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
+      <c r="A191">
+        <v>0</v>
+      </c>
+      <c r="B191" t="s">
+        <v>8</v>
+      </c>
+      <c r="D191">
+        <v>0</v>
+      </c>
+      <c r="E191" s="2">
+        <v>43725.18270833333</v>
+      </c>
+      <c r="F191" t="s">
+        <v>205</v>
+      </c>
+      <c r="G191" t="s">
+        <v>332</v>
+      </c>
+      <c r="H191" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
+      <c r="A192">
+        <v>0</v>
+      </c>
+      <c r="B192" t="s">
+        <v>8</v>
+      </c>
+      <c r="D192">
+        <v>0</v>
+      </c>
+      <c r="E192" s="2">
+        <v>43725.18188657407</v>
+      </c>
+      <c r="F192" t="s">
+        <v>206</v>
+      </c>
+      <c r="G192" t="s">
+        <v>333</v>
+      </c>
+      <c r="H192" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
+      <c r="A193">
+        <v>0</v>
+      </c>
+      <c r="B193" t="s">
+        <v>8</v>
+      </c>
+      <c r="D193">
+        <v>0</v>
+      </c>
+      <c r="E193" s="2">
+        <v>43725.18185185185</v>
+      </c>
+      <c r="F193" t="s">
+        <v>207</v>
+      </c>
+      <c r="G193" t="s">
+        <v>334</v>
+      </c>
+      <c r="H193" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
+      <c r="A194">
+        <v>1</v>
+      </c>
+      <c r="B194" t="s">
+        <v>8</v>
+      </c>
+      <c r="D194">
+        <v>0</v>
+      </c>
+      <c r="E194" s="2">
+        <v>43725.18170138889</v>
+      </c>
+      <c r="F194" t="s">
+        <v>208</v>
+      </c>
+      <c r="G194" t="s">
+        <v>335</v>
+      </c>
+      <c r="H194" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
+      <c r="A195">
+        <v>4</v>
+      </c>
+      <c r="B195" t="s">
+        <v>8</v>
+      </c>
+      <c r="D195">
+        <v>0</v>
+      </c>
+      <c r="E195" s="2">
+        <v>43725.18135416666</v>
+      </c>
+      <c r="F195" t="s">
+        <v>209</v>
+      </c>
+      <c r="G195" t="s">
+        <v>336</v>
+      </c>
+      <c r="H195" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
+      <c r="A196">
+        <v>0</v>
+      </c>
+      <c r="B196" t="s">
+        <v>10</v>
+      </c>
+      <c r="D196">
+        <v>0</v>
+      </c>
+      <c r="E196" s="2">
+        <v>43725.18077546296</v>
+      </c>
+      <c r="F196" t="s">
+        <v>210</v>
+      </c>
+      <c r="H196" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
+      <c r="A197">
+        <v>0</v>
+      </c>
+      <c r="B197" t="s">
+        <v>10</v>
+      </c>
+      <c r="D197">
+        <v>0</v>
+      </c>
+      <c r="E197" s="2">
+        <v>43725.180625</v>
+      </c>
+      <c r="F197" t="s">
+        <v>211</v>
+      </c>
+      <c r="H197" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
+      <c r="A198">
+        <v>6</v>
+      </c>
+      <c r="B198" t="s">
+        <v>8</v>
+      </c>
+      <c r="D198">
+        <v>12</v>
+      </c>
+      <c r="E198" s="2">
+        <v>43725.18060185185</v>
+      </c>
+      <c r="F198" t="s">
+        <v>212</v>
+      </c>
+      <c r="G198" t="s">
+        <v>337</v>
+      </c>
+      <c r="H198" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
+      <c r="A199">
+        <v>1</v>
+      </c>
+      <c r="B199" t="s">
+        <v>9</v>
+      </c>
+      <c r="D199">
+        <v>0</v>
+      </c>
+      <c r="E199" s="2">
+        <v>43725.1802662037</v>
+      </c>
+      <c r="F199" t="s">
+        <v>213</v>
+      </c>
+      <c r="H199" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
+      <c r="A200">
+        <v>0</v>
+      </c>
+      <c r="B200" t="s">
+        <v>8</v>
+      </c>
+      <c r="D200">
+        <v>0</v>
+      </c>
+      <c r="E200" s="2">
+        <v>43725.1802662037</v>
+      </c>
+      <c r="F200" t="s">
+        <v>214</v>
+      </c>
+      <c r="G200" t="s">
+        <v>229</v>
+      </c>
+      <c r="H200" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8">
+      <c r="A201">
+        <v>0</v>
+      </c>
+      <c r="B201" t="s">
+        <v>8</v>
+      </c>
+      <c r="D201">
+        <v>0</v>
+      </c>
+      <c r="E201" s="2">
+        <v>43725.18013888889</v>
+      </c>
+      <c r="F201" t="s">
+        <v>215</v>
+      </c>
+      <c r="G201" t="s">
+        <v>243</v>
+      </c>
+      <c r="H201" t="s">
+        <v>526</v>
       </c>
     </row>
   </sheetData>

--- a/DataBase.xlsx
+++ b/DataBase.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="606">
   <si>
     <t>Favorite Count</t>
   </si>
@@ -62,6 +62,15 @@
   </si>
   <si>
     <t>Facebook</t>
+  </si>
+  <si>
+    <t>Hootsuite Inc.</t>
+  </si>
+  <si>
+    <t>mLabs - Gestão de Redes Sociais</t>
+  </si>
+  <si>
+    <t>Instagram</t>
   </si>
   <si>
     <t>@damadeferroofic depressão é uma doença dama, muito intimo, que não impede de termos brio, respeito, simpatia, educação..
@@ -734,6 +743,110 @@
     <t>conheci 2 meninas q passa pelo msm que eu passo depressão e solidão msm estando com vários ao lado</t>
   </si>
   <si>
+    <t>@laauraott eu já conversei c td mundo do trabalho sobre essa minha dificuldade pelo mix depressão + ansiedade e eles são bem compreensivos
+óbvio que eu me esforço mto p evitar isso, mas eles entendem q tenho épocas e épocas
+é foda meu anjo, espero q passe, tu é forte!!</t>
+  </si>
+  <si>
+    <t>depressão não é falta de deus colega</t>
+  </si>
+  <si>
+    <t>a depressão é uma doença extremamente comum, mas, infelizmente, dois terços dos pacientes afetados não são tratados adequadamente pois não têm a doença diagnosticada ou não conseguem ajuda médica. leia mais em #boasaúde - https://t.co/7rkmfeceh3 https://t.co/nuwfyafk4v</t>
+  </si>
+  <si>
+    <t>depressão pós prova de física 🤦🏼‍♀️</t>
+  </si>
+  <si>
+    <t>é mãe foi tudo pela senhora, por todas as noites em que te vi chorar e não sabia como ajudar, por todas as vezes que te vi deitada sem vontade de viver então espero te dar muito mais orgulho e te tirar dessa depressão e juro parar de ir ingrato te amo rainha enfim formado 🙌🏾🇧🇷⚓️ https://t.co/7eipboh9kb</t>
+  </si>
+  <si>
+    <t>gente tô puta e isto alguém tira o celular da minha mão que eu vou soltar uma web bomba de depressao nesse zipzop to flaando srrio</t>
+  </si>
+  <si>
+    <t>depressão não é só em setembro não heim ...</t>
+  </si>
+  <si>
+    <t>“pica depressao”
+kkkkkkkkkkkkkkkkkkkk jesus o yan falou isso ontem e eu só entendi agora</t>
+  </si>
+  <si>
+    <t>@lolakjkk mentira???kkkkkkkkkk mano, o sertralina é um dos mais leves mas parece que qualquer ansiolítico é pior que os da depressão</t>
+  </si>
+  <si>
+    <t>elas são exatamente o tipinho de gente que fala fala sobre depressão e suicídio mas na primeira oportunidade debocham do colega que tem</t>
+  </si>
+  <si>
+    <t>hoje meu dia foi legal, professora suspeita que eu tô com depressão, quase chorei 5x, bom dia</t>
+  </si>
+  <si>
+    <t>vai viver com depressão e ansiedade caralho . odeio isso</t>
+  </si>
+  <si>
+    <t>as pessoas tem que entender q depressão nao é drama. o mundo precisa entender q depressão nao é drama, uma menina de 10 anos, 10 anos gnt se matou por depressão, q mundo é esse mds https://t.co/aye72byz6e</t>
+  </si>
+  <si>
+    <t>minha mãe tá com infeção no ruim  
+tá com depressão e eu me sinto uma inútil pq nao consigo ajuda ela</t>
+  </si>
+  <si>
+    <t>várias coisas são terríveis na depressão mas me sentir culpada quando estou nas minhas crises é a pior parte sem dúvidas</t>
+  </si>
+  <si>
+    <t>jornalista @fabricioviana se emociona ao falar do irmão que suicidou-se. "#setembroamarelo: não basta apenas conversar!" assista: https://t.co/vasuuu8evk :-) #jornalista #blogueiro #videonovo #novovideo #depressao #saudemental #valorizeavida #prevençãoaosuicídio #youtubebrasil https://t.co/p8k7zuqykn</t>
+  </si>
+  <si>
+    <t>a busca pelo emprego mexe também com as doenças psíquicas: ansiedade, depressão e síndrome do pânico. sorte e pensamento positivo para todos. #sp1</t>
+  </si>
+  <si>
+    <t>@cristhianonav @gutolage @bicagaloforte @crukeiro demais , né? to achando que o índice de depressão vai aumentar demais qdo as obras começarem. esse coitado aí está se roendo por dentro. tá tisti, fica tisti não!!! hahahahahahhahahaha</t>
+  </si>
+  <si>
+    <t>@nirvanadesa vc me animou super com isso! só vem, depressão! kkkkk</t>
+  </si>
+  <si>
+    <t>meu deus gente uma criança de 10 anos
+10 anos
+e vcs ainda acham q depressão é brincadeira https://t.co/rkoisaghat</t>
+  </si>
+  <si>
+    <t>só queria um video novo do diva depressão hoje pq to triste pacas</t>
+  </si>
+  <si>
+    <t>vlw chifruda kk — se ta magra ta passando fome se ta gorda ta comendo de mais se ta quietinha ta com depressão(fogo no cu como diz vocês) se tá namorando é chifruda se ta solteira e encalhada ou puta, ate quando vocês vão ficar se… https://t.co/iog24frvxu</t>
+  </si>
+  <si>
+    <t>mano minha tia tá com depressão e eu não sei como ajudar 🤦🏽‍♂️💔</t>
+  </si>
+  <si>
+    <t>mais um dia no ensino médio e eu só quero a formatura, pqp eu não aguento mais esse povo dizendo que tal pessoa tem depressão por culpa dela, mano, n dá
+e o pior é os mente fechada
+pqp vontade de esfregar a cara no asfalto</t>
+  </si>
+  <si>
+    <t>ai gente amo tanto minha mãe mas ela sempre vem com um discurso de que só tem depressão quem quer, que a pessoa precisa se ajudar e blablabla e isso me deixa bem irritado pq ela acompanhou todo meu processo e mesmo assim fica nessa</t>
+  </si>
+  <si>
+    <t>update talvez tem terapia que resolva essa depressão sim</t>
+  </si>
+  <si>
+    <t>foi mt conflituoso sempre a minha relação com precisar de medicação, até o momento em que eu tive a recaída e pude ver que a química do meu cérebro afetada pela depressão não ia se ajustar sozinha, se a gnt acha ok tomar remédio pra qq coisa, pq não pra isso?</t>
+  </si>
+  <si>
+    <t>mucc cura a minha depressão. já sinto a energia voltando.</t>
+  </si>
+  <si>
+    <t>depressão não tem idade, tamanho,nem cor nem o caralho que for. gente,eu tô acabada,uma criança de 10 anos se suicidou 😭 https://t.co/pqosukyxsu</t>
+  </si>
+  <si>
+    <t>meu deus... uma pessoa se jogou do 4 andar da fibra!! mn, sério depressão não é besteira, nem algo simples e a pessoa não consegue ela msm tratar como todos pensam, é necessário atendimento médico e incentivos! eu to mt triste q esta se tornando nrml toda essa dor.</t>
+  </si>
+  <si>
+    <t>segundo pesquisas, o sentimento de solidão pode estar diretamente ligado ao desenvolvimento da depressão. por isso, no post de hoje falaremos mais sobre essa reação emocional que pode levar uma pessoa a cometer… https://t.co/im1pfbxabq</t>
+  </si>
+  <si>
+    <t>@ryckpedrinhow sim amigo... tá complicado 😕 a depressao tá matando a nossa geração 🤨</t>
+  </si>
+  <si>
     <t>Santo André-SP</t>
   </si>
   <si>
@@ -1100,6 +1213,43 @@
     <t>Bangu, Santo André 48</t>
   </si>
   <si>
+    <t>Unaí, Brasil</t>
+  </si>
+  <si>
+    <t>Paraguai</t>
+  </si>
+  <si>
+    <t>Bahia, Brasil</t>
+  </si>
+  <si>
+    <t>bxd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stormi and summer 3114 ♡
+</t>
+  </si>
+  <si>
+    <t>rj zo</t>
+  </si>
+  <si>
+    <t>Vitória, Brasil</t>
+  </si>
+  <si>
+    <t>Cabo frio</t>
+  </si>
+  <si>
+    <t>barzinho da solidão</t>
+  </si>
+  <si>
+    <t>Salto, Brasil</t>
+  </si>
+  <si>
+    <t>Curitiba, Brazil</t>
+  </si>
+  <si>
+    <t>Americana, SP</t>
+  </si>
+  <si>
     <t>NIDI🇧🇷💚💛🥛Bolsonaro</t>
   </si>
   <si>
@@ -1665,6 +1815,102 @@
   </si>
   <si>
     <t>vishdaan ¤</t>
+  </si>
+  <si>
+    <t>astroju</t>
+  </si>
+  <si>
+    <t>Mufasa</t>
+  </si>
+  <si>
+    <t>boaSaúde</t>
+  </si>
+  <si>
+    <t>Cauboia Da Rocha 🥃❣</t>
+  </si>
+  <si>
+    <t>DN</t>
+  </si>
+  <si>
+    <t>𝖒𝖞𝖗𝖗𝖍𝖆🇧🇪</t>
+  </si>
+  <si>
+    <t>𝕲𝖆𝖇𝖗𝖎𝖊𝖑 🛠</t>
+  </si>
+  <si>
+    <t>Bielle</t>
+  </si>
+  <si>
+    <t>travis jenner.</t>
+  </si>
+  <si>
+    <t>Bell tá apaixonada</t>
+  </si>
+  <si>
+    <t>Marraia gado</t>
+  </si>
+  <si>
+    <t>Kayn #GoFLA</t>
+  </si>
+  <si>
+    <t>fernanda</t>
+  </si>
+  <si>
+    <t>bea</t>
+  </si>
+  <si>
+    <t>nataliete</t>
+  </si>
+  <si>
+    <t>Blogueiro Viana 🌈</t>
+  </si>
+  <si>
+    <t>Rodrigo Moura</t>
+  </si>
+  <si>
+    <t>Cláudio Carvalho</t>
+  </si>
+  <si>
+    <t>eunah</t>
+  </si>
+  <si>
+    <t>badgal🐍</t>
+  </si>
+  <si>
+    <t>amagnun</t>
+  </si>
+  <si>
+    <t>evil angel🤬</t>
+  </si>
+  <si>
+    <t>Olhos de Águia 👀🦅</t>
+  </si>
+  <si>
+    <t>gui</t>
+  </si>
+  <si>
+    <t>pedro</t>
+  </si>
+  <si>
+    <t>profissão gostosa</t>
+  </si>
+  <si>
+    <t>Bruna 🏳️‍🌈</t>
+  </si>
+  <si>
+    <t>Liz</t>
+  </si>
+  <si>
+    <t>não sei q nome coloco, fé.</t>
+  </si>
+  <si>
+    <t>julha🤟🏽</t>
+  </si>
+  <si>
+    <t>Lumis</t>
+  </si>
+  <si>
+    <t>manuu</t>
   </si>
 </sst>
 </file>
@@ -2026,7 +2272,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H201"/>
+  <dimension ref="A1:H233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2072,13 +2318,13 @@
         <v>43725.18234953703</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>216</v>
+        <v>251</v>
       </c>
       <c r="H2" t="s">
-        <v>338</v>
+        <v>385</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2095,13 +2341,13 @@
         <v>43725.18203703704</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>217</v>
+        <v>252</v>
       </c>
       <c r="H3" t="s">
-        <v>339</v>
+        <v>386</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2118,13 +2364,13 @@
         <v>43725.25366898148</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>218</v>
+        <v>253</v>
       </c>
       <c r="H4" t="s">
-        <v>340</v>
+        <v>387</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2141,10 +2387,10 @@
         <v>43725.25326388889</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H5" t="s">
-        <v>341</v>
+        <v>388</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2161,10 +2407,10 @@
         <v>43725.25252314815</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H6" t="s">
-        <v>342</v>
+        <v>389</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2181,13 +2427,13 @@
         <v>43725.25243055556</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>219</v>
+        <v>254</v>
       </c>
       <c r="H7" t="s">
-        <v>343</v>
+        <v>390</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2204,13 +2450,13 @@
         <v>43725.25076388889</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G8" t="s">
-        <v>218</v>
+        <v>253</v>
       </c>
       <c r="H8" t="s">
-        <v>340</v>
+        <v>387</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2227,10 +2473,10 @@
         <v>43725.25539351852</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H9" t="s">
-        <v>344</v>
+        <v>391</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2247,13 +2493,13 @@
         <v>43725.25436342593</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G10" t="s">
-        <v>220</v>
+        <v>255</v>
       </c>
       <c r="H10" t="s">
-        <v>345</v>
+        <v>392</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2270,13 +2516,13 @@
         <v>43725.25574074074</v>
       </c>
       <c r="F11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G11" t="s">
-        <v>221</v>
+        <v>256</v>
       </c>
       <c r="H11" t="s">
-        <v>346</v>
+        <v>393</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2293,13 +2539,13 @@
         <v>43725.25706018518</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G12" t="s">
-        <v>222</v>
+        <v>257</v>
       </c>
       <c r="H12" t="s">
-        <v>347</v>
+        <v>394</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2316,13 +2562,13 @@
         <v>43725.25671296296</v>
       </c>
       <c r="F13" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G13" t="s">
-        <v>223</v>
+        <v>258</v>
       </c>
       <c r="H13" t="s">
-        <v>348</v>
+        <v>395</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2339,13 +2585,13 @@
         <v>43725.24888888889</v>
       </c>
       <c r="F14" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G14" t="s">
-        <v>222</v>
+        <v>257</v>
       </c>
       <c r="H14" t="s">
-        <v>347</v>
+        <v>394</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2362,13 +2608,13 @@
         <v>43725.24873842593</v>
       </c>
       <c r="F15" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
-        <v>224</v>
+        <v>259</v>
       </c>
       <c r="H15" t="s">
-        <v>349</v>
+        <v>396</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2385,10 +2631,10 @@
         <v>43725.24846064814</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H16" t="s">
-        <v>350</v>
+        <v>397</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2405,13 +2651,13 @@
         <v>43725.24784722222</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G17" t="s">
-        <v>225</v>
+        <v>260</v>
       </c>
       <c r="H17" t="s">
-        <v>351</v>
+        <v>398</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2428,13 +2674,13 @@
         <v>43725.24782407407</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G18" t="s">
-        <v>222</v>
+        <v>257</v>
       </c>
       <c r="H18" t="s">
-        <v>347</v>
+        <v>394</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2451,13 +2697,13 @@
         <v>43725.24755787037</v>
       </c>
       <c r="F19" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G19" t="s">
-        <v>226</v>
+        <v>261</v>
       </c>
       <c r="H19" t="s">
-        <v>352</v>
+        <v>399</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2474,13 +2720,13 @@
         <v>43725.24744212963</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G20" t="s">
-        <v>227</v>
+        <v>262</v>
       </c>
       <c r="H20" t="s">
-        <v>353</v>
+        <v>400</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2497,10 +2743,10 @@
         <v>43725.24517361111</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H21" t="s">
-        <v>354</v>
+        <v>401</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2517,10 +2763,10 @@
         <v>43725.24490740741</v>
       </c>
       <c r="F22" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H22" t="s">
-        <v>355</v>
+        <v>402</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2537,10 +2783,10 @@
         <v>43725.24144675926</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H23" t="s">
-        <v>356</v>
+        <v>403</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2557,13 +2803,13 @@
         <v>43725.24108796296</v>
       </c>
       <c r="F24" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G24" t="s">
-        <v>228</v>
+        <v>263</v>
       </c>
       <c r="H24" t="s">
-        <v>357</v>
+        <v>404</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2580,13 +2826,13 @@
         <v>43725.24056712963</v>
       </c>
       <c r="F25" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G25" t="s">
-        <v>229</v>
+        <v>264</v>
       </c>
       <c r="H25" t="s">
-        <v>358</v>
+        <v>405</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2603,13 +2849,13 @@
         <v>43725.24049768518</v>
       </c>
       <c r="F26" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G26" t="s">
-        <v>230</v>
+        <v>265</v>
       </c>
       <c r="H26" t="s">
-        <v>359</v>
+        <v>406</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2626,10 +2872,10 @@
         <v>43725.2393287037</v>
       </c>
       <c r="F27" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H27" t="s">
-        <v>360</v>
+        <v>407</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2646,13 +2892,13 @@
         <v>43725.23854166667</v>
       </c>
       <c r="F28" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G28" t="s">
-        <v>231</v>
+        <v>266</v>
       </c>
       <c r="H28" t="s">
-        <v>361</v>
+        <v>408</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2669,13 +2915,13 @@
         <v>43725.23665509259</v>
       </c>
       <c r="F29" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G29" t="s">
-        <v>232</v>
+        <v>267</v>
       </c>
       <c r="H29" t="s">
-        <v>362</v>
+        <v>409</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2692,13 +2938,13 @@
         <v>43725.23653935185</v>
       </c>
       <c r="F30" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G30" t="s">
-        <v>233</v>
+        <v>268</v>
       </c>
       <c r="H30" t="s">
-        <v>363</v>
+        <v>410</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2715,13 +2961,13 @@
         <v>43725.23597222222</v>
       </c>
       <c r="F31" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G31" t="s">
-        <v>229</v>
+        <v>264</v>
       </c>
       <c r="H31" t="s">
-        <v>364</v>
+        <v>411</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2738,10 +2984,10 @@
         <v>43725.23572916666</v>
       </c>
       <c r="F32" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H32" t="s">
-        <v>365</v>
+        <v>412</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2758,13 +3004,13 @@
         <v>43725.23548611111</v>
       </c>
       <c r="F33" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G33" t="s">
-        <v>234</v>
+        <v>269</v>
       </c>
       <c r="H33" t="s">
-        <v>366</v>
+        <v>413</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2781,13 +3027,13 @@
         <v>43725.23510416667</v>
       </c>
       <c r="F34" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G34" t="s">
-        <v>229</v>
+        <v>264</v>
       </c>
       <c r="H34" t="s">
-        <v>367</v>
+        <v>414</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2804,13 +3050,13 @@
         <v>43725.23508101852</v>
       </c>
       <c r="F35" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G35" t="s">
-        <v>235</v>
+        <v>270</v>
       </c>
       <c r="H35" t="s">
-        <v>368</v>
+        <v>415</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2827,13 +3073,13 @@
         <v>43725.23505787037</v>
       </c>
       <c r="F36" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G36" t="s">
-        <v>236</v>
+        <v>271</v>
       </c>
       <c r="H36" t="s">
-        <v>369</v>
+        <v>416</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2850,13 +3096,13 @@
         <v>43725.23501157408</v>
       </c>
       <c r="F37" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G37" t="s">
-        <v>237</v>
+        <v>272</v>
       </c>
       <c r="H37" t="s">
-        <v>370</v>
+        <v>417</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2873,13 +3119,13 @@
         <v>43725.23491898148</v>
       </c>
       <c r="F38" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G38" t="s">
-        <v>238</v>
+        <v>273</v>
       </c>
       <c r="H38" t="s">
-        <v>371</v>
+        <v>418</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2896,10 +3142,10 @@
         <v>43725.23461805555</v>
       </c>
       <c r="F39" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H39" t="s">
-        <v>372</v>
+        <v>419</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2916,13 +3162,13 @@
         <v>43725.2311574074</v>
       </c>
       <c r="F40" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G40" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="H40" t="s">
-        <v>373</v>
+        <v>420</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2939,13 +3185,13 @@
         <v>43725.23049768519</v>
       </c>
       <c r="F41" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G41" t="s">
-        <v>240</v>
+        <v>275</v>
       </c>
       <c r="H41" t="s">
-        <v>374</v>
+        <v>421</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2962,13 +3208,13 @@
         <v>43725.2300925926</v>
       </c>
       <c r="F42" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G42" t="s">
-        <v>241</v>
+        <v>276</v>
       </c>
       <c r="H42" t="s">
-        <v>375</v>
+        <v>422</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2985,13 +3231,13 @@
         <v>43725.22961805556</v>
       </c>
       <c r="F43" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G43" t="s">
-        <v>242</v>
+        <v>277</v>
       </c>
       <c r="H43" t="s">
-        <v>376</v>
+        <v>423</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3008,13 +3254,13 @@
         <v>43725.22863425926</v>
       </c>
       <c r="F44" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G44" t="s">
-        <v>243</v>
+        <v>278</v>
       </c>
       <c r="H44" t="s">
-        <v>377</v>
+        <v>424</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3031,13 +3277,13 @@
         <v>43725.22813657407</v>
       </c>
       <c r="F45" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G45" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="H45" t="s">
-        <v>378</v>
+        <v>425</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3054,10 +3300,10 @@
         <v>43725.22734953704</v>
       </c>
       <c r="F46" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H46" t="s">
-        <v>379</v>
+        <v>426</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3074,13 +3320,13 @@
         <v>43725.22731481482</v>
       </c>
       <c r="F47" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G47" t="s">
-        <v>245</v>
+        <v>280</v>
       </c>
       <c r="H47" t="s">
-        <v>380</v>
+        <v>427</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3097,13 +3343,13 @@
         <v>43725.22668981482</v>
       </c>
       <c r="F48" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G48" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
       <c r="H48" t="s">
-        <v>381</v>
+        <v>428</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3120,10 +3366,10 @@
         <v>43725.2266087963</v>
       </c>
       <c r="F49" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H49" t="s">
-        <v>382</v>
+        <v>429</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3140,10 +3386,10 @@
         <v>43725.22583333333</v>
       </c>
       <c r="F50" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H50" t="s">
-        <v>383</v>
+        <v>430</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3160,10 +3406,10 @@
         <v>43725.22561342592</v>
       </c>
       <c r="F51" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H51" t="s">
-        <v>384</v>
+        <v>431</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3180,10 +3426,10 @@
         <v>43725.2253587963</v>
       </c>
       <c r="F52" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H52" t="s">
-        <v>385</v>
+        <v>432</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3200,13 +3446,13 @@
         <v>43725.22515046296</v>
       </c>
       <c r="F53" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G53" t="s">
-        <v>247</v>
+        <v>282</v>
       </c>
       <c r="H53" t="s">
-        <v>386</v>
+        <v>433</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3223,13 +3469,13 @@
         <v>43725.26079861111</v>
       </c>
       <c r="F54" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G54" t="s">
-        <v>248</v>
+        <v>283</v>
       </c>
       <c r="H54" t="s">
-        <v>387</v>
+        <v>434</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3246,13 +3492,13 @@
         <v>43725.25957175926</v>
       </c>
       <c r="F55" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G55" t="s">
-        <v>249</v>
+        <v>284</v>
       </c>
       <c r="H55" t="s">
-        <v>388</v>
+        <v>435</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3269,13 +3515,13 @@
         <v>43725.25954861111</v>
       </c>
       <c r="F56" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G56" t="s">
-        <v>250</v>
+        <v>285</v>
       </c>
       <c r="H56" t="s">
-        <v>389</v>
+        <v>436</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3292,13 +3538,13 @@
         <v>43725.25915509259</v>
       </c>
       <c r="F57" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G57" t="s">
-        <v>251</v>
+        <v>286</v>
       </c>
       <c r="H57" t="s">
-        <v>390</v>
+        <v>437</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3315,13 +3561,13 @@
         <v>43725.25903935185</v>
       </c>
       <c r="F58" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G58" t="s">
-        <v>252</v>
+        <v>287</v>
       </c>
       <c r="H58" t="s">
-        <v>391</v>
+        <v>438</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3338,13 +3584,13 @@
         <v>43725.26378472222</v>
       </c>
       <c r="F59" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G59" t="s">
-        <v>253</v>
+        <v>288</v>
       </c>
       <c r="H59" t="s">
-        <v>392</v>
+        <v>439</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3361,13 +3607,13 @@
         <v>43725.26263888889</v>
       </c>
       <c r="F60" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G60" t="s">
-        <v>254</v>
+        <v>289</v>
       </c>
       <c r="H60" t="s">
-        <v>393</v>
+        <v>440</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3384,13 +3630,13 @@
         <v>43725.26190972222</v>
       </c>
       <c r="F61" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G61" t="s">
-        <v>255</v>
+        <v>290</v>
       </c>
       <c r="H61" t="s">
-        <v>394</v>
+        <v>441</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3407,13 +3653,13 @@
         <v>43725.26136574074</v>
       </c>
       <c r="F62" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G62" t="s">
-        <v>256</v>
+        <v>291</v>
       </c>
       <c r="H62" t="s">
-        <v>395</v>
+        <v>442</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3430,13 +3676,13 @@
         <v>43725.26135416667</v>
       </c>
       <c r="F63" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G63" t="s">
-        <v>229</v>
+        <v>264</v>
       </c>
       <c r="H63" t="s">
-        <v>396</v>
+        <v>443</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3453,10 +3699,10 @@
         <v>43725.22495370371</v>
       </c>
       <c r="F64" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H64" t="s">
-        <v>397</v>
+        <v>444</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3473,13 +3719,13 @@
         <v>43725.22479166667</v>
       </c>
       <c r="F65" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G65" t="s">
-        <v>257</v>
+        <v>292</v>
       </c>
       <c r="H65" t="s">
-        <v>398</v>
+        <v>445</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3496,13 +3742,13 @@
         <v>43725.22320601852</v>
       </c>
       <c r="F66" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G66" t="s">
-        <v>258</v>
+        <v>293</v>
       </c>
       <c r="H66" t="s">
-        <v>399</v>
+        <v>446</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3519,13 +3765,13 @@
         <v>43725.22282407407</v>
       </c>
       <c r="F67" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G67" t="s">
-        <v>259</v>
+        <v>294</v>
       </c>
       <c r="H67" t="s">
-        <v>400</v>
+        <v>447</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3542,13 +3788,13 @@
         <v>43725.22270833333</v>
       </c>
       <c r="F68" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G68" t="s">
-        <v>260</v>
+        <v>295</v>
       </c>
       <c r="H68" t="s">
-        <v>401</v>
+        <v>448</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3565,13 +3811,13 @@
         <v>43725.22197916666</v>
       </c>
       <c r="F69" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G69" t="s">
-        <v>261</v>
+        <v>296</v>
       </c>
       <c r="H69" t="s">
-        <v>402</v>
+        <v>449</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3588,13 +3834,13 @@
         <v>43725.22185185185</v>
       </c>
       <c r="F70" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G70" t="s">
-        <v>262</v>
+        <v>297</v>
       </c>
       <c r="H70" t="s">
-        <v>403</v>
+        <v>450</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3611,13 +3857,13 @@
         <v>43725.22163194444</v>
       </c>
       <c r="F71" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G71" t="s">
-        <v>263</v>
+        <v>298</v>
       </c>
       <c r="H71" t="s">
-        <v>404</v>
+        <v>451</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3634,10 +3880,10 @@
         <v>43725.220625</v>
       </c>
       <c r="F72" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H72" t="s">
-        <v>405</v>
+        <v>452</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3654,13 +3900,13 @@
         <v>43725.22039351852</v>
       </c>
       <c r="F73" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G73" t="s">
-        <v>225</v>
+        <v>260</v>
       </c>
       <c r="H73" t="s">
-        <v>406</v>
+        <v>453</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3677,13 +3923,13 @@
         <v>43725.22038194445</v>
       </c>
       <c r="F74" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G74" t="s">
-        <v>264</v>
+        <v>299</v>
       </c>
       <c r="H74" t="s">
-        <v>407</v>
+        <v>454</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3700,10 +3946,10 @@
         <v>43725.21958333333</v>
       </c>
       <c r="F75" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H75" t="s">
-        <v>408</v>
+        <v>455</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3720,13 +3966,13 @@
         <v>43725.21953703704</v>
       </c>
       <c r="F76" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G76" t="s">
-        <v>265</v>
+        <v>300</v>
       </c>
       <c r="H76" t="s">
-        <v>409</v>
+        <v>456</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3743,13 +3989,13 @@
         <v>43725.21950231482</v>
       </c>
       <c r="F77" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G77" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
       <c r="H77" t="s">
-        <v>410</v>
+        <v>457</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3766,10 +4012,10 @@
         <v>43725.21947916667</v>
       </c>
       <c r="F78" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H78" t="s">
-        <v>411</v>
+        <v>458</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3786,10 +4032,10 @@
         <v>43725.21946759259</v>
       </c>
       <c r="F79" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H79" t="s">
-        <v>411</v>
+        <v>458</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3806,13 +4052,13 @@
         <v>43725.21931712963</v>
       </c>
       <c r="F80" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G80" t="s">
-        <v>267</v>
+        <v>302</v>
       </c>
       <c r="H80" t="s">
-        <v>412</v>
+        <v>459</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3829,13 +4075,13 @@
         <v>43725.21865740741</v>
       </c>
       <c r="F81" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G81" t="s">
-        <v>268</v>
+        <v>303</v>
       </c>
       <c r="H81" t="s">
-        <v>413</v>
+        <v>460</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3852,13 +4098,13 @@
         <v>43725.21827546296</v>
       </c>
       <c r="F82" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G82" t="s">
-        <v>269</v>
+        <v>304</v>
       </c>
       <c r="H82" t="s">
-        <v>414</v>
+        <v>461</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3875,13 +4121,13 @@
         <v>43725.21799768518</v>
       </c>
       <c r="F83" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G83" t="s">
-        <v>270</v>
+        <v>305</v>
       </c>
       <c r="H83" t="s">
-        <v>415</v>
+        <v>462</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3898,13 +4144,13 @@
         <v>43725.21753472222</v>
       </c>
       <c r="F84" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G84" t="s">
-        <v>271</v>
+        <v>306</v>
       </c>
       <c r="H84" t="s">
-        <v>416</v>
+        <v>463</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3921,13 +4167,13 @@
         <v>43725.2175</v>
       </c>
       <c r="F85" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G85" t="s">
-        <v>272</v>
+        <v>307</v>
       </c>
       <c r="H85" t="s">
-        <v>417</v>
+        <v>464</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3944,10 +4190,10 @@
         <v>43725.2171875</v>
       </c>
       <c r="F86" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H86" t="s">
-        <v>418</v>
+        <v>465</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3964,13 +4210,13 @@
         <v>43725.21681712963</v>
       </c>
       <c r="F87" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G87" t="s">
-        <v>273</v>
+        <v>308</v>
       </c>
       <c r="H87" t="s">
-        <v>419</v>
+        <v>466</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3987,13 +4233,13 @@
         <v>43725.21670138889</v>
       </c>
       <c r="F88" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G88" t="s">
-        <v>274</v>
+        <v>309</v>
       </c>
       <c r="H88" t="s">
-        <v>420</v>
+        <v>467</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4010,10 +4256,10 @@
         <v>43725.21650462963</v>
       </c>
       <c r="F89" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="H89" t="s">
-        <v>421</v>
+        <v>468</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4030,13 +4276,13 @@
         <v>43725.21561342593</v>
       </c>
       <c r="F90" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G90" t="s">
-        <v>275</v>
+        <v>310</v>
       </c>
       <c r="H90" t="s">
-        <v>422</v>
+        <v>469</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4053,10 +4299,10 @@
         <v>43725.27184027778</v>
       </c>
       <c r="F91" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H91" t="s">
-        <v>423</v>
+        <v>470</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4073,13 +4319,13 @@
         <v>43725.26900462963</v>
       </c>
       <c r="F92" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G92" t="s">
-        <v>276</v>
+        <v>311</v>
       </c>
       <c r="H92" t="s">
-        <v>424</v>
+        <v>471</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4096,13 +4342,13 @@
         <v>43725.2684375</v>
       </c>
       <c r="F93" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G93" t="s">
-        <v>277</v>
+        <v>312</v>
       </c>
       <c r="H93" t="s">
-        <v>425</v>
+        <v>472</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4119,13 +4365,13 @@
         <v>43725.26789351852</v>
       </c>
       <c r="F94" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G94" t="s">
-        <v>278</v>
+        <v>313</v>
       </c>
       <c r="H94" t="s">
-        <v>426</v>
+        <v>473</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4142,13 +4388,13 @@
         <v>43725.26665509259</v>
       </c>
       <c r="F95" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G95" t="s">
-        <v>279</v>
+        <v>314</v>
       </c>
       <c r="H95" t="s">
-        <v>427</v>
+        <v>474</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4165,13 +4411,13 @@
         <v>43725.27789351852</v>
       </c>
       <c r="F96" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G96" t="s">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="H96" t="s">
-        <v>428</v>
+        <v>475</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4188,13 +4434,13 @@
         <v>43725.27681712963</v>
       </c>
       <c r="F97" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G97" t="s">
-        <v>281</v>
+        <v>316</v>
       </c>
       <c r="H97" t="s">
-        <v>429</v>
+        <v>476</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4211,13 +4457,13 @@
         <v>43725.27645833333</v>
       </c>
       <c r="F98" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G98" t="s">
-        <v>282</v>
+        <v>317</v>
       </c>
       <c r="H98" t="s">
-        <v>430</v>
+        <v>477</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4234,13 +4480,13 @@
         <v>43725.27609953703</v>
       </c>
       <c r="F99" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G99" t="s">
-        <v>229</v>
+        <v>264</v>
       </c>
       <c r="H99" t="s">
-        <v>431</v>
+        <v>478</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4257,13 +4503,13 @@
         <v>43725.27554398148</v>
       </c>
       <c r="F100" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G100" t="s">
-        <v>229</v>
+        <v>264</v>
       </c>
       <c r="H100" t="s">
-        <v>432</v>
+        <v>479</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4280,13 +4526,13 @@
         <v>43725.27827546297</v>
       </c>
       <c r="F101" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G101" t="s">
-        <v>283</v>
+        <v>318</v>
       </c>
       <c r="H101" t="s">
-        <v>433</v>
+        <v>480</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4303,13 +4549,13 @@
         <v>43725.28068287037</v>
       </c>
       <c r="F102" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G102" t="s">
-        <v>284</v>
+        <v>319</v>
       </c>
       <c r="H102" t="s">
-        <v>434</v>
+        <v>481</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4326,13 +4572,13 @@
         <v>43725.28021990741</v>
       </c>
       <c r="F103" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G103" t="s">
-        <v>285</v>
+        <v>320</v>
       </c>
       <c r="H103" t="s">
-        <v>435</v>
+        <v>482</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4349,13 +4595,13 @@
         <v>43725.21560185185</v>
       </c>
       <c r="F104" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G104" t="s">
-        <v>275</v>
+        <v>310</v>
       </c>
       <c r="H104" t="s">
-        <v>422</v>
+        <v>469</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4372,13 +4618,13 @@
         <v>43725.2147337963</v>
       </c>
       <c r="F105" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G105" t="s">
-        <v>222</v>
+        <v>257</v>
       </c>
       <c r="H105" t="s">
-        <v>436</v>
+        <v>483</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4395,13 +4641,13 @@
         <v>43725.21458333333</v>
       </c>
       <c r="F106" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="G106" t="s">
-        <v>286</v>
+        <v>321</v>
       </c>
       <c r="H106" t="s">
-        <v>437</v>
+        <v>484</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4418,13 +4664,13 @@
         <v>43725.21348379629</v>
       </c>
       <c r="F107" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G107" t="s">
-        <v>229</v>
+        <v>264</v>
       </c>
       <c r="H107" t="s">
-        <v>438</v>
+        <v>485</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4441,13 +4687,13 @@
         <v>43725.21326388889</v>
       </c>
       <c r="F108" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G108" t="s">
-        <v>287</v>
+        <v>322</v>
       </c>
       <c r="H108" t="s">
-        <v>439</v>
+        <v>486</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4464,13 +4710,13 @@
         <v>43725.21306712963</v>
       </c>
       <c r="F109" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G109" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="H109" t="s">
-        <v>440</v>
+        <v>487</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4487,13 +4733,13 @@
         <v>43725.21280092592</v>
       </c>
       <c r="F110" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G110" t="s">
-        <v>289</v>
+        <v>324</v>
       </c>
       <c r="H110" t="s">
-        <v>441</v>
+        <v>488</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4510,10 +4756,10 @@
         <v>43725.21203703704</v>
       </c>
       <c r="F111" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H111" t="s">
-        <v>442</v>
+        <v>489</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4530,13 +4776,13 @@
         <v>43725.21199074074</v>
       </c>
       <c r="F112" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G112" t="s">
-        <v>290</v>
+        <v>325</v>
       </c>
       <c r="H112" t="s">
-        <v>443</v>
+        <v>490</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4553,13 +4799,13 @@
         <v>43725.21149305555</v>
       </c>
       <c r="F113" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G113" t="s">
-        <v>291</v>
+        <v>326</v>
       </c>
       <c r="H113" t="s">
-        <v>444</v>
+        <v>491</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4576,10 +4822,10 @@
         <v>43725.21082175926</v>
       </c>
       <c r="F114" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="H114" t="s">
-        <v>445</v>
+        <v>492</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4596,13 +4842,13 @@
         <v>43725.21037037037</v>
       </c>
       <c r="F115" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G115" t="s">
-        <v>292</v>
+        <v>327</v>
       </c>
       <c r="H115" t="s">
-        <v>446</v>
+        <v>493</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4619,13 +4865,13 @@
         <v>43725.21</v>
       </c>
       <c r="F116" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G116" t="s">
-        <v>293</v>
+        <v>328</v>
       </c>
       <c r="H116" t="s">
-        <v>447</v>
+        <v>494</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4642,13 +4888,13 @@
         <v>43725.20994212963</v>
       </c>
       <c r="F117" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G117" t="s">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="H117" t="s">
-        <v>448</v>
+        <v>495</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4665,13 +4911,13 @@
         <v>43725.20961805555</v>
       </c>
       <c r="F118" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G118" t="s">
-        <v>295</v>
+        <v>330</v>
       </c>
       <c r="H118" t="s">
-        <v>449</v>
+        <v>496</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4688,13 +4934,13 @@
         <v>43725.20947916667</v>
       </c>
       <c r="F119" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G119" t="s">
-        <v>296</v>
+        <v>331</v>
       </c>
       <c r="H119" t="s">
-        <v>450</v>
+        <v>497</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4711,13 +4957,13 @@
         <v>43725.20940972222</v>
       </c>
       <c r="F120" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="G120" t="s">
-        <v>297</v>
+        <v>332</v>
       </c>
       <c r="H120" t="s">
-        <v>451</v>
+        <v>498</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4734,13 +4980,13 @@
         <v>43725.20920138889</v>
       </c>
       <c r="F121" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G121" t="s">
-        <v>298</v>
+        <v>333</v>
       </c>
       <c r="H121" t="s">
-        <v>452</v>
+        <v>499</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4757,13 +5003,13 @@
         <v>43725.20894675926</v>
       </c>
       <c r="F122" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G122" t="s">
-        <v>299</v>
+        <v>334</v>
       </c>
       <c r="H122" t="s">
-        <v>453</v>
+        <v>500</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4780,13 +5026,13 @@
         <v>43725.20856481481</v>
       </c>
       <c r="F123" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G123" t="s">
-        <v>300</v>
+        <v>335</v>
       </c>
       <c r="H123" t="s">
-        <v>454</v>
+        <v>501</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4803,13 +5049,13 @@
         <v>43725.2080787037</v>
       </c>
       <c r="F124" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G124" t="s">
-        <v>258</v>
+        <v>293</v>
       </c>
       <c r="H124" t="s">
-        <v>455</v>
+        <v>502</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4826,10 +5072,10 @@
         <v>43725.20758101852</v>
       </c>
       <c r="F125" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H125" t="s">
-        <v>456</v>
+        <v>503</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4846,13 +5092,13 @@
         <v>43725.2075462963</v>
       </c>
       <c r="F126" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G126" t="s">
-        <v>301</v>
+        <v>336</v>
       </c>
       <c r="H126" t="s">
-        <v>457</v>
+        <v>504</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4869,10 +5115,10 @@
         <v>43725.20751157407</v>
       </c>
       <c r="F127" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H127" t="s">
-        <v>458</v>
+        <v>505</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4889,13 +5135,13 @@
         <v>43725.20689814815</v>
       </c>
       <c r="F128" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G128" t="s">
-        <v>229</v>
+        <v>264</v>
       </c>
       <c r="H128" t="s">
-        <v>459</v>
+        <v>506</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4912,13 +5158,13 @@
         <v>43725.20640046296</v>
       </c>
       <c r="F129" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="G129" t="s">
-        <v>302</v>
+        <v>337</v>
       </c>
       <c r="H129" t="s">
-        <v>460</v>
+        <v>507</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4935,13 +5181,13 @@
         <v>43725.20622685185</v>
       </c>
       <c r="F130" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="G130" t="s">
-        <v>303</v>
+        <v>338</v>
       </c>
       <c r="H130" t="s">
-        <v>461</v>
+        <v>508</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4958,13 +5204,13 @@
         <v>43725.20587962963</v>
       </c>
       <c r="F131" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G131" t="s">
-        <v>304</v>
+        <v>339</v>
       </c>
       <c r="H131" t="s">
-        <v>462</v>
+        <v>509</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4981,13 +5227,13 @@
         <v>43725.20549768519</v>
       </c>
       <c r="F132" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="G132" t="s">
-        <v>305</v>
+        <v>340</v>
       </c>
       <c r="H132" t="s">
-        <v>463</v>
+        <v>510</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5004,13 +5250,13 @@
         <v>43725.20516203704</v>
       </c>
       <c r="F133" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G133" t="s">
-        <v>260</v>
+        <v>295</v>
       </c>
       <c r="H133" t="s">
-        <v>464</v>
+        <v>511</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5027,10 +5273,10 @@
         <v>43725.20491898148</v>
       </c>
       <c r="F134" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="H134" t="s">
-        <v>465</v>
+        <v>512</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5047,10 +5293,10 @@
         <v>43725.20287037037</v>
       </c>
       <c r="F135" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H135" t="s">
-        <v>466</v>
+        <v>513</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5067,10 +5313,10 @@
         <v>43725.20258101852</v>
       </c>
       <c r="F136" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H136" t="s">
-        <v>454</v>
+        <v>501</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5087,13 +5333,13 @@
         <v>43725.20246527778</v>
       </c>
       <c r="F137" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G137" t="s">
-        <v>306</v>
+        <v>341</v>
       </c>
       <c r="H137" t="s">
-        <v>467</v>
+        <v>514</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5110,13 +5356,13 @@
         <v>43725.20228009259</v>
       </c>
       <c r="F138" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="G138" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="H138" t="s">
-        <v>468</v>
+        <v>515</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5133,13 +5379,13 @@
         <v>43725.20210648148</v>
       </c>
       <c r="F139" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G139" t="s">
-        <v>308</v>
+        <v>343</v>
       </c>
       <c r="H139" t="s">
-        <v>469</v>
+        <v>516</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5156,13 +5402,13 @@
         <v>43725.20163194444</v>
       </c>
       <c r="F140" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G140" t="s">
-        <v>309</v>
+        <v>344</v>
       </c>
       <c r="H140" t="s">
-        <v>470</v>
+        <v>517</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5179,13 +5425,13 @@
         <v>43725.20116898148</v>
       </c>
       <c r="F141" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="G141" t="s">
-        <v>310</v>
+        <v>345</v>
       </c>
       <c r="H141" t="s">
-        <v>471</v>
+        <v>518</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5202,13 +5448,13 @@
         <v>43725.20090277777</v>
       </c>
       <c r="F142" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G142" t="s">
-        <v>311</v>
+        <v>346</v>
       </c>
       <c r="H142" t="s">
-        <v>472</v>
+        <v>519</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5225,13 +5471,13 @@
         <v>43725.20078703704</v>
       </c>
       <c r="F143" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G143" t="s">
-        <v>312</v>
+        <v>347</v>
       </c>
       <c r="H143" t="s">
-        <v>473</v>
+        <v>520</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5248,13 +5494,13 @@
         <v>43725.2002662037</v>
       </c>
       <c r="F144" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="G144" t="s">
-        <v>229</v>
+        <v>264</v>
       </c>
       <c r="H144" t="s">
-        <v>474</v>
+        <v>521</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5271,13 +5517,13 @@
         <v>43725.20012731481</v>
       </c>
       <c r="F145" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="G145" t="s">
-        <v>313</v>
+        <v>348</v>
       </c>
       <c r="H145" t="s">
-        <v>475</v>
+        <v>522</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5294,13 +5540,13 @@
         <v>43725.19957175926</v>
       </c>
       <c r="F146" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="G146" t="s">
-        <v>314</v>
+        <v>349</v>
       </c>
       <c r="H146" t="s">
-        <v>476</v>
+        <v>523</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5317,10 +5563,10 @@
         <v>43725.19949074074</v>
       </c>
       <c r="F147" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="H147" t="s">
-        <v>477</v>
+        <v>524</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5337,13 +5583,13 @@
         <v>43725.19930555556</v>
       </c>
       <c r="F148" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G148" t="s">
-        <v>315</v>
+        <v>350</v>
       </c>
       <c r="H148" t="s">
-        <v>478</v>
+        <v>525</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5360,13 +5606,13 @@
         <v>43725.19877314815</v>
       </c>
       <c r="F149" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="G149" t="s">
-        <v>305</v>
+        <v>340</v>
       </c>
       <c r="H149" t="s">
-        <v>479</v>
+        <v>526</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5383,13 +5629,13 @@
         <v>43725.19746527778</v>
       </c>
       <c r="F150" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="G150" t="s">
-        <v>230</v>
+        <v>265</v>
       </c>
       <c r="H150" t="s">
-        <v>480</v>
+        <v>527</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5406,10 +5652,10 @@
         <v>43725.19724537037</v>
       </c>
       <c r="F151" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="H151" t="s">
-        <v>481</v>
+        <v>528</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5426,10 +5672,10 @@
         <v>43725.19619212963</v>
       </c>
       <c r="F152" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="H152" t="s">
-        <v>454</v>
+        <v>501</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5446,10 +5692,10 @@
         <v>43725.19545138889</v>
       </c>
       <c r="F153" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H153" t="s">
-        <v>482</v>
+        <v>529</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5466,10 +5712,10 @@
         <v>43725.19519675926</v>
       </c>
       <c r="F154" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="H154" t="s">
-        <v>483</v>
+        <v>530</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5486,13 +5732,13 @@
         <v>43725.19498842592</v>
       </c>
       <c r="F155" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G155" t="s">
-        <v>316</v>
+        <v>351</v>
       </c>
       <c r="H155" t="s">
-        <v>484</v>
+        <v>531</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5509,10 +5755,10 @@
         <v>43725.19484953704</v>
       </c>
       <c r="F156" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H156" t="s">
-        <v>485</v>
+        <v>532</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5529,13 +5775,13 @@
         <v>43725.19435185185</v>
       </c>
       <c r="F157" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G157" t="s">
-        <v>317</v>
+        <v>352</v>
       </c>
       <c r="H157" t="s">
-        <v>486</v>
+        <v>533</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5552,13 +5798,13 @@
         <v>43725.19428240741</v>
       </c>
       <c r="F158" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="G158" t="s">
-        <v>318</v>
+        <v>353</v>
       </c>
       <c r="H158" t="s">
-        <v>487</v>
+        <v>534</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5575,13 +5821,13 @@
         <v>43725.1940625</v>
       </c>
       <c r="F159" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="G159" t="s">
-        <v>229</v>
+        <v>264</v>
       </c>
       <c r="H159" t="s">
-        <v>488</v>
+        <v>535</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5598,10 +5844,10 @@
         <v>43725.19376157408</v>
       </c>
       <c r="F160" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="H160" t="s">
-        <v>489</v>
+        <v>536</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5618,10 +5864,10 @@
         <v>43725.1922337963</v>
       </c>
       <c r="F161" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="H161" t="s">
-        <v>490</v>
+        <v>537</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5638,10 +5884,10 @@
         <v>43725.19194444444</v>
       </c>
       <c r="F162" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H162" t="s">
-        <v>491</v>
+        <v>538</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5658,10 +5904,10 @@
         <v>43725.19174768519</v>
       </c>
       <c r="F163" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H163" t="s">
-        <v>489</v>
+        <v>536</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5678,13 +5924,13 @@
         <v>43725.19162037037</v>
       </c>
       <c r="F164" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="G164" t="s">
-        <v>222</v>
+        <v>257</v>
       </c>
       <c r="H164" t="s">
-        <v>492</v>
+        <v>539</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5701,10 +5947,10 @@
         <v>43725.19149305556</v>
       </c>
       <c r="F165" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H165" t="s">
-        <v>493</v>
+        <v>540</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5721,10 +5967,10 @@
         <v>43725.19074074074</v>
       </c>
       <c r="F166" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="H166" t="s">
-        <v>489</v>
+        <v>536</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5741,13 +5987,13 @@
         <v>43725.1905787037</v>
       </c>
       <c r="F167" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="G167" t="s">
-        <v>217</v>
+        <v>252</v>
       </c>
       <c r="H167" t="s">
-        <v>494</v>
+        <v>541</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5764,13 +6010,13 @@
         <v>43725.1903587963</v>
       </c>
       <c r="F168" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="G168" t="s">
-        <v>319</v>
+        <v>354</v>
       </c>
       <c r="H168" t="s">
-        <v>495</v>
+        <v>542</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5787,10 +6033,10 @@
         <v>43725.18993055556</v>
       </c>
       <c r="F169" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="H169" t="s">
-        <v>496</v>
+        <v>543</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5807,13 +6053,13 @@
         <v>43725.18988425926</v>
       </c>
       <c r="F170" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="G170" t="s">
-        <v>320</v>
+        <v>355</v>
       </c>
       <c r="H170" t="s">
-        <v>497</v>
+        <v>544</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5830,13 +6076,13 @@
         <v>43725.18958333333</v>
       </c>
       <c r="F171" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="G171" t="s">
-        <v>243</v>
+        <v>278</v>
       </c>
       <c r="H171" t="s">
-        <v>498</v>
+        <v>545</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5853,13 +6099,13 @@
         <v>43725.18953703704</v>
       </c>
       <c r="F172" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G172" t="s">
-        <v>321</v>
+        <v>356</v>
       </c>
       <c r="H172" t="s">
-        <v>499</v>
+        <v>546</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5876,13 +6122,13 @@
         <v>43725.18943287037</v>
       </c>
       <c r="F173" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="G173" t="s">
-        <v>322</v>
+        <v>357</v>
       </c>
       <c r="H173" t="s">
-        <v>500</v>
+        <v>547</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5899,10 +6145,10 @@
         <v>43725.18877314815</v>
       </c>
       <c r="F174" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H174" t="s">
-        <v>501</v>
+        <v>548</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5919,13 +6165,13 @@
         <v>43725.18828703704</v>
       </c>
       <c r="F175" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G175" t="s">
-        <v>225</v>
+        <v>260</v>
       </c>
       <c r="H175" t="s">
-        <v>502</v>
+        <v>549</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5942,13 +6188,13 @@
         <v>43725.18819444445</v>
       </c>
       <c r="F176" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="G176" t="s">
-        <v>259</v>
+        <v>294</v>
       </c>
       <c r="H176" t="s">
-        <v>503</v>
+        <v>550</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5965,13 +6211,13 @@
         <v>43725.18758101852</v>
       </c>
       <c r="F177" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="G177" t="s">
-        <v>323</v>
+        <v>358</v>
       </c>
       <c r="H177" t="s">
-        <v>504</v>
+        <v>551</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5988,13 +6234,13 @@
         <v>43725.18755787037</v>
       </c>
       <c r="F178" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="G178" t="s">
-        <v>324</v>
+        <v>359</v>
       </c>
       <c r="H178" t="s">
-        <v>505</v>
+        <v>552</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6011,10 +6257,10 @@
         <v>43725.18618055555</v>
       </c>
       <c r="F179" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="H179" t="s">
-        <v>506</v>
+        <v>553</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6031,13 +6277,13 @@
         <v>43725.18600694444</v>
       </c>
       <c r="F180" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="G180" t="s">
-        <v>325</v>
+        <v>360</v>
       </c>
       <c r="H180" t="s">
-        <v>507</v>
+        <v>554</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6054,13 +6300,13 @@
         <v>43725.18571759259</v>
       </c>
       <c r="F181" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="G181" t="s">
-        <v>326</v>
+        <v>361</v>
       </c>
       <c r="H181" t="s">
-        <v>508</v>
+        <v>555</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6077,13 +6323,13 @@
         <v>43725.18532407407</v>
       </c>
       <c r="F182" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="G182" t="s">
-        <v>327</v>
+        <v>362</v>
       </c>
       <c r="H182" t="s">
-        <v>509</v>
+        <v>556</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6100,10 +6346,10 @@
         <v>43725.18431712963</v>
       </c>
       <c r="F183" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="H183" t="s">
-        <v>510</v>
+        <v>557</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6120,13 +6366,13 @@
         <v>43725.18429398148</v>
       </c>
       <c r="F184" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="G184" t="s">
-        <v>328</v>
+        <v>363</v>
       </c>
       <c r="H184" t="s">
-        <v>511</v>
+        <v>558</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6143,13 +6389,13 @@
         <v>43725.18427083334</v>
       </c>
       <c r="F185" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G185" t="s">
-        <v>329</v>
+        <v>364</v>
       </c>
       <c r="H185" t="s">
-        <v>512</v>
+        <v>559</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6166,10 +6412,10 @@
         <v>43725.1836574074</v>
       </c>
       <c r="F186" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="H186" t="s">
-        <v>513</v>
+        <v>560</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6186,10 +6432,10 @@
         <v>43725.18340277778</v>
       </c>
       <c r="F187" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="H187" t="s">
-        <v>501</v>
+        <v>548</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6206,13 +6452,13 @@
         <v>43725.18326388889</v>
       </c>
       <c r="F188" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G188" t="s">
-        <v>330</v>
+        <v>365</v>
       </c>
       <c r="H188" t="s">
-        <v>514</v>
+        <v>561</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6229,13 +6475,13 @@
         <v>43725.18320601852</v>
       </c>
       <c r="F189" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G189" t="s">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="H189" t="s">
-        <v>515</v>
+        <v>562</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6252,13 +6498,13 @@
         <v>43725.1827662037</v>
       </c>
       <c r="F190" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="G190" t="s">
-        <v>221</v>
+        <v>256</v>
       </c>
       <c r="H190" t="s">
-        <v>516</v>
+        <v>563</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6275,13 +6521,13 @@
         <v>43725.18270833333</v>
       </c>
       <c r="F191" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G191" t="s">
-        <v>332</v>
+        <v>367</v>
       </c>
       <c r="H191" t="s">
-        <v>517</v>
+        <v>564</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6298,13 +6544,13 @@
         <v>43725.18188657407</v>
       </c>
       <c r="F192" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="G192" t="s">
-        <v>333</v>
+        <v>368</v>
       </c>
       <c r="H192" t="s">
-        <v>518</v>
+        <v>565</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6321,13 +6567,13 @@
         <v>43725.18185185185</v>
       </c>
       <c r="F193" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="G193" t="s">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="H193" t="s">
-        <v>519</v>
+        <v>566</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6344,13 +6590,13 @@
         <v>43725.18170138889</v>
       </c>
       <c r="F194" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="G194" t="s">
-        <v>335</v>
+        <v>370</v>
       </c>
       <c r="H194" t="s">
-        <v>520</v>
+        <v>567</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6367,13 +6613,13 @@
         <v>43725.18135416666</v>
       </c>
       <c r="F195" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G195" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
       <c r="H195" t="s">
-        <v>521</v>
+        <v>568</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6390,10 +6636,10 @@
         <v>43725.18077546296</v>
       </c>
       <c r="F196" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="H196" t="s">
-        <v>522</v>
+        <v>569</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6410,10 +6656,10 @@
         <v>43725.180625</v>
       </c>
       <c r="F197" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="H197" t="s">
-        <v>522</v>
+        <v>569</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6430,13 +6676,13 @@
         <v>43725.18060185185</v>
       </c>
       <c r="F198" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="G198" t="s">
-        <v>337</v>
+        <v>372</v>
       </c>
       <c r="H198" t="s">
-        <v>523</v>
+        <v>570</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6453,10 +6699,10 @@
         <v>43725.1802662037</v>
       </c>
       <c r="F199" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="H199" t="s">
-        <v>524</v>
+        <v>571</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6473,13 +6719,13 @@
         <v>43725.1802662037</v>
       </c>
       <c r="F200" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="G200" t="s">
-        <v>229</v>
+        <v>264</v>
       </c>
       <c r="H200" t="s">
-        <v>525</v>
+        <v>572</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6496,13 +6742,722 @@
         <v>43725.18013888889</v>
       </c>
       <c r="F201" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="G201" t="s">
+        <v>278</v>
+      </c>
+      <c r="H201" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
+      <c r="A202">
+        <v>0</v>
+      </c>
+      <c r="B202" t="s">
+        <v>8</v>
+      </c>
+      <c r="D202">
+        <v>0</v>
+      </c>
+      <c r="E202" s="2">
+        <v>43725.63597222222</v>
+      </c>
+      <c r="F202" t="s">
+        <v>219</v>
+      </c>
+      <c r="G202" t="s">
+        <v>295</v>
+      </c>
+      <c r="H202" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
+      <c r="A203">
+        <v>0</v>
+      </c>
+      <c r="B203" t="s">
+        <v>8</v>
+      </c>
+      <c r="D203">
+        <v>0</v>
+      </c>
+      <c r="E203" s="2">
+        <v>43725.63569444444</v>
+      </c>
+      <c r="F203" t="s">
+        <v>220</v>
+      </c>
+      <c r="G203" t="s">
+        <v>319</v>
+      </c>
+      <c r="H203" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8">
+      <c r="A204">
+        <v>0</v>
+      </c>
+      <c r="B204" t="s">
+        <v>16</v>
+      </c>
+      <c r="D204">
+        <v>0</v>
+      </c>
+      <c r="E204" s="2">
+        <v>43725.6356712963</v>
+      </c>
+      <c r="F204" t="s">
+        <v>221</v>
+      </c>
+      <c r="G204" t="s">
+        <v>260</v>
+      </c>
+      <c r="H204" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8">
+      <c r="A205">
+        <v>0</v>
+      </c>
+      <c r="B205" t="s">
+        <v>8</v>
+      </c>
+      <c r="D205">
+        <v>0</v>
+      </c>
+      <c r="E205" s="2">
+        <v>43725.6356712963</v>
+      </c>
+      <c r="F205" t="s">
+        <v>222</v>
+      </c>
+      <c r="G205" t="s">
+        <v>373</v>
+      </c>
+      <c r="H205" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8">
+      <c r="A206">
+        <v>10</v>
+      </c>
+      <c r="B206" t="s">
+        <v>9</v>
+      </c>
+      <c r="D206">
+        <v>1</v>
+      </c>
+      <c r="E206" s="2">
+        <v>43725.6349537037</v>
+      </c>
+      <c r="F206" t="s">
+        <v>223</v>
+      </c>
+      <c r="G206" t="s">
+        <v>374</v>
+      </c>
+      <c r="H206" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8">
+      <c r="A207">
+        <v>0</v>
+      </c>
+      <c r="B207" t="s">
+        <v>8</v>
+      </c>
+      <c r="D207">
+        <v>0</v>
+      </c>
+      <c r="E207" s="2">
+        <v>43725.63493055556</v>
+      </c>
+      <c r="F207" t="s">
+        <v>224</v>
+      </c>
+      <c r="G207" t="s">
+        <v>375</v>
+      </c>
+      <c r="H207" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8">
+      <c r="A208">
+        <v>0</v>
+      </c>
+      <c r="B208" t="s">
+        <v>8</v>
+      </c>
+      <c r="D208">
+        <v>0</v>
+      </c>
+      <c r="E208" s="2">
+        <v>43725.6346412037</v>
+      </c>
+      <c r="F208" t="s">
+        <v>225</v>
+      </c>
+      <c r="G208" t="s">
+        <v>376</v>
+      </c>
+      <c r="H208" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8">
+      <c r="A209">
+        <v>0</v>
+      </c>
+      <c r="B209" t="s">
+        <v>9</v>
+      </c>
+      <c r="D209">
+        <v>0</v>
+      </c>
+      <c r="E209" s="2">
+        <v>43725.63454861111</v>
+      </c>
+      <c r="F209" t="s">
+        <v>226</v>
+      </c>
+      <c r="G209" t="s">
+        <v>278</v>
+      </c>
+      <c r="H209" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8">
+      <c r="A210">
+        <v>0</v>
+      </c>
+      <c r="B210" t="s">
+        <v>8</v>
+      </c>
+      <c r="D210">
+        <v>0</v>
+      </c>
+      <c r="E210" s="2">
+        <v>43725.63351851852</v>
+      </c>
+      <c r="F210" t="s">
+        <v>227</v>
+      </c>
+      <c r="G210" t="s">
+        <v>377</v>
+      </c>
+      <c r="H210" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8">
+      <c r="A211">
+        <v>0</v>
+      </c>
+      <c r="B211" t="s">
+        <v>8</v>
+      </c>
+      <c r="D211">
+        <v>0</v>
+      </c>
+      <c r="E211" s="2">
+        <v>43725.63342592592</v>
+      </c>
+      <c r="F211" t="s">
+        <v>228</v>
+      </c>
+      <c r="H211" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8">
+      <c r="A212">
+        <v>1</v>
+      </c>
+      <c r="B212" t="s">
+        <v>8</v>
+      </c>
+      <c r="D212">
+        <v>0</v>
+      </c>
+      <c r="E212" s="2">
+        <v>43725.63341435185</v>
+      </c>
+      <c r="F212" t="s">
+        <v>229</v>
+      </c>
+      <c r="H212" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8">
+      <c r="A213">
+        <v>0</v>
+      </c>
+      <c r="B213" t="s">
+        <v>8</v>
+      </c>
+      <c r="D213">
+        <v>0</v>
+      </c>
+      <c r="E213" s="2">
+        <v>43725.6330787037</v>
+      </c>
+      <c r="F213" t="s">
+        <v>230</v>
+      </c>
+      <c r="G213" t="s">
+        <v>252</v>
+      </c>
+      <c r="H213" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8">
+      <c r="A214">
+        <v>1</v>
+      </c>
+      <c r="B214" t="s">
+        <v>8</v>
+      </c>
+      <c r="D214">
+        <v>0</v>
+      </c>
+      <c r="E214" s="2">
+        <v>43725.63297453704</v>
+      </c>
+      <c r="F214" t="s">
+        <v>231</v>
+      </c>
+      <c r="H214" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8">
+      <c r="A215">
+        <v>0</v>
+      </c>
+      <c r="B215" t="s">
+        <v>8</v>
+      </c>
+      <c r="D215">
+        <v>0</v>
+      </c>
+      <c r="E215" s="2">
+        <v>43725.63282407408</v>
+      </c>
+      <c r="F215" t="s">
+        <v>232</v>
+      </c>
+      <c r="H215" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8">
+      <c r="A216">
+        <v>0</v>
+      </c>
+      <c r="B216" t="s">
+        <v>8</v>
+      </c>
+      <c r="D216">
+        <v>0</v>
+      </c>
+      <c r="E216" s="2">
+        <v>43725.6327662037</v>
+      </c>
+      <c r="F216" t="s">
+        <v>233</v>
+      </c>
+      <c r="G216" t="s">
+        <v>260</v>
+      </c>
+      <c r="H216" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8">
+      <c r="A217">
+        <v>0</v>
+      </c>
+      <c r="B217" t="s">
+        <v>17</v>
+      </c>
+      <c r="D217">
+        <v>0</v>
+      </c>
+      <c r="E217" s="2">
+        <v>43725.63263888889</v>
+      </c>
+      <c r="F217" t="s">
+        <v>234</v>
+      </c>
+      <c r="G217" t="s">
+        <v>260</v>
+      </c>
+      <c r="H217" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8">
+      <c r="A218">
+        <v>0</v>
+      </c>
+      <c r="B218" t="s">
+        <v>10</v>
+      </c>
+      <c r="D218">
+        <v>0</v>
+      </c>
+      <c r="E218" s="2">
+        <v>43725.63251157408</v>
+      </c>
+      <c r="F218" t="s">
+        <v>235</v>
+      </c>
+      <c r="G218" t="s">
+        <v>328</v>
+      </c>
+      <c r="H218" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8">
+      <c r="A219">
+        <v>0</v>
+      </c>
+      <c r="B219" t="s">
+        <v>9</v>
+      </c>
+      <c r="D219">
+        <v>0</v>
+      </c>
+      <c r="E219" s="2">
+        <v>43725.63228009259</v>
+      </c>
+      <c r="F219" t="s">
+        <v>236</v>
+      </c>
+      <c r="H219" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8">
+      <c r="A220">
+        <v>0</v>
+      </c>
+      <c r="B220" t="s">
+        <v>8</v>
+      </c>
+      <c r="D220">
+        <v>0</v>
+      </c>
+      <c r="E220" s="2">
+        <v>43725.63209490741</v>
+      </c>
+      <c r="F220" t="s">
+        <v>237</v>
+      </c>
+      <c r="H220" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8">
+      <c r="A221">
+        <v>0</v>
+      </c>
+      <c r="B221" t="s">
+        <v>8</v>
+      </c>
+      <c r="D221">
+        <v>0</v>
+      </c>
+      <c r="E221" s="2">
+        <v>43725.631875</v>
+      </c>
+      <c r="F221" t="s">
+        <v>238</v>
+      </c>
+      <c r="G221" t="s">
+        <v>378</v>
+      </c>
+      <c r="H221" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8">
+      <c r="A222">
+        <v>0</v>
+      </c>
+      <c r="B222" t="s">
+        <v>10</v>
+      </c>
+      <c r="D222">
+        <v>0</v>
+      </c>
+      <c r="E222" s="2">
+        <v>43725.63170138889</v>
+      </c>
+      <c r="F222" t="s">
+        <v>239</v>
+      </c>
+      <c r="G222" t="s">
+        <v>379</v>
+      </c>
+      <c r="H222" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8">
+      <c r="A223">
+        <v>0</v>
+      </c>
+      <c r="B223" t="s">
+        <v>12</v>
+      </c>
+      <c r="D223">
+        <v>0</v>
+      </c>
+      <c r="E223" s="2">
+        <v>43725.63166666667</v>
+      </c>
+      <c r="F223" t="s">
+        <v>240</v>
+      </c>
+      <c r="H223" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8">
+      <c r="A224">
+        <v>0</v>
+      </c>
+      <c r="B224" t="s">
+        <v>8</v>
+      </c>
+      <c r="D224">
+        <v>0</v>
+      </c>
+      <c r="E224" s="2">
+        <v>43725.63157407408</v>
+      </c>
+      <c r="F224" t="s">
+        <v>241</v>
+      </c>
+      <c r="G224" t="s">
+        <v>380</v>
+      </c>
+      <c r="H224" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8">
+      <c r="A225">
+        <v>1</v>
+      </c>
+      <c r="B225" t="s">
+        <v>8</v>
+      </c>
+      <c r="D225">
+        <v>0</v>
+      </c>
+      <c r="E225" s="2">
+        <v>43725.63142361111</v>
+      </c>
+      <c r="F225" t="s">
+        <v>242</v>
+      </c>
+      <c r="G225" t="s">
+        <v>381</v>
+      </c>
+      <c r="H225" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8">
+      <c r="A226">
+        <v>3</v>
+      </c>
+      <c r="B226" t="s">
+        <v>9</v>
+      </c>
+      <c r="D226">
+        <v>0</v>
+      </c>
+      <c r="E226" s="2">
+        <v>43725.63127314814</v>
+      </c>
+      <c r="F226" t="s">
         <v>243</v>
       </c>
-      <c r="H201" t="s">
-        <v>526</v>
+      <c r="G226" t="s">
+        <v>382</v>
+      </c>
+      <c r="H226" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8">
+      <c r="A227">
+        <v>0</v>
+      </c>
+      <c r="B227" t="s">
+        <v>8</v>
+      </c>
+      <c r="D227">
+        <v>0</v>
+      </c>
+      <c r="E227" s="2">
+        <v>43725.63081018518</v>
+      </c>
+      <c r="F227" t="s">
+        <v>244</v>
+      </c>
+      <c r="G227" t="s">
+        <v>383</v>
+      </c>
+      <c r="H227" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8">
+      <c r="A228">
+        <v>0</v>
+      </c>
+      <c r="B228" t="s">
+        <v>8</v>
+      </c>
+      <c r="D228">
+        <v>0</v>
+      </c>
+      <c r="E228" s="2">
+        <v>43725.63076388889</v>
+      </c>
+      <c r="F228" t="s">
+        <v>245</v>
+      </c>
+      <c r="G228" t="s">
+        <v>384</v>
+      </c>
+      <c r="H228" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8">
+      <c r="A229">
+        <v>0</v>
+      </c>
+      <c r="B229" t="s">
+        <v>8</v>
+      </c>
+      <c r="D229">
+        <v>0</v>
+      </c>
+      <c r="E229" s="2">
+        <v>43725.63060185185</v>
+      </c>
+      <c r="F229" t="s">
+        <v>246</v>
+      </c>
+      <c r="H229" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8">
+      <c r="A230">
+        <v>0</v>
+      </c>
+      <c r="B230" t="s">
+        <v>8</v>
+      </c>
+      <c r="D230">
+        <v>1</v>
+      </c>
+      <c r="E230" s="2">
+        <v>43725.63049768518</v>
+      </c>
+      <c r="F230" t="s">
+        <v>247</v>
+      </c>
+      <c r="G230" t="s">
+        <v>264</v>
+      </c>
+      <c r="H230" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8">
+      <c r="A231">
+        <v>0</v>
+      </c>
+      <c r="B231" t="s">
+        <v>9</v>
+      </c>
+      <c r="D231">
+        <v>0</v>
+      </c>
+      <c r="E231" s="2">
+        <v>43725.63023148148</v>
+      </c>
+      <c r="F231" t="s">
+        <v>248</v>
+      </c>
+      <c r="G231" t="s">
+        <v>319</v>
+      </c>
+      <c r="H231" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8">
+      <c r="A232">
+        <v>0</v>
+      </c>
+      <c r="B232" t="s">
+        <v>18</v>
+      </c>
+      <c r="D232">
+        <v>0</v>
+      </c>
+      <c r="E232" s="2">
+        <v>43725.63019675926</v>
+      </c>
+      <c r="F232" t="s">
+        <v>249</v>
+      </c>
+      <c r="G232" t="s">
+        <v>260</v>
+      </c>
+      <c r="H232" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8">
+      <c r="A233">
+        <v>0</v>
+      </c>
+      <c r="B233" t="s">
+        <v>9</v>
+      </c>
+      <c r="D233">
+        <v>0</v>
+      </c>
+      <c r="E233" s="2">
+        <v>43725.63018518518</v>
+      </c>
+      <c r="F233" t="s">
+        <v>250</v>
+      </c>
+      <c r="H233" t="s">
+        <v>605</v>
       </c>
     </row>
   </sheetData>
